--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2023.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2023.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>147.5353364883983</v>
+        <v>155.3825058349552</v>
       </c>
       <c r="C2">
-        <v>133.0510376415413</v>
+        <v>138.4883778455717</v>
       </c>
       <c r="D2">
-        <v>133.3254727107079</v>
+        <v>140.8194679057958</v>
       </c>
       <c r="E2">
-        <v>114.3159046204068</v>
+        <v>122.3331702728718</v>
       </c>
       <c r="F2">
-        <v>137.926307932415</v>
+        <v>140.5117281985165</v>
       </c>
       <c r="G2">
-        <v>135.8130639948488</v>
+        <v>145.1139037386579</v>
       </c>
       <c r="H2">
-        <v>154.037349001816</v>
+        <v>165.5962952839603</v>
       </c>
       <c r="I2">
-        <v>149.0232330027204</v>
+        <v>152.9672451419158</v>
       </c>
       <c r="J2">
-        <v>130.2204219041391</v>
+        <v>135.074948775703</v>
       </c>
       <c r="K2">
-        <v>132.056620728823</v>
+        <v>137.4967004756051</v>
       </c>
       <c r="L2">
-        <v>181.1210061627006</v>
+        <v>190.2282961158755</v>
       </c>
       <c r="M2">
-        <v>150.0314017604861</v>
+        <v>155.7884206652489</v>
       </c>
       <c r="N2">
-        <v>112.5168362330499</v>
+        <v>117.5931772165876</v>
       </c>
       <c r="O2">
-        <v>149.1057146284277</v>
+        <v>154.7542346851424</v>
       </c>
       <c r="P2">
-        <v>124.1302061006614</v>
+        <v>134.7511821144117</v>
       </c>
       <c r="Q2">
-        <v>126.3721508478701</v>
+        <v>132.4953563651086</v>
       </c>
       <c r="R2">
-        <v>144.7566079419117</v>
+        <v>155.6216941871804</v>
       </c>
       <c r="S2">
-        <v>186.6452434952171</v>
+        <v>183.9768370728686</v>
       </c>
       <c r="T2">
-        <v>150.0496732012423</v>
+        <v>171.5397661134826</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>14.56127805779863</v>
+        <v>15.33576922406126</v>
       </c>
       <c r="C3">
-        <v>11.74995394928834</v>
+        <v>12.23013432319941</v>
       </c>
       <c r="D3">
-        <v>10.9481936385757</v>
+        <v>11.5635727469656</v>
       </c>
       <c r="E3">
-        <v>12.28829727128149</v>
+        <v>13.15010686783293</v>
       </c>
       <c r="F3">
-        <v>17.36571893872566</v>
+        <v>17.69123828563375</v>
       </c>
       <c r="G3">
-        <v>10.8754060659224</v>
+        <v>11.62018279058145</v>
       </c>
       <c r="H3">
-        <v>11.16979354542806</v>
+        <v>12.00797366480108</v>
       </c>
       <c r="I3">
-        <v>12.77295015414607</v>
+        <v>13.11099590343115</v>
       </c>
       <c r="J3">
-        <v>11.97693458727296</v>
+        <v>12.42342638896348</v>
       </c>
       <c r="K3">
-        <v>12.87616911452829</v>
+        <v>13.4066036086831</v>
       </c>
       <c r="L3">
-        <v>16.50726876091641</v>
+        <v>17.33730215199423</v>
       </c>
       <c r="M3">
-        <v>14.08334630486572</v>
+        <v>14.62375377935475</v>
       </c>
       <c r="N3">
-        <v>10.60409377941122</v>
+        <v>11.08251103364513</v>
       </c>
       <c r="O3">
-        <v>14.63737160514205</v>
+        <v>15.19187407538787</v>
       </c>
       <c r="P3">
-        <v>9.891775923718713</v>
+        <v>10.73814779499404</v>
       </c>
       <c r="Q3">
-        <v>9.122447852873639</v>
+        <v>9.564464726438452</v>
       </c>
       <c r="R3">
-        <v>10.20852353134392</v>
+        <v>10.97475099537385</v>
       </c>
       <c r="S3">
-        <v>20.31505619764162</v>
+        <v>20.02461843768046</v>
       </c>
       <c r="T3">
-        <v>18.09845842513123</v>
+        <v>20.69051707362129</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>14.70144009257958</v>
+        <v>15.48338625402548</v>
       </c>
       <c r="C4">
-        <v>11.0299702170903</v>
+        <v>11.48072732183548</v>
       </c>
       <c r="D4">
-        <v>11.0212790433726</v>
+        <v>11.64076615649141</v>
       </c>
       <c r="E4">
-        <v>13.62106281911777</v>
+        <v>14.576342659245</v>
       </c>
       <c r="F4">
-        <v>12.96259754359775</v>
+        <v>13.2055806473502</v>
       </c>
       <c r="G4">
-        <v>11.76656225341832</v>
+        <v>12.57236772334533</v>
       </c>
       <c r="H4">
-        <v>11.80367292042419</v>
+        <v>12.68941928066294</v>
       </c>
       <c r="I4">
-        <v>13.27223804126466</v>
+        <v>13.62349782065814</v>
       </c>
       <c r="J4">
-        <v>12.98471432016318</v>
+        <v>13.46877545024625</v>
       </c>
       <c r="K4">
-        <v>11.83617659111006</v>
+        <v>12.32376853612021</v>
       </c>
       <c r="L4">
-        <v>13.60667025315357</v>
+        <v>14.29085313131952</v>
       </c>
       <c r="M4">
-        <v>15.30729130694288</v>
+        <v>15.89466411290697</v>
       </c>
       <c r="N4">
-        <v>10.87901740881535</v>
+        <v>11.36983819423632</v>
       </c>
       <c r="O4">
-        <v>18.81936295441195</v>
+        <v>19.5322903520472</v>
       </c>
       <c r="P4">
-        <v>10.36919692869603</v>
+        <v>11.25641846260876</v>
       </c>
       <c r="Q4">
-        <v>10.9704262763036</v>
+        <v>11.50198464775513</v>
       </c>
       <c r="R4">
-        <v>13.03916313898601</v>
+        <v>14.01785167062156</v>
       </c>
       <c r="S4">
-        <v>16.07174300563232</v>
+        <v>15.84197051611445</v>
       </c>
       <c r="T4">
-        <v>11.48672704772721</v>
+        <v>13.13185446617971</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>22.09965949510069</v>
+        <v>23.27510515230388</v>
       </c>
       <c r="C5">
-        <v>16.54156982219251</v>
+        <v>17.21756712538004</v>
       </c>
       <c r="D5">
-        <v>15.35639752790454</v>
+        <v>16.21955418467995</v>
       </c>
       <c r="E5">
-        <v>14.96803695488407</v>
+        <v>16.01778352306018</v>
       </c>
       <c r="F5">
-        <v>15.35754902626043</v>
+        <v>15.645425350113</v>
       </c>
       <c r="G5">
-        <v>16.31346785741318</v>
+        <v>17.43065751313979</v>
       </c>
       <c r="H5">
-        <v>16.97103272737791</v>
+        <v>18.24453721781133</v>
       </c>
       <c r="I5">
-        <v>19.57014183896112</v>
+        <v>20.08808038735665</v>
       </c>
       <c r="J5">
-        <v>13.95247391925631</v>
+        <v>14.47261245494379</v>
       </c>
       <c r="K5">
-        <v>17.7546387157533</v>
+        <v>18.48604203317836</v>
       </c>
       <c r="L5">
-        <v>23.89279840915147</v>
+        <v>25.09419766987239</v>
       </c>
       <c r="M5">
-        <v>16.1179354543421</v>
+        <v>16.73641437293894</v>
       </c>
       <c r="N5">
-        <v>17.02139007629173</v>
+        <v>17.78933186112908</v>
       </c>
       <c r="O5">
-        <v>25.61198430607058</v>
+        <v>26.58223422174699</v>
       </c>
       <c r="P5">
-        <v>13.66496595681554</v>
+        <v>14.83418399177439</v>
       </c>
       <c r="Q5">
-        <v>13.40491852554652</v>
+        <v>14.05443719341006</v>
       </c>
       <c r="R5">
-        <v>18.2345296238198</v>
+        <v>19.60316999071905</v>
       </c>
       <c r="S5">
-        <v>24.86678062415787</v>
+        <v>24.51126833850815</v>
       </c>
       <c r="T5">
-        <v>24.42677703056594</v>
+        <v>27.92517657209252</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>24.63659232463587</v>
+        <v>25.94697339465637</v>
       </c>
       <c r="C6">
-        <v>23.67219240711727</v>
+        <v>24.63959383272311</v>
       </c>
       <c r="D6">
-        <v>24.32820795676195</v>
+        <v>25.69565462562668</v>
       </c>
       <c r="E6">
-        <v>18.17349439189755</v>
+        <v>19.44804785720265</v>
       </c>
       <c r="F6">
-        <v>17.76951889801181</v>
+        <v>18.10260745063445</v>
       </c>
       <c r="G6">
-        <v>24.0805900229875</v>
+        <v>25.7296928570762</v>
       </c>
       <c r="H6">
-        <v>23.68735757568245</v>
+        <v>25.46485436823001</v>
       </c>
       <c r="I6">
-        <v>25.43976426043161</v>
+        <v>26.11304678852961</v>
       </c>
       <c r="J6">
-        <v>19.14126617574741</v>
+        <v>19.85483928238599</v>
       </c>
       <c r="K6">
-        <v>21.49741554697666</v>
+        <v>22.38300276161104</v>
       </c>
       <c r="L6">
-        <v>27.83329675388908</v>
+        <v>29.23283570997639</v>
       </c>
       <c r="M6">
-        <v>28.70446244767146</v>
+        <v>29.80591275089607</v>
       </c>
       <c r="N6">
-        <v>19.06378324947027</v>
+        <v>19.92387021467894</v>
       </c>
       <c r="O6">
-        <v>26.60141950709907</v>
+        <v>27.60915185322261</v>
       </c>
       <c r="P6">
-        <v>26.57097402896357</v>
+        <v>28.8444712436121</v>
       </c>
       <c r="Q6">
-        <v>22.89667906487898</v>
+        <v>24.00610919355729</v>
       </c>
       <c r="R6">
-        <v>23.91898460099604</v>
+        <v>25.71428662059961</v>
       </c>
       <c r="S6">
-        <v>27.87399467733432</v>
+        <v>27.47548922913406</v>
       </c>
       <c r="T6">
-        <v>30.30296716687992</v>
+        <v>34.64295382622723</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>7.778214252371686</v>
+        <v>8.191925068403631</v>
       </c>
       <c r="C7">
-        <v>6.704049151114633</v>
+        <v>6.978020678321807</v>
       </c>
       <c r="D7">
-        <v>7.962462522609689</v>
+        <v>8.410018827285082</v>
       </c>
       <c r="E7">
-        <v>6.327794634636311</v>
+        <v>6.77157899472671</v>
       </c>
       <c r="F7">
-        <v>7.481129130759313</v>
+        <v>7.621362441995811</v>
       </c>
       <c r="G7">
-        <v>7.905602957995184</v>
+        <v>8.446999669237078</v>
       </c>
       <c r="H7">
-        <v>7.982529972377687</v>
+        <v>8.581538172299593</v>
       </c>
       <c r="I7">
-        <v>8.701661050650628</v>
+        <v>8.931957066402095</v>
       </c>
       <c r="J7">
-        <v>6.985332444582039</v>
+        <v>7.245740785786721</v>
       </c>
       <c r="K7">
-        <v>6.376028928620212</v>
+        <v>6.638689790665981</v>
       </c>
       <c r="L7">
-        <v>8.611333366680174</v>
+        <v>9.044336205585322</v>
       </c>
       <c r="M7">
-        <v>10.38757495569921</v>
+        <v>10.78616794818534</v>
       </c>
       <c r="N7">
-        <v>6.166971097475695</v>
+        <v>6.445201886524599</v>
       </c>
       <c r="O7">
-        <v>8.072215860218636</v>
+        <v>8.378012813086615</v>
       </c>
       <c r="P7">
-        <v>7.741519384920736</v>
+        <v>8.403908454270615</v>
       </c>
       <c r="Q7">
-        <v>7.239094651047236</v>
+        <v>7.589855985801012</v>
       </c>
       <c r="R7">
-        <v>7.501754375193779</v>
+        <v>8.064818192701921</v>
       </c>
       <c r="S7">
-        <v>8.473537313058106</v>
+        <v>8.352393902367583</v>
       </c>
       <c r="T7">
-        <v>9.121007381967763</v>
+        <v>10.42731676545327</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>241</v>
+        <v>200.63</v>
       </c>
       <c r="C8">
-        <v>273</v>
+        <v>243.29</v>
       </c>
       <c r="D8">
-        <v>251</v>
+        <v>208.9</v>
       </c>
       <c r="E8">
-        <v>321</v>
+        <v>273.38</v>
       </c>
       <c r="F8">
-        <v>259</v>
+        <v>245.11</v>
       </c>
       <c r="G8">
-        <v>308</v>
+        <v>260.61</v>
       </c>
       <c r="H8">
-        <v>248</v>
+        <v>191.57</v>
       </c>
       <c r="I8">
-        <v>270</v>
+        <v>250.68</v>
       </c>
       <c r="J8">
-        <v>309</v>
+        <v>283.24</v>
       </c>
       <c r="K8">
-        <v>272</v>
+        <v>242.01</v>
       </c>
       <c r="L8">
-        <v>187</v>
+        <v>146.12</v>
       </c>
       <c r="M8">
-        <v>226</v>
+        <v>196.3</v>
       </c>
       <c r="N8">
-        <v>312</v>
+        <v>280.96</v>
       </c>
       <c r="O8">
-        <v>216</v>
+        <v>186.3</v>
       </c>
       <c r="P8">
-        <v>272</v>
+        <v>209.71</v>
       </c>
       <c r="Q8">
-        <v>308</v>
+        <v>274.47</v>
       </c>
       <c r="R8">
-        <v>219</v>
+        <v>160.38</v>
       </c>
       <c r="S8">
-        <v>218</v>
+        <v>229.18</v>
       </c>
       <c r="T8">
-        <v>295</v>
+        <v>194.03</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>9.745154807131009</v>
+        <v>10.26348405556827</v>
       </c>
       <c r="C9">
-        <v>8.087591558128416</v>
+        <v>8.418103724829921</v>
       </c>
       <c r="D9">
-        <v>9.556493667232616</v>
+        <v>10.09364771715317</v>
       </c>
       <c r="E9">
-        <v>9.834474135766301</v>
+        <v>10.52419086381518</v>
       </c>
       <c r="F9">
-        <v>12.46364931804302</v>
+        <v>12.69727966760795</v>
       </c>
       <c r="G9">
-        <v>10.54821828693839</v>
+        <v>11.27058832251355</v>
       </c>
       <c r="H9">
-        <v>8.146437506843599</v>
+        <v>8.757745310714855</v>
       </c>
       <c r="I9">
-        <v>8.017756235211243</v>
+        <v>8.229952194751355</v>
       </c>
       <c r="J9">
-        <v>7.849039695802757</v>
+        <v>8.141646443362642</v>
       </c>
       <c r="K9">
-        <v>6.366309372326583</v>
+        <v>6.628569836716795</v>
       </c>
       <c r="L9">
-        <v>10.43966484381938</v>
+        <v>10.96460149672878</v>
       </c>
       <c r="M9">
-        <v>9.431716994494229</v>
+        <v>9.793631716375984</v>
       </c>
       <c r="N9">
-        <v>6.711030490401753</v>
+        <v>7.013807214852439</v>
       </c>
       <c r="O9">
-        <v>9.960260772660494</v>
+        <v>10.33758187591052</v>
       </c>
       <c r="P9">
-        <v>11.75081309754613</v>
+        <v>12.75625011381831</v>
       </c>
       <c r="Q9">
-        <v>6.886054362650778</v>
+        <v>7.219709568979794</v>
       </c>
       <c r="R9">
-        <v>5.411140819690751</v>
+        <v>5.817288162648844</v>
       </c>
       <c r="S9">
-        <v>7.288158324197206</v>
+        <v>7.183961891889631</v>
       </c>
       <c r="T9">
-        <v>6.68572949018974</v>
+        <v>7.643258719444289</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>21.66671454322176</v>
+        <v>22.8191325486366</v>
       </c>
       <c r="C10">
-        <v>24.78489453869605</v>
+        <v>25.79776828937646</v>
       </c>
       <c r="D10">
-        <v>22.56800368123239</v>
+        <v>23.83651229936308</v>
       </c>
       <c r="E10">
-        <v>20.49588808906002</v>
+        <v>21.93331694149159</v>
       </c>
       <c r="F10">
-        <v>18.42782113048789</v>
+        <v>18.77324951848043</v>
       </c>
       <c r="G10">
-        <v>21.10074167623183</v>
+        <v>22.54577657223852</v>
       </c>
       <c r="H10">
-        <v>23.38440052145636</v>
+        <v>25.13916344888426</v>
       </c>
       <c r="I10">
-        <v>19.80035242164454</v>
+        <v>20.32438366655711</v>
       </c>
       <c r="J10">
-        <v>20.48739794892207</v>
+        <v>21.2511539129803</v>
       </c>
       <c r="K10">
-        <v>20.87984989324304</v>
+        <v>21.73999645683969</v>
       </c>
       <c r="L10">
-        <v>22.3732001637398</v>
+        <v>23.49818961354753</v>
       </c>
       <c r="M10">
-        <v>17.03549526685105</v>
+        <v>17.68918287592789</v>
       </c>
       <c r="N10">
-        <v>26.56196349985015</v>
+        <v>27.76034045775037</v>
       </c>
       <c r="O10">
-        <v>25.84427250517475</v>
+        <v>26.82332211410804</v>
       </c>
       <c r="P10">
-        <v>19.4215758592643</v>
+        <v>21.08334778271701</v>
       </c>
       <c r="Q10">
-        <v>23.48390038625986</v>
+        <v>24.62178359428196</v>
       </c>
       <c r="R10">
-        <v>26.23096664077825</v>
+        <v>28.19980052615906</v>
       </c>
       <c r="S10">
-        <v>23.5685083982626</v>
+        <v>23.23155708893706</v>
       </c>
       <c r="T10">
-        <v>16.19004709638753</v>
+        <v>18.50878334507157</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>36.97240874130143</v>
+        <v>38.93891222073008</v>
       </c>
       <c r="C11">
-        <v>42.53847459346018</v>
+        <v>44.27687635435659</v>
       </c>
       <c r="D11">
-        <v>41.29863895060226</v>
+        <v>43.61996431751863</v>
       </c>
       <c r="E11">
-        <v>32.94261111576127</v>
+        <v>35.25296036661923</v>
       </c>
       <c r="F11">
-        <v>25.939892786863</v>
+        <v>26.42613450185561</v>
       </c>
       <c r="G11">
-        <v>36.26044210249088</v>
+        <v>38.74365359271782</v>
       </c>
       <c r="H11">
-        <v>48.15851942755496</v>
+        <v>51.77232960215194</v>
       </c>
       <c r="I11">
-        <v>46.89494210435244</v>
+        <v>48.13605207894983</v>
       </c>
       <c r="J11">
-        <v>38.74531062594838</v>
+        <v>40.18970889183034</v>
       </c>
       <c r="K11">
-        <v>37.97355878102961</v>
+        <v>39.5378816214734</v>
       </c>
       <c r="L11">
-        <v>46.10582246073155</v>
+        <v>48.42415705137694</v>
       </c>
       <c r="M11">
-        <v>39.84523432772585</v>
+        <v>41.37417936588277</v>
       </c>
       <c r="N11">
-        <v>35.3443264928414</v>
+        <v>36.93893099042543</v>
       </c>
       <c r="O11">
-        <v>32.86516322896345</v>
+        <v>34.11018280536679</v>
       </c>
       <c r="P11">
-        <v>38.12441338810253</v>
+        <v>41.3864596929719</v>
       </c>
       <c r="Q11">
-        <v>37.06074033481308</v>
+        <v>38.85647244959093</v>
       </c>
       <c r="R11">
-        <v>51.41662650380498</v>
+        <v>55.27583603729159</v>
       </c>
       <c r="S11">
-        <v>29.66147093037853</v>
+        <v>29.23741051477542</v>
       </c>
       <c r="T11">
-        <v>29.79608009429774</v>
+        <v>34.06347045900871</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>11.00661312015955</v>
+        <v>11.5920373252463</v>
       </c>
       <c r="C12">
-        <v>11.89214509389171</v>
+        <v>12.37813633287317</v>
       </c>
       <c r="D12">
-        <v>11.79983093447221</v>
+        <v>12.46307910849262</v>
       </c>
       <c r="E12">
-        <v>10.48522746296141</v>
+        <v>11.22058317987779</v>
       </c>
       <c r="F12">
-        <v>9.236343896315397</v>
+        <v>9.409478601740254</v>
       </c>
       <c r="G12">
-        <v>9.655627065324122</v>
+        <v>10.31687008067919</v>
       </c>
       <c r="H12">
-        <v>11.18688343053825</v>
+        <v>12.02634597307186</v>
       </c>
       <c r="I12">
-        <v>10.42973529468982</v>
+        <v>10.70576609728353</v>
       </c>
       <c r="J12">
-        <v>9.257020766663825</v>
+        <v>9.602116070497777</v>
       </c>
       <c r="K12">
-        <v>10.4395511175333</v>
+        <v>10.8696089994218</v>
       </c>
       <c r="L12">
-        <v>11.57998597390984</v>
+        <v>12.16226128339746</v>
       </c>
       <c r="M12">
-        <v>13.18972283529178</v>
+        <v>13.69584010687855</v>
       </c>
       <c r="N12">
-        <v>9.7583418773759</v>
+        <v>10.19860195277379</v>
       </c>
       <c r="O12">
-        <v>12.22446788988004</v>
+        <v>12.68756316581045</v>
       </c>
       <c r="P12">
-        <v>12.76151559950278</v>
+        <v>13.85343154276243</v>
       </c>
       <c r="Q12">
-        <v>12.18519616643731</v>
+        <v>12.77561470323014</v>
       </c>
       <c r="R12">
-        <v>12.82338880412905</v>
+        <v>13.7858818280702</v>
       </c>
       <c r="S12">
-        <v>9.063363573215945</v>
+        <v>8.933787608064341</v>
       </c>
       <c r="T12">
-        <v>11.79011931014866</v>
+        <v>13.4786985253908</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>3.268111444309136</v>
+        <v>3.441937081999203</v>
       </c>
       <c r="C13">
-        <v>3.379484770150032</v>
+        <v>3.517592737854511</v>
       </c>
       <c r="D13">
-        <v>3.359620660505944</v>
+        <v>3.54845915157043</v>
       </c>
       <c r="E13">
-        <v>2.784883234284758</v>
+        <v>2.980194191010295</v>
       </c>
       <c r="F13">
-        <v>3.042423831173237</v>
+        <v>3.099453881125998</v>
       </c>
       <c r="G13">
-        <v>2.287444384651356</v>
+        <v>2.444094658334344</v>
       </c>
       <c r="H13">
-        <v>3.156191054668211</v>
+        <v>3.393031295645509</v>
       </c>
       <c r="I13">
-        <v>3.137740344496765</v>
+        <v>3.220783006764817</v>
       </c>
       <c r="J13">
-        <v>2.476882462641381</v>
+        <v>2.569218920293541</v>
       </c>
       <c r="K13">
-        <v>2.77381183456625</v>
+        <v>2.888079165498451</v>
       </c>
       <c r="L13">
-        <v>3.215971163828612</v>
+        <v>3.377679529360363</v>
       </c>
       <c r="M13">
-        <v>3.221033880955351</v>
+        <v>3.344631692666428</v>
       </c>
       <c r="N13">
-        <v>2.331062984052873</v>
+        <v>2.436231872170608</v>
       </c>
       <c r="O13">
-        <v>3.347682869442459</v>
+        <v>3.474501978144554</v>
       </c>
       <c r="P13">
-        <v>3.476757022206081</v>
+        <v>3.774239432801158</v>
       </c>
       <c r="Q13">
-        <v>3.042230942093737</v>
+        <v>3.189638461585648</v>
       </c>
       <c r="R13">
-        <v>3.049610599311757</v>
+        <v>3.278507108059074</v>
       </c>
       <c r="S13">
-        <v>2.796970850873302</v>
+        <v>2.75698346709739</v>
       </c>
       <c r="T13">
-        <v>3.821262544254545</v>
+        <v>4.368543223819624</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>7.648175031213804</v>
+        <v>8.054969268381265</v>
       </c>
       <c r="C14">
-        <v>6.564115008806551</v>
+        <v>6.832367906896842</v>
       </c>
       <c r="D14">
-        <v>6.7177026809109</v>
+        <v>7.09529317872979</v>
       </c>
       <c r="E14">
-        <v>7.090795806478615</v>
+        <v>7.588091382773919</v>
       </c>
       <c r="F14">
-        <v>5.155024767591776</v>
+        <v>5.251655393802098</v>
       </c>
       <c r="G14">
-        <v>5.810453145202849</v>
+        <v>6.208368426346148</v>
       </c>
       <c r="H14">
-        <v>7.21503876833826</v>
+        <v>7.756454509957049</v>
       </c>
       <c r="I14">
-        <v>6.031068804131586</v>
+        <v>6.190685583988879</v>
       </c>
       <c r="J14">
-        <v>5.773813848724842</v>
+        <v>5.989057618251836</v>
       </c>
       <c r="K14">
-        <v>7.519945938562627</v>
+        <v>7.829730524685557</v>
       </c>
       <c r="L14">
-        <v>7.070986920211555</v>
+        <v>7.426536668425883</v>
       </c>
       <c r="M14">
-        <v>7.093934167840978</v>
+        <v>7.366143269630223</v>
       </c>
       <c r="N14">
-        <v>5.253211771324616</v>
+        <v>5.490217139612287</v>
       </c>
       <c r="O14">
-        <v>8.240202827736878</v>
+        <v>8.552363572614157</v>
       </c>
       <c r="P14">
-        <v>7.07566232025659</v>
+        <v>7.68107853719173</v>
       </c>
       <c r="Q14">
-        <v>5.99460994706052</v>
+        <v>6.285071322096559</v>
       </c>
       <c r="R14">
-        <v>5.884246027969724</v>
+        <v>6.325903521131804</v>
       </c>
       <c r="S14">
-        <v>6.492997263346417</v>
+        <v>6.400168990451005</v>
       </c>
       <c r="T14">
-        <v>5.958328041506118</v>
+        <v>6.811678938457709</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.967719232730329</v>
+        <v>2.072379081775551</v>
       </c>
       <c r="C15">
-        <v>2.080203782160472</v>
+        <v>2.165214585967882</v>
       </c>
       <c r="D15">
-        <v>1.786361157246348</v>
+        <v>1.886769441251784</v>
       </c>
       <c r="E15">
-        <v>1.567917678078179</v>
+        <v>1.677879739683602</v>
       </c>
       <c r="F15">
-        <v>2.226314718056592</v>
+        <v>2.268046852245264</v>
       </c>
       <c r="G15">
-        <v>2.099454915147387</v>
+        <v>2.24323117010235</v>
       </c>
       <c r="H15">
-        <v>2.127690696218615</v>
+        <v>2.287352379712786</v>
       </c>
       <c r="I15">
-        <v>1.609231767913658</v>
+        <v>1.651821299086387</v>
       </c>
       <c r="J15">
-        <v>1.752881860312305</v>
+        <v>1.818228078433355</v>
       </c>
       <c r="K15">
-        <v>2.001480938311011</v>
+        <v>2.083932055536214</v>
       </c>
       <c r="L15">
-        <v>1.906344713113374</v>
+        <v>2.002201259081485</v>
       </c>
       <c r="M15">
-        <v>3.036724040355726</v>
+        <v>3.153249497718213</v>
       </c>
       <c r="N15">
-        <v>1.374618147020626</v>
+        <v>1.436635802955976</v>
       </c>
       <c r="O15">
-        <v>2.56160031330447</v>
+        <v>2.658640529254908</v>
       </c>
       <c r="P15">
-        <v>2.443710323448618</v>
+        <v>2.652801966371165</v>
       </c>
       <c r="Q15">
-        <v>1.846563432294106</v>
+        <v>1.936036368543847</v>
       </c>
       <c r="R15">
-        <v>1.47445795485592</v>
+        <v>1.585127257434222</v>
       </c>
       <c r="S15">
-        <v>1.663130078919398</v>
+        <v>1.639352848379349</v>
       </c>
       <c r="T15">
-        <v>2.573654362687318</v>
+        <v>2.942252775454039</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>3.212046630396757</v>
+        <v>3.382890270013513</v>
       </c>
       <c r="C16">
-        <v>3.010088727820632</v>
+        <v>3.133100744469257</v>
       </c>
       <c r="D16">
-        <v>3.64657703934009</v>
+        <v>3.851544854234908</v>
       </c>
       <c r="E16">
-        <v>3.475420607683938</v>
+        <v>3.719160709801625</v>
       </c>
       <c r="F16">
-        <v>3.746366288932619</v>
+        <v>3.816591697506536</v>
       </c>
       <c r="G16">
-        <v>2.851412793163265</v>
+        <v>3.046685123030327</v>
       </c>
       <c r="H16">
-        <v>3.358162424152272</v>
+        <v>3.610158575209337</v>
       </c>
       <c r="I16">
-        <v>2.704974346530203</v>
+        <v>2.776563530605496</v>
       </c>
       <c r="J16">
-        <v>2.530727733568368</v>
+        <v>2.625071505517314</v>
       </c>
       <c r="K16">
-        <v>2.684840511570729</v>
+        <v>2.795442663963595</v>
       </c>
       <c r="L16">
-        <v>2.903088291889674</v>
+        <v>3.049063998374852</v>
       </c>
       <c r="M16">
-        <v>3.675026518622825</v>
+        <v>3.816044978058352</v>
       </c>
       <c r="N16">
-        <v>2.742724944923787</v>
+        <v>2.866466488950582</v>
       </c>
       <c r="O16">
-        <v>3.356524288785525</v>
+        <v>3.483678333909161</v>
       </c>
       <c r="P16">
-        <v>2.749825819619719</v>
+        <v>2.985109679927565</v>
       </c>
       <c r="Q16">
-        <v>2.75711022821844</v>
+        <v>2.890702577860295</v>
       </c>
       <c r="R16">
-        <v>3.154301109927543</v>
+        <v>3.391055439074729</v>
       </c>
       <c r="S16">
-        <v>2.423932328498858</v>
+        <v>2.389278155311368</v>
       </c>
       <c r="T16">
-        <v>2.244362760790866</v>
+        <v>2.565800077042006</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>19.58530832672466</v>
+        <v>20.62701965366785</v>
       </c>
       <c r="C17">
-        <v>19.25072491064092</v>
+        <v>20.037436103344</v>
       </c>
       <c r="D17">
-        <v>17.60819731569957</v>
+        <v>18.59792376028029</v>
       </c>
       <c r="E17">
-        <v>20.3708525152758</v>
+        <v>21.79951230434419</v>
       </c>
       <c r="F17">
-        <v>19.3096831105381</v>
+        <v>19.67164194779231</v>
       </c>
       <c r="G17">
-        <v>15.49621592701234</v>
+        <v>16.55743799750528</v>
       </c>
       <c r="H17">
-        <v>19.34885719657293</v>
+        <v>20.80079338221471</v>
       </c>
       <c r="I17">
-        <v>17.58345440788147</v>
+        <v>18.04881377659417</v>
       </c>
       <c r="J17">
-        <v>17.11042629524444</v>
+        <v>17.74829110185154</v>
       </c>
       <c r="K17">
-        <v>20.67573921107684</v>
+        <v>21.52747742390678</v>
       </c>
       <c r="L17">
-        <v>20.03612279668396</v>
+        <v>21.0435972123401</v>
       </c>
       <c r="M17">
-        <v>19.24721335404655</v>
+        <v>19.98576921530648</v>
       </c>
       <c r="N17">
-        <v>19.93051616532853</v>
+        <v>20.82970689464802</v>
       </c>
       <c r="O17">
-        <v>20.67043465869189</v>
+        <v>21.45348556349183</v>
       </c>
       <c r="P17">
-        <v>17.10895149038044</v>
+        <v>18.5728479029296</v>
       </c>
       <c r="Q17">
-        <v>17.2841167245</v>
+        <v>18.12159712012497</v>
       </c>
       <c r="R17">
-        <v>16.23981577269765</v>
+        <v>17.45873766846658</v>
       </c>
       <c r="S17">
-        <v>24.92813564428525</v>
+        <v>24.57174618584137</v>
       </c>
       <c r="T17">
-        <v>21.27371744476644</v>
+        <v>24.32053623965732</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>20.21915219512296</v>
+        <v>21.29457666695052</v>
       </c>
       <c r="C18">
-        <v>19.29511262244833</v>
+        <v>20.08363778890353</v>
       </c>
       <c r="D18">
-        <v>20.55238514893892</v>
+        <v>21.70759932086193</v>
       </c>
       <c r="E18">
-        <v>18.46974345023856</v>
+        <v>19.76507361680757</v>
       </c>
       <c r="F18">
-        <v>21.33100359639004</v>
+        <v>21.73085196339929</v>
       </c>
       <c r="G18">
-        <v>17.58849567156797</v>
+        <v>18.79300262225527</v>
       </c>
       <c r="H18">
-        <v>19.01793487580289</v>
+        <v>20.44503868569858</v>
       </c>
       <c r="I18">
-        <v>19.86463199992628</v>
+        <v>20.3903644523079</v>
       </c>
       <c r="J18">
-        <v>18.50312695138299</v>
+        <v>19.19291067101776</v>
       </c>
       <c r="K18">
-        <v>20.75798161048447</v>
+        <v>21.61310780347682</v>
       </c>
       <c r="L18">
-        <v>19.84108970674855</v>
+        <v>20.83875729249502</v>
       </c>
       <c r="M18">
-        <v>21.5331341043406</v>
+        <v>22.3594055292746</v>
       </c>
       <c r="N18">
-        <v>19.26708203858227</v>
+        <v>20.13634108869505</v>
       </c>
       <c r="O18">
-        <v>19.86265043689365</v>
+        <v>20.61510033227088</v>
       </c>
       <c r="P18">
-        <v>21.66046437870549</v>
+        <v>23.51380273880104</v>
       </c>
       <c r="Q18">
-        <v>16.16698122274046</v>
+        <v>16.95033220597526</v>
       </c>
       <c r="R18">
-        <v>23.00074493154918</v>
+        <v>24.72712606840886</v>
       </c>
       <c r="S18">
-        <v>21.37527094544268</v>
+        <v>21.06967563959862</v>
       </c>
       <c r="T18">
-        <v>16.42018122715112</v>
+        <v>18.77187725339997</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>19.90923836266286</v>
+        <v>20.96817901180739</v>
       </c>
       <c r="C19">
-        <v>20.64555232913116</v>
+        <v>21.48926534109606</v>
       </c>
       <c r="D19">
-        <v>20.5546931090904</v>
+        <v>21.71003700747853</v>
       </c>
       <c r="E19">
-        <v>17.61154473926509</v>
+        <v>18.8466872436595</v>
       </c>
       <c r="F19">
-        <v>24.72617221958336</v>
+        <v>25.18966281625003</v>
       </c>
       <c r="G19">
-        <v>19.21941194707378</v>
+        <v>20.5356083808481</v>
       </c>
       <c r="H19">
-        <v>17.81931247921096</v>
+        <v>19.15647179197941</v>
       </c>
       <c r="I19">
-        <v>16.44436048577259</v>
+        <v>16.87957287561523</v>
       </c>
       <c r="J19">
-        <v>17.71072830220071</v>
+        <v>18.37097195063008</v>
       </c>
       <c r="K19">
-        <v>22.24507372340961</v>
+        <v>23.16146075770227</v>
       </c>
       <c r="L19">
-        <v>18.86094468881782</v>
+        <v>19.80932773786932</v>
       </c>
       <c r="M19">
-        <v>23.3937858284892</v>
+        <v>24.29145435446611</v>
       </c>
       <c r="N19">
-        <v>16.04468770867181</v>
+        <v>16.76856431692352</v>
       </c>
       <c r="O19">
-        <v>18.70362073755727</v>
+        <v>19.41216351294688</v>
       </c>
       <c r="P19">
-        <v>26.38030354959665</v>
+        <v>28.63748639039935</v>
       </c>
       <c r="Q19">
-        <v>18.00222472594771</v>
+        <v>18.87450015233647</v>
       </c>
       <c r="R19">
-        <v>26.85990886867614</v>
+        <v>28.87594965981799</v>
       </c>
       <c r="S19">
-        <v>18.4343203140038</v>
+        <v>18.1707708240926</v>
       </c>
       <c r="T19">
-        <v>11.42604859524292</v>
+        <v>13.06248565433749</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>3.315610800540458</v>
+        <v>3.491962853264857</v>
       </c>
       <c r="C20">
-        <v>4.472626215169622</v>
+        <v>4.655407129685012</v>
       </c>
       <c r="D20">
-        <v>8.214799499171621</v>
+        <v>8.676539230700495</v>
       </c>
       <c r="E20">
-        <v>5.708300200887252</v>
+        <v>6.108637837950949</v>
       </c>
       <c r="F20">
-        <v>3.746366288932619</v>
+        <v>3.816591697506536</v>
       </c>
       <c r="G20">
-        <v>7.727658727319668</v>
+        <v>8.256869344498396</v>
       </c>
       <c r="H20">
-        <v>2.993060333161857</v>
+        <v>3.217659262151649</v>
       </c>
       <c r="I20">
-        <v>3.532387057668345</v>
+        <v>3.625874342537048</v>
       </c>
       <c r="J20">
-        <v>9.409097275092744</v>
+        <v>9.759861885521675</v>
       </c>
       <c r="K20">
-        <v>7.250788995046765</v>
+        <v>7.549485646092716</v>
       </c>
       <c r="L20">
-        <v>7.539066336056545</v>
+        <v>7.918152476054075</v>
       </c>
       <c r="M20">
-        <v>6.012011467178243</v>
+        <v>6.242704930453687</v>
       </c>
       <c r="N20">
-        <v>6.86513241951512</v>
+        <v>7.174861649604874</v>
       </c>
       <c r="O20">
-        <v>4.142606844923514</v>
+        <v>4.299539782798806</v>
       </c>
       <c r="P20">
-        <v>8.341833472302506</v>
+        <v>9.055587328057618</v>
       </c>
       <c r="Q20">
-        <v>5.147030256681846</v>
+        <v>5.396423211171068</v>
       </c>
       <c r="R20">
-        <v>3.931887879615787</v>
+        <v>4.227006019824592</v>
       </c>
       <c r="S20">
-        <v>3.745928495510046</v>
+        <v>3.692374172517972</v>
       </c>
       <c r="T20">
-        <v>2.685391512993754</v>
+        <v>3.069992904578121</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>28.13052038053654</v>
+        <v>29.62673791382016</v>
       </c>
       <c r="C21">
-        <v>24.66828275343931</v>
+        <v>25.67639097985565</v>
       </c>
       <c r="D21">
-        <v>24.64747577771683</v>
+        <v>26.03286794092362</v>
       </c>
       <c r="E21">
-        <v>23.62888172763036</v>
+        <v>25.28603540637817</v>
       </c>
       <c r="F21">
-        <v>25.46337789237973</v>
+        <v>25.9406873646134</v>
       </c>
       <c r="G21">
-        <v>20.40475012883164</v>
+        <v>21.80212167305899</v>
       </c>
       <c r="H21">
-        <v>26.34794196215516</v>
+        <v>28.32508872402273</v>
       </c>
       <c r="I21">
-        <v>26.48542856294494</v>
+        <v>27.18638538463823</v>
       </c>
       <c r="J21">
-        <v>21.72947737422432</v>
+        <v>22.539537196453</v>
       </c>
       <c r="K21">
-        <v>25.62000273182795</v>
+        <v>26.67542015205806</v>
       </c>
       <c r="L21">
-        <v>28.42752523216037</v>
+        <v>29.85694372107885</v>
       </c>
       <c r="M21">
-        <v>26.90046006846908</v>
+        <v>27.93268702458475</v>
       </c>
       <c r="N21">
-        <v>20.93543437912414</v>
+        <v>21.87996327901952</v>
       </c>
       <c r="O21">
-        <v>26.72841443948128</v>
+        <v>27.74095769056878</v>
       </c>
       <c r="P21">
-        <v>28.7450643776824</v>
+        <v>31.20458369098712</v>
       </c>
       <c r="Q21">
-        <v>20.63481573421068</v>
+        <v>21.63465008618768</v>
       </c>
       <c r="R21">
-        <v>25.67474835536919</v>
+        <v>27.60183382091559</v>
       </c>
       <c r="S21">
-        <v>18.23634811572613</v>
+        <v>17.97562897003072</v>
       </c>
       <c r="T21">
-        <v>19.90993222612564</v>
+        <v>22.76142989544748</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>73.37949727565304</v>
+        <v>77.28243575393779</v>
       </c>
       <c r="C22">
-        <v>63.28333502358417</v>
+        <v>65.8695081783994</v>
       </c>
       <c r="D22">
-        <v>70.70358992057207</v>
+        <v>74.67771693746938</v>
       </c>
       <c r="E22">
-        <v>71.76686720515612</v>
+        <v>76.80006045450742</v>
       </c>
       <c r="F22">
-        <v>77.09252900861777</v>
+        <v>78.53762378315176</v>
       </c>
       <c r="G22">
-        <v>72.51227400027166</v>
+        <v>77.47810733101281</v>
       </c>
       <c r="H22">
-        <v>68.71065989847716</v>
+        <v>73.86670050761421</v>
       </c>
       <c r="I22">
-        <v>77.24013511202851</v>
+        <v>79.28435348239071</v>
       </c>
       <c r="J22">
-        <v>62.92765838253583</v>
+        <v>65.27355777462574</v>
       </c>
       <c r="K22">
-        <v>70.35538206051717</v>
+        <v>73.25367589018052</v>
       </c>
       <c r="L22">
-        <v>74.64289819447265</v>
+        <v>78.39615979126238</v>
       </c>
       <c r="M22">
-        <v>86.45567704698513</v>
+        <v>89.77316232902059</v>
       </c>
       <c r="N22">
-        <v>60.96069740418842</v>
+        <v>63.71101724056345</v>
       </c>
       <c r="O22">
-        <v>79.57036279140341</v>
+        <v>82.58469923898592</v>
       </c>
       <c r="P22">
-        <v>60.5259602940349</v>
+        <v>65.70475434172091</v>
       </c>
       <c r="Q22">
-        <v>59.14733697441361</v>
+        <v>62.01324768070274</v>
       </c>
       <c r="R22">
-        <v>69.67433188951684</v>
+        <v>74.90392130739578</v>
       </c>
       <c r="S22">
-        <v>53.98423704274033</v>
+        <v>53.21244194026227</v>
       </c>
       <c r="T22">
-        <v>58.29571325258967</v>
+        <v>66.64481703573006</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>9.742040095246987</v>
+        <v>10.26020367712462</v>
       </c>
       <c r="C23">
-        <v>9.562166391052296</v>
+        <v>9.952939380705887</v>
       </c>
       <c r="D23">
-        <v>10.23811123197003</v>
+        <v>10.81357783125699</v>
       </c>
       <c r="E23">
-        <v>11.30506298652381</v>
+        <v>12.09791585753746</v>
       </c>
       <c r="F23">
-        <v>17.67282350546244</v>
+        <v>18.00409950882394</v>
       </c>
       <c r="G23">
-        <v>9.269602887487727</v>
+        <v>9.904409940721893</v>
       </c>
       <c r="H23">
-        <v>8.220234738001235</v>
+        <v>8.837080278247791</v>
       </c>
       <c r="I23">
-        <v>6.413009089038171</v>
+        <v>6.582734206298746</v>
       </c>
       <c r="J23">
-        <v>9.574271281855259</v>
+        <v>9.931193464518925</v>
       </c>
       <c r="K23">
-        <v>8.473957771691074</v>
+        <v>8.823042927697962</v>
       </c>
       <c r="L23">
-        <v>6.046855716040069</v>
+        <v>6.350909174430866</v>
       </c>
       <c r="M23">
-        <v>8.101654205405159</v>
+        <v>8.412531634217217</v>
       </c>
       <c r="N23">
-        <v>17.35129843157668</v>
+        <v>18.13412445383852</v>
       </c>
       <c r="O23">
-        <v>6.39314995043105</v>
+        <v>6.635339431971615</v>
       </c>
       <c r="P23">
-        <v>6.588558829998926</v>
+        <v>7.152296919999793</v>
       </c>
       <c r="Q23">
-        <v>9.465583203319095</v>
+        <v>9.924226273849857</v>
       </c>
       <c r="R23">
-        <v>6.18153511155043</v>
+        <v>6.645506415313664</v>
       </c>
       <c r="S23">
-        <v>20.31996459925181</v>
+        <v>20.02945666546711</v>
       </c>
       <c r="T23">
-        <v>18.25903432987624</v>
+        <v>20.87409063666716</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>2.276075709248417</v>
+        <v>2.397136547696848</v>
       </c>
       <c r="C24">
-        <v>2.195310899220346</v>
+        <v>2.285025736656159</v>
       </c>
       <c r="D24">
-        <v>2.848792146978133</v>
+        <v>3.008917847095329</v>
       </c>
       <c r="E24">
-        <v>1.712845274964426</v>
+        <v>1.832971478195363</v>
       </c>
       <c r="F24">
-        <v>2.381027346135577</v>
+        <v>2.425659559142086</v>
       </c>
       <c r="G24">
-        <v>1.388395509504509</v>
+        <v>1.483476525682859</v>
       </c>
       <c r="H24">
-        <v>2.432201376363813</v>
+        <v>2.614713508901326</v>
       </c>
       <c r="I24">
-        <v>1.794596133191218</v>
+        <v>1.842091471949101</v>
       </c>
       <c r="J24">
-        <v>2.383744696713621</v>
+        <v>2.472609043149718</v>
       </c>
       <c r="K24">
-        <v>3.045211752611412</v>
+        <v>3.170659418079566</v>
       </c>
       <c r="L24">
-        <v>3.151236776530901</v>
+        <v>3.309690109156465</v>
       </c>
       <c r="M24">
-        <v>2.390442781110288</v>
+        <v>2.482169073873822</v>
       </c>
       <c r="N24">
-        <v>1.725507516128523</v>
+        <v>1.803355994763159</v>
       </c>
       <c r="O24">
-        <v>2.36065896459844</v>
+        <v>2.450086989150193</v>
       </c>
       <c r="P24">
-        <v>2.853353931463473</v>
+        <v>3.097495986945423</v>
       </c>
       <c r="Q24">
-        <v>1.970375156681641</v>
+        <v>2.065847236166519</v>
       </c>
       <c r="R24">
-        <v>2.809861338359575</v>
+        <v>3.020762838557574</v>
       </c>
       <c r="S24">
-        <v>0.818885001966708</v>
+        <v>0.8071776690741405</v>
       </c>
       <c r="T24">
-        <v>2.566254551408746</v>
+        <v>2.933793164253768</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>22.59334132871804</v>
+        <v>23.79504513562232</v>
       </c>
       <c r="C25">
-        <v>22.08852912992096</v>
+        <v>22.99121166148897</v>
       </c>
       <c r="D25">
-        <v>23.67351659379182</v>
+        <v>25.00416418871658</v>
       </c>
       <c r="E25">
-        <v>22.43607077090483</v>
+        <v>24.00956957813677</v>
       </c>
       <c r="F25">
-        <v>22.70717242315261</v>
+        <v>23.13281699124652</v>
       </c>
       <c r="G25">
-        <v>19.8709174368051</v>
+        <v>21.23173069884295</v>
       </c>
       <c r="H25">
-        <v>23.56850519287067</v>
+        <v>25.33708331525591</v>
       </c>
       <c r="I25">
-        <v>21.39538288737968</v>
+        <v>21.96162781530321</v>
       </c>
       <c r="J25">
-        <v>21.269609654956</v>
+        <v>22.06252592805538</v>
       </c>
       <c r="K25">
-        <v>22.68843502203435</v>
+        <v>23.62308634938437</v>
       </c>
       <c r="L25">
-        <v>25.92529218469114</v>
+        <v>27.22889113242814</v>
       </c>
       <c r="M25">
-        <v>22.61106741451416</v>
+        <v>23.47870139669901</v>
       </c>
       <c r="N25">
-        <v>21.68062211145638</v>
+        <v>22.65877110904302</v>
       </c>
       <c r="O25">
-        <v>21.07633618307807</v>
+        <v>21.87476371450336</v>
       </c>
       <c r="P25">
-        <v>20.07477121240798</v>
+        <v>21.79243261188723</v>
       </c>
       <c r="Q25">
-        <v>20.13886134109261</v>
+        <v>21.11466483931058</v>
       </c>
       <c r="R25">
-        <v>24.87238749538255</v>
+        <v>26.73924966565056</v>
       </c>
       <c r="S25">
-        <v>27.76355564110504</v>
+        <v>27.36662910393426</v>
       </c>
       <c r="T25">
-        <v>21.3765748215386</v>
+        <v>24.43812483534107</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>6.725441635572555</v>
+        <v>7.083157154450111</v>
       </c>
       <c r="C26">
-        <v>7.247234370181491</v>
+        <v>7.543404016863871</v>
       </c>
       <c r="D26">
-        <v>7.123903667571567</v>
+        <v>7.52432602325216</v>
       </c>
       <c r="E26">
-        <v>5.72464007700678</v>
+        <v>6.12612367121453</v>
       </c>
       <c r="F26">
-        <v>7.308624550451245</v>
+        <v>7.445624273805857</v>
       </c>
       <c r="G26">
-        <v>5.727938683397671</v>
+        <v>6.120203154793937</v>
       </c>
       <c r="H26">
-        <v>6.56329269527239</v>
+        <v>7.055801480903004</v>
       </c>
       <c r="I26">
-        <v>5.657350325749407</v>
+        <v>5.807076364507599</v>
       </c>
       <c r="J26">
-        <v>6.972234946248449</v>
+        <v>7.232155021813372</v>
       </c>
       <c r="K26">
-        <v>6.589859167080036</v>
+        <v>6.861328777548072</v>
       </c>
       <c r="L26">
-        <v>6.956456850377142</v>
+        <v>7.306247694218984</v>
       </c>
       <c r="M26">
-        <v>6.346322390170637</v>
+        <v>6.589844063281834</v>
       </c>
       <c r="N26">
-        <v>6.612636770404489</v>
+        <v>6.910974336325065</v>
       </c>
       <c r="O26">
-        <v>5.935807440776125</v>
+        <v>6.160671574693285</v>
       </c>
       <c r="P26">
-        <v>7.404122013228503</v>
+        <v>8.037642288233998</v>
       </c>
       <c r="Q26">
-        <v>6.887469353786635</v>
+        <v>7.221193121752624</v>
       </c>
       <c r="R26">
-        <v>7.050226600400502</v>
+        <v>7.579399818474096</v>
       </c>
       <c r="S26">
-        <v>6.915119801822761</v>
+        <v>6.816256580103607</v>
       </c>
       <c r="T26">
-        <v>6.298719360320428</v>
+        <v>7.200821053670148</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>12.01889448246641</v>
+        <v>12.65816031943238</v>
       </c>
       <c r="C27">
-        <v>12.07345761161347</v>
+        <v>12.56685847219261</v>
       </c>
       <c r="D27">
-        <v>12.38913009315038</v>
+        <v>13.08550175793227</v>
       </c>
       <c r="E27">
-        <v>15.66354733405876</v>
+        <v>16.7620718171926</v>
       </c>
       <c r="F27">
-        <v>18.57711881658411</v>
+        <v>18.92534578063587</v>
       </c>
       <c r="G27">
-        <v>12.44892097669418</v>
+        <v>13.30145618635536</v>
       </c>
       <c r="H27">
-        <v>10.62757809965932</v>
+        <v>11.42507042966434</v>
       </c>
       <c r="I27">
-        <v>10.92528599702459</v>
+        <v>11.21443192231571</v>
       </c>
       <c r="J27">
-        <v>13.76619838740079</v>
+        <v>14.27939270065614</v>
       </c>
       <c r="K27">
-        <v>12.88887930352765</v>
+        <v>13.41983739461666</v>
       </c>
       <c r="L27">
-        <v>10.59735117185227</v>
+        <v>11.13021675107161</v>
       </c>
       <c r="M27">
-        <v>14.10728264780073</v>
+        <v>14.64860860986751</v>
       </c>
       <c r="N27">
-        <v>11.62203469144176</v>
+        <v>12.14637765193937</v>
       </c>
       <c r="O27">
-        <v>12.65207107992647</v>
+        <v>13.13136509915328</v>
       </c>
       <c r="P27">
-        <v>12.16790477116125</v>
+        <v>13.20902948022119</v>
       </c>
       <c r="Q27">
-        <v>12.17741371519009</v>
+        <v>12.76745516297957</v>
       </c>
       <c r="R27">
-        <v>10.26926001078514</v>
+        <v>11.04004621031423</v>
       </c>
       <c r="S27">
-        <v>14.62540066449631</v>
+        <v>14.41630606164584</v>
       </c>
       <c r="T27">
-        <v>12.55525979635299</v>
+        <v>14.35342232349875</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>19.69198720875238</v>
+        <v>20.73937261536284</v>
       </c>
       <c r="C28">
-        <v>23.24637130740558</v>
+        <v>24.19637088311811</v>
       </c>
       <c r="D28">
-        <v>23.90277396883894</v>
+        <v>25.24630772596594</v>
       </c>
       <c r="E28">
-        <v>20.7196733489579</v>
+        <v>22.17279683184063</v>
       </c>
       <c r="F28">
-        <v>23.92940218497659</v>
+        <v>24.37795737573141</v>
       </c>
       <c r="G28">
-        <v>19.9527143815511</v>
+        <v>21.31912931585993</v>
       </c>
       <c r="H28">
-        <v>20.56146222643684</v>
+        <v>22.10439216451907</v>
       </c>
       <c r="I28">
-        <v>18.34060804508376</v>
+        <v>18.82600605526324</v>
       </c>
       <c r="J28">
-        <v>26.40164608533487</v>
+        <v>27.38588111161306</v>
       </c>
       <c r="K28">
-        <v>24.03721037231939</v>
+        <v>25.02742457433294</v>
       </c>
       <c r="L28">
-        <v>19.63111791205213</v>
+        <v>20.61822750644904</v>
       </c>
       <c r="M28">
-        <v>20.77435203330058</v>
+        <v>21.57150740202026</v>
       </c>
       <c r="N28">
-        <v>26.38905100661966</v>
+        <v>27.57962679622065</v>
       </c>
       <c r="O28">
-        <v>20.67123842408672</v>
+        <v>21.45431977765225</v>
       </c>
       <c r="P28">
-        <v>27.79394640052791</v>
+        <v>30.17208502867198</v>
       </c>
       <c r="Q28">
-        <v>23.90627524031334</v>
+        <v>25.06462409697187</v>
       </c>
       <c r="R28">
-        <v>26.49469082782565</v>
+        <v>28.48331922261071</v>
       </c>
       <c r="S28">
-        <v>23.49651850797981</v>
+        <v>23.16059641473274</v>
       </c>
       <c r="T28">
-        <v>20.14302628140065</v>
+        <v>23.027907648256</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>5.473327458196073</v>
+        <v>5.764445020103025</v>
       </c>
       <c r="C29">
-        <v>5.145965233264964</v>
+        <v>5.356263207240619</v>
       </c>
       <c r="D29">
-        <v>5.774516299005636</v>
+        <v>6.099091914744138</v>
       </c>
       <c r="E29">
-        <v>4.307333430986859</v>
+        <v>4.609417699003933</v>
       </c>
       <c r="F29">
-        <v>5.837307457420099</v>
+        <v>5.946727431217082</v>
       </c>
       <c r="G29">
-        <v>4.549058155172396</v>
+        <v>4.86058975340017</v>
       </c>
       <c r="H29">
-        <v>5.2691223046553</v>
+        <v>5.664516681851708</v>
       </c>
       <c r="I29">
-        <v>4.354567710109135</v>
+        <v>4.469814625395861</v>
       </c>
       <c r="J29">
-        <v>4.827155774724714</v>
+        <v>5.007108788844699</v>
       </c>
       <c r="K29">
-        <v>5.226878311442764</v>
+        <v>5.442199850673765</v>
       </c>
       <c r="L29">
-        <v>4.8534191912438</v>
+        <v>5.097463196825653</v>
       </c>
       <c r="M29">
-        <v>5.610678783967805</v>
+        <v>5.825972272189825</v>
       </c>
       <c r="N29">
-        <v>5.561415629551345</v>
+        <v>5.812326009117152</v>
       </c>
       <c r="O29">
-        <v>5.691462760749594</v>
+        <v>5.907070469925951</v>
       </c>
       <c r="P29">
-        <v>5.405806012676035</v>
+        <v>5.868344002414482</v>
       </c>
       <c r="Q29">
-        <v>4.866154516214122</v>
+        <v>5.101937985764207</v>
       </c>
       <c r="R29">
-        <v>5.325630249951139</v>
+        <v>5.725359373193309</v>
       </c>
       <c r="S29">
-        <v>5.697018135560596</v>
+        <v>5.615569717714602</v>
       </c>
       <c r="T29">
-        <v>5.137688970712492</v>
+        <v>5.873508056347725</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>7.600675674982482</v>
+        <v>8.00494349711561</v>
       </c>
       <c r="C30">
-        <v>10.71699923214319</v>
+        <v>11.15496628466997</v>
       </c>
       <c r="D30">
-        <v>12.01677918871143</v>
+        <v>12.69222165045343</v>
       </c>
       <c r="E30">
-        <v>7.712421528417176</v>
+        <v>8.253313300410145</v>
       </c>
       <c r="F30">
-        <v>9.207722060120785</v>
+        <v>9.380320250964342</v>
       </c>
       <c r="G30">
-        <v>9.688632850046194</v>
+        <v>10.35213618930008</v>
       </c>
       <c r="H30">
-        <v>10.01700311344981</v>
+        <v>10.76867796144446</v>
       </c>
       <c r="I30">
-        <v>8.594030128876559</v>
+        <v>8.821477611191488</v>
       </c>
       <c r="J30">
-        <v>13.57264646758216</v>
+        <v>14.07862529971663</v>
       </c>
       <c r="K30">
-        <v>10.13151594884293</v>
+        <v>10.54888430503221</v>
       </c>
       <c r="L30">
-        <v>8.049472082057731</v>
+        <v>8.454222904584817</v>
       </c>
       <c r="M30">
-        <v>8.540487159213791</v>
+        <v>8.868203526951064</v>
       </c>
       <c r="N30">
-        <v>13.47776918991961</v>
+        <v>14.08583598592994</v>
       </c>
       <c r="O30">
-        <v>12.33619127976059</v>
+        <v>12.80351893410867</v>
       </c>
       <c r="P30">
-        <v>15.79436791193276</v>
+        <v>17.14578436417766</v>
       </c>
       <c r="Q30">
-        <v>12.61606096730594</v>
+        <v>13.22735652255704</v>
       </c>
       <c r="R30">
-        <v>14.43130718091502</v>
+        <v>15.51448672886026</v>
       </c>
       <c r="S30">
-        <v>8.643695235544694</v>
+        <v>8.520119132305066</v>
       </c>
       <c r="T30">
-        <v>11.5940243112665</v>
+        <v>13.25451882858363</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>1.748910722877846</v>
+        <v>1.841932496109175</v>
       </c>
       <c r="C31">
-        <v>2.129105498558458</v>
+        <v>2.216114748024993</v>
       </c>
       <c r="D31">
-        <v>1.798670278054247</v>
+        <v>1.89977043654034</v>
       </c>
       <c r="E31">
-        <v>3.013641499958148</v>
+        <v>3.224995856700427</v>
       </c>
       <c r="F31">
-        <v>2.848259482934111</v>
+        <v>2.901649933970487</v>
       </c>
       <c r="G31">
-        <v>1.636656411979217</v>
+        <v>1.74873899487473</v>
       </c>
       <c r="H31">
-        <v>2.023597759638369</v>
+        <v>2.175448320245275</v>
       </c>
       <c r="I31">
-        <v>1.478430300479896</v>
+        <v>1.517558072267939</v>
       </c>
       <c r="J31">
-        <v>3.443914422938208</v>
+        <v>3.57230116032589</v>
       </c>
       <c r="K31">
-        <v>1.931948727902747</v>
+        <v>2.01153546189973</v>
       </c>
       <c r="L31">
-        <v>1.441585009437497</v>
+        <v>1.514072088386826</v>
       </c>
       <c r="M31">
-        <v>2.173419938499474</v>
+        <v>2.256818610558175</v>
       </c>
       <c r="N31">
-        <v>3.985669143124543</v>
+        <v>4.165487704465512</v>
       </c>
       <c r="O31">
-        <v>1.241817535003265</v>
+        <v>1.288860877847139</v>
       </c>
       <c r="P31">
-        <v>3.021680214029578</v>
+        <v>3.2802248026723</v>
       </c>
       <c r="Q31">
-        <v>2.827152289443389</v>
+        <v>2.964138440115407</v>
       </c>
       <c r="R31">
-        <v>1.50083037356066</v>
+        <v>1.613479127079387</v>
       </c>
       <c r="S31">
-        <v>1.245097875118212</v>
+        <v>1.227297115215627</v>
       </c>
       <c r="T31">
-        <v>1.445183142705098</v>
+        <v>1.652162067412806</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.741902621138799</v>
+        <v>1.834551644610964</v>
       </c>
       <c r="C32">
-        <v>2.120077489377291</v>
+        <v>2.206717795029834</v>
       </c>
       <c r="D32">
-        <v>1.791746397599804</v>
+        <v>1.892457376690527</v>
       </c>
       <c r="E32">
-        <v>3.001564200217627</v>
+        <v>3.21207154515778</v>
       </c>
       <c r="F32">
-        <v>2.835882472687793</v>
+        <v>2.889040917418741</v>
       </c>
       <c r="G32">
-        <v>1.629481241387462</v>
+        <v>1.741072449522364</v>
       </c>
       <c r="H32">
-        <v>2.015052817083274</v>
+        <v>2.166262166109882</v>
       </c>
       <c r="I32">
-        <v>1.472450804825781</v>
+        <v>1.511420324756239</v>
       </c>
       <c r="J32">
-        <v>3.429361647011996</v>
+        <v>3.557205867022168</v>
       </c>
       <c r="K32">
-        <v>1.923724487961985</v>
+        <v>2.002972423942726</v>
       </c>
       <c r="L32">
-        <v>1.435775513141548</v>
+        <v>1.507970473753143</v>
       </c>
       <c r="M32">
-        <v>2.164643279423301</v>
+        <v>2.247705172703498</v>
       </c>
       <c r="N32">
-        <v>3.969752511948515</v>
+        <v>4.148852974115496</v>
       </c>
       <c r="O32">
-        <v>1.236191177239496</v>
+        <v>1.283021378724207</v>
       </c>
       <c r="P32">
-        <v>3.009018502509119</v>
+        <v>3.266479714763641</v>
       </c>
       <c r="Q32">
-        <v>2.8151248647886</v>
+        <v>2.951528241546347</v>
       </c>
       <c r="R32">
-        <v>1.494437059935269</v>
+        <v>1.606605946559347</v>
       </c>
       <c r="S32">
-        <v>1.23937140657299</v>
+        <v>1.221652516131192</v>
       </c>
       <c r="T32">
-        <v>1.43926329368224</v>
+        <v>1.645394378452589</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>3.148973714745329</v>
+        <v>3.31646260652961</v>
       </c>
       <c r="C33">
-        <v>4.118276854808832</v>
+        <v>4.286576724625021</v>
       </c>
       <c r="D33">
-        <v>4.484366574327718</v>
+        <v>4.736425096062294</v>
       </c>
       <c r="E33">
-        <v>3.930095421444714</v>
+        <v>4.205723026701264</v>
       </c>
       <c r="F33">
-        <v>4.59805930650743</v>
+        <v>4.68424964897354</v>
       </c>
       <c r="G33">
-        <v>3.154204992135308</v>
+        <v>3.370213336900181</v>
       </c>
       <c r="H33">
-        <v>5.36467029868045</v>
+        <v>5.767234587183826</v>
       </c>
       <c r="I33">
-        <v>3.246118703227596</v>
+        <v>3.332029680414388</v>
       </c>
       <c r="J33">
-        <v>6.771406638466714</v>
+        <v>7.023839974222002</v>
       </c>
       <c r="K33">
-        <v>3.057921941610772</v>
+        <v>3.183893204013117</v>
       </c>
       <c r="L33">
-        <v>2.81428599136589</v>
+        <v>2.955796460402837</v>
       </c>
       <c r="M33">
-        <v>4.430617077271505</v>
+        <v>4.600629127910992</v>
       </c>
       <c r="N33">
-        <v>5.344370658969141</v>
+        <v>5.585488777071472</v>
       </c>
       <c r="O33">
-        <v>2.867031163337636</v>
+        <v>2.975641910214076</v>
       </c>
       <c r="P33">
-        <v>5.825132105971242</v>
+        <v>6.323548972565949</v>
       </c>
       <c r="Q33">
-        <v>7.575155045813406</v>
+        <v>7.942199769348264</v>
       </c>
       <c r="R33">
-        <v>6.642652856781793</v>
+        <v>7.141234560321546</v>
       </c>
       <c r="S33">
-        <v>2.399390320447907</v>
+        <v>2.365087016378077</v>
       </c>
       <c r="T33">
-        <v>2.785288965254475</v>
+        <v>3.184197655781771</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>4.528791079366675</v>
+        <v>4.769670257066324</v>
       </c>
       <c r="C34">
-        <v>4.065613467918694</v>
+        <v>4.231761165486594</v>
       </c>
       <c r="D34">
-        <v>7.259303996458458</v>
+        <v>7.667336971426283</v>
       </c>
       <c r="E34">
-        <v>4.638393529756424</v>
+        <v>4.963695885996485</v>
       </c>
       <c r="F34">
-        <v>5.98196376467395</v>
+        <v>6.09409531216561</v>
       </c>
       <c r="G34">
-        <v>3.20443118627759</v>
+        <v>3.423879154366745</v>
       </c>
       <c r="H34">
-        <v>4.576981957692618</v>
+        <v>4.920438196884898</v>
       </c>
       <c r="I34">
-        <v>3.441947185899858</v>
+        <v>3.533040911422578</v>
       </c>
       <c r="J34">
-        <v>5.070187132692464</v>
+        <v>5.259200187016861</v>
       </c>
       <c r="K34">
-        <v>5.324073874379049</v>
+        <v>5.543399390165625</v>
       </c>
       <c r="L34">
-        <v>3.981164818809252</v>
+        <v>4.181349342539784</v>
       </c>
       <c r="M34">
-        <v>4.588596940642612</v>
+        <v>4.764671009295177</v>
       </c>
       <c r="N34">
-        <v>5.264064019853725</v>
+        <v>5.50155900121457</v>
       </c>
       <c r="O34">
-        <v>5.001028286595675</v>
+        <v>5.19048050612615</v>
       </c>
       <c r="P34">
-        <v>5.918232925974618</v>
+        <v>6.424615795423735</v>
       </c>
       <c r="Q34">
-        <v>6.136109060646275</v>
+        <v>6.433426599379611</v>
       </c>
       <c r="R34">
-        <v>5.870660236515767</v>
+        <v>6.311298012526719</v>
       </c>
       <c r="S34">
-        <v>2.437839466394396</v>
+        <v>2.402986467373565</v>
       </c>
       <c r="T34">
-        <v>2.830427814053764</v>
+        <v>3.235801284103421</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>101.7311621999551</v>
+        <v>107.142080537257</v>
       </c>
       <c r="C35">
-        <v>90.45087165200978</v>
+        <v>94.14728897908157</v>
       </c>
       <c r="D35">
-        <v>100.8386256184604</v>
+        <v>106.5065910904727</v>
       </c>
       <c r="E35">
-        <v>79.22637586841886</v>
+        <v>84.78272346614213</v>
       </c>
       <c r="F35">
-        <v>92.29072402795684</v>
+        <v>94.02070804516103</v>
       </c>
       <c r="G35">
-        <v>79.35666922774635</v>
+        <v>84.79122494263493</v>
       </c>
       <c r="H35">
-        <v>91.93814420210359</v>
+        <v>98.83717276237581</v>
       </c>
       <c r="I35">
-        <v>91.28223321876045</v>
+        <v>93.69808629518027</v>
       </c>
       <c r="J35">
-        <v>80.04245051055814</v>
+        <v>83.0263774644684</v>
       </c>
       <c r="K35">
-        <v>93.92680138891885</v>
+        <v>97.79612113294863</v>
       </c>
       <c r="L35">
-        <v>102.5467388319554</v>
+        <v>107.7030865360764</v>
       </c>
       <c r="M35">
-        <v>86.19636666518912</v>
+        <v>89.50390166513242</v>
       </c>
       <c r="N35">
-        <v>90.95269492247267</v>
+        <v>95.05614208874239</v>
       </c>
       <c r="O35">
-        <v>98.97245565706284</v>
+        <v>102.7217948573368</v>
       </c>
       <c r="P35">
-        <v>93.16934220689868</v>
+        <v>101.1412080394092</v>
       </c>
       <c r="Q35">
-        <v>100.2825442849285</v>
+        <v>105.1416103396592</v>
       </c>
       <c r="R35">
-        <v>103.0194582669495</v>
+        <v>110.7518534572293</v>
       </c>
       <c r="S35">
-        <v>92.04316506121903</v>
+        <v>90.72725382671209</v>
       </c>
       <c r="T35">
-        <v>88.22424996877385</v>
+        <v>100.8597145352236</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>7.321908961362595</v>
+        <v>7.711349626408984</v>
       </c>
       <c r="C36">
-        <v>11.3895859161401</v>
+        <v>11.85503928280932</v>
       </c>
       <c r="D36">
-        <v>6.693853759345595</v>
+        <v>7.070103750358212</v>
       </c>
       <c r="E36">
-        <v>5.98749895371223</v>
+        <v>6.407417510672136</v>
       </c>
       <c r="F36">
-        <v>6.053905136730678</v>
+        <v>6.167385220872632</v>
       </c>
       <c r="G36">
-        <v>4.821714637659069</v>
+        <v>5.151918476790085</v>
       </c>
       <c r="H36">
-        <v>11.02996721270833</v>
+        <v>11.8576547789492</v>
       </c>
       <c r="I36">
-        <v>8.762203444148541</v>
+        <v>8.994101759958063</v>
       </c>
       <c r="J36">
-        <v>6.403221407533537</v>
+        <v>6.641929053637829</v>
       </c>
       <c r="K36">
-        <v>6.220516027922157</v>
+        <v>6.476770527479006</v>
       </c>
       <c r="L36">
-        <v>11.37665360355164</v>
+        <v>11.94870477121855</v>
       </c>
       <c r="M36">
-        <v>8.108037230187831</v>
+        <v>8.419159589020621</v>
       </c>
       <c r="N36">
-        <v>8.791044791814544</v>
+        <v>9.187664021956877</v>
       </c>
       <c r="O36">
-        <v>5.796756027471552</v>
+        <v>6.016352524940821</v>
       </c>
       <c r="P36">
-        <v>11.74783387130602</v>
+        <v>12.75301597548686</v>
       </c>
       <c r="Q36">
-        <v>8.171573809577364</v>
+        <v>8.567517263096335</v>
       </c>
       <c r="R36">
-        <v>12.88971943299249</v>
+        <v>13.85719107596562</v>
       </c>
       <c r="S36">
-        <v>6.369469156156633</v>
+        <v>6.278406924486773</v>
       </c>
       <c r="T36">
-        <v>5.731153835253961</v>
+        <v>6.55196887460941</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>23.61730286058997</v>
+        <v>24.87346954897208</v>
       </c>
       <c r="C37">
-        <v>22.16225787156715</v>
+        <v>23.06795344428277</v>
       </c>
       <c r="D37">
-        <v>23.82122604348661</v>
+        <v>25.16017613217925</v>
       </c>
       <c r="E37">
-        <v>22.97741797103875</v>
+        <v>24.5888828366954</v>
       </c>
       <c r="F37">
-        <v>25.69699396077899</v>
+        <v>26.1786825520276</v>
       </c>
       <c r="G37">
-        <v>26.29126008230709</v>
+        <v>28.09175548014023</v>
       </c>
       <c r="H37">
-        <v>23.05736226548409</v>
+        <v>24.78758427697514</v>
       </c>
       <c r="I37">
-        <v>24.46959109055148</v>
+        <v>25.11719725475621</v>
       </c>
       <c r="J37">
-        <v>18.42963543295561</v>
+        <v>19.11667943983396</v>
       </c>
       <c r="K37">
-        <v>26.90223650441046</v>
+        <v>28.01047561535452</v>
       </c>
       <c r="L37">
-        <v>25.55016470958133</v>
+        <v>26.83490115893888</v>
       </c>
       <c r="M37">
-        <v>30.69596617986481</v>
+        <v>31.8738346495573</v>
       </c>
       <c r="N37">
-        <v>17.09518536628968</v>
+        <v>17.86645652002461</v>
       </c>
       <c r="O37">
-        <v>27.74115883695968</v>
+        <v>28.79206753269655</v>
       </c>
       <c r="P37">
-        <v>21.41765744013669</v>
+        <v>23.25022046478793</v>
       </c>
       <c r="Q37">
-        <v>20.64896564556926</v>
+        <v>21.64948561391599</v>
       </c>
       <c r="R37">
-        <v>25.49014142443601</v>
+        <v>27.40337073339943</v>
       </c>
       <c r="S37">
-        <v>32.6850463222556</v>
+        <v>32.21775883135686</v>
       </c>
       <c r="T37">
-        <v>24.46747599259809</v>
+        <v>27.97170443369401</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>3.964249550387852</v>
+        <v>4.175101664154859</v>
       </c>
       <c r="C38">
-        <v>4.548611959111107</v>
+        <v>4.7344981507276</v>
       </c>
       <c r="D38">
-        <v>4.382047007612057</v>
+        <v>4.628354322726167</v>
       </c>
       <c r="E38">
-        <v>3.292840252783125</v>
+        <v>3.523775529421612</v>
       </c>
       <c r="F38">
-        <v>3.542919183008754</v>
+        <v>3.609330987937217</v>
       </c>
       <c r="G38">
-        <v>3.009984063241041</v>
+        <v>3.216115775317621</v>
       </c>
       <c r="H38">
-        <v>4.50318472653498</v>
+        <v>4.84110322935196</v>
       </c>
       <c r="I38">
-        <v>3.779788690357347</v>
+        <v>3.879823645833654</v>
       </c>
       <c r="J38">
-        <v>3.496304416272573</v>
+        <v>3.626644216219291</v>
       </c>
       <c r="K38">
-        <v>4.352865903192644</v>
+        <v>4.532182453243121</v>
       </c>
       <c r="L38">
-        <v>4.248401648422882</v>
+        <v>4.462023615689213</v>
       </c>
       <c r="M38">
-        <v>4.744183169720217</v>
+        <v>4.926227407628085</v>
       </c>
       <c r="N38">
-        <v>3.103019596090246</v>
+        <v>3.243016294146412</v>
       </c>
       <c r="O38">
-        <v>4.816162245786127</v>
+        <v>4.998611249229811</v>
       </c>
       <c r="P38">
-        <v>4.819643249934779</v>
+        <v>5.232027285701862</v>
       </c>
       <c r="Q38">
-        <v>3.781563810579308</v>
+        <v>3.964794785389602</v>
       </c>
       <c r="R38">
-        <v>4.647139841456465</v>
+        <v>4.995943090504067</v>
       </c>
       <c r="S38">
-        <v>3.572498305283331</v>
+        <v>3.521423457389383</v>
       </c>
       <c r="T38">
-        <v>4.892755217391761</v>
+        <v>5.593494925618775</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>7.888007846283429</v>
+        <v>8.307558408542276</v>
       </c>
       <c r="C39">
-        <v>12.35031655983591</v>
+        <v>12.85503169737749</v>
       </c>
       <c r="D39">
-        <v>9.682662155513581</v>
+        <v>10.22690791886087</v>
       </c>
       <c r="E39">
-        <v>12.8211193186574</v>
+        <v>13.7202970829497</v>
       </c>
       <c r="F39">
-        <v>9.152799077152746</v>
+        <v>9.324367740015971</v>
       </c>
       <c r="G39">
-        <v>6.319890257217423</v>
+        <v>6.752693146364148</v>
       </c>
       <c r="H39">
-        <v>9.96884070995746</v>
+        <v>10.7169014563177</v>
       </c>
       <c r="I39">
-        <v>7.180626843635164</v>
+        <v>7.37066754311329</v>
       </c>
       <c r="J39">
-        <v>11.89834959727141</v>
+        <v>12.34191180512338</v>
       </c>
       <c r="K39">
-        <v>8.705731806385288</v>
+        <v>9.064364906486242</v>
       </c>
       <c r="L39">
-        <v>7.194646198511029</v>
+        <v>7.556413894199998</v>
       </c>
       <c r="M39">
-        <v>6.078235349298454</v>
+        <v>6.311469961538977</v>
       </c>
       <c r="N39">
-        <v>12.34262399377468</v>
+        <v>12.89947726233103</v>
       </c>
       <c r="O39">
-        <v>9.47559023958155</v>
+        <v>9.834550737177945</v>
       </c>
       <c r="P39">
-        <v>10.15469263940825</v>
+        <v>11.02356050274443</v>
       </c>
       <c r="Q39">
-        <v>7.587182470468195</v>
+        <v>7.954809967917323</v>
       </c>
       <c r="R39">
-        <v>9.902443641528297</v>
+        <v>10.64569747797693</v>
       </c>
       <c r="S39">
-        <v>6.057785653909565</v>
+        <v>5.971179460033978</v>
       </c>
       <c r="T39">
-        <v>3.733944771167396</v>
+        <v>4.268719811656434</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>8.766356597577378</v>
+        <v>9.232625129651423</v>
       </c>
       <c r="C40">
-        <v>7.785905584657765</v>
+        <v>8.104088878908358</v>
       </c>
       <c r="D40">
-        <v>9.543415226374222</v>
+        <v>10.07983415965908</v>
       </c>
       <c r="E40">
-        <v>10.19963484556792</v>
+        <v>10.91496122457521</v>
       </c>
       <c r="F40">
-        <v>7.286191219379793</v>
+        <v>7.422770431305818</v>
       </c>
       <c r="G40">
-        <v>8.105072700445959</v>
+        <v>8.660129630032857</v>
       </c>
       <c r="H40">
-        <v>8.408223474213322</v>
+        <v>9.039175669226431</v>
       </c>
       <c r="I40">
-        <v>8.543951852773349</v>
+        <v>8.770073975780996</v>
       </c>
       <c r="J40">
-        <v>11.42683965726212</v>
+        <v>11.85282430208278</v>
       </c>
       <c r="K40">
-        <v>9.197690886478171</v>
+        <v>9.57659026791427</v>
       </c>
       <c r="L40">
-        <v>9.276105728545135</v>
+        <v>9.742535251525362</v>
       </c>
       <c r="M40">
-        <v>8.881181106988855</v>
+        <v>9.221970614582613</v>
       </c>
       <c r="N40">
-        <v>10.2901020553023</v>
+        <v>10.75435317128571</v>
       </c>
       <c r="O40">
-        <v>9.914446145155521</v>
+        <v>10.29003166876664</v>
       </c>
       <c r="P40">
-        <v>7.974643838209191</v>
+        <v>8.656979778706511</v>
       </c>
       <c r="Q40">
-        <v>9.092733039020631</v>
+        <v>9.533310118209013</v>
       </c>
       <c r="R40">
-        <v>8.593412676729383</v>
+        <v>9.238413766498748</v>
       </c>
       <c r="S40">
-        <v>7.019014302571784</v>
+        <v>6.918665734921206</v>
       </c>
       <c r="T40">
-        <v>6.596931754846875</v>
+        <v>7.541743385041044</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>10.6001432192948</v>
+        <v>11.16394793835005</v>
       </c>
       <c r="C41">
-        <v>10.643270490497</v>
+        <v>11.07822450187617</v>
       </c>
       <c r="D41">
-        <v>7.385472484739422</v>
+        <v>7.80059717313399</v>
       </c>
       <c r="E41">
-        <v>6.545896459362183</v>
+        <v>7.004976856114506</v>
       </c>
       <c r="F41">
-        <v>7.320227997557168</v>
+        <v>7.457445226823118</v>
       </c>
       <c r="G41">
-        <v>15.36275775400571</v>
+        <v>16.41484025395127</v>
       </c>
       <c r="H41">
-        <v>9.669767720529142</v>
+        <v>10.39538606157896</v>
       </c>
       <c r="I41">
-        <v>5.628947721392362</v>
+        <v>5.777922063827021</v>
       </c>
       <c r="J41">
-        <v>4.832976885095198</v>
+        <v>5.013146906166187</v>
       </c>
       <c r="K41">
-        <v>7.035463440234075</v>
+        <v>7.325289743218443</v>
       </c>
       <c r="L41">
-        <v>6.498336571039493</v>
+        <v>6.825091797391392</v>
       </c>
       <c r="M41">
-        <v>5.665732372718342</v>
+        <v>5.883138382369162</v>
       </c>
       <c r="N41">
-        <v>7.346248770972339</v>
+        <v>7.677684180639464</v>
       </c>
       <c r="O41">
-        <v>10.86449684183763</v>
+        <v>11.27607280638174</v>
       </c>
       <c r="P41">
-        <v>4.330305339997033</v>
+        <v>4.700820064761339</v>
       </c>
       <c r="Q41">
-        <v>6.189171228240932</v>
+        <v>6.489059828360755</v>
       </c>
       <c r="R41">
-        <v>6.572326406902488</v>
+        <v>7.065629574601107</v>
       </c>
       <c r="S41">
-        <v>5.061380127040983</v>
+        <v>4.989019219342366</v>
       </c>
       <c r="T41">
-        <v>6.408976548371149</v>
+        <v>7.326869260554175</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>6.481715430647903</v>
+        <v>6.82646754123454</v>
       </c>
       <c r="C42">
-        <v>6.258667364843749</v>
+        <v>6.514437663893964</v>
       </c>
       <c r="D42">
-        <v>7.394704325345347</v>
+        <v>7.810347919600408</v>
       </c>
       <c r="E42">
-        <v>7.85592826651042</v>
+        <v>8.406884531681593</v>
       </c>
       <c r="F42">
-        <v>5.001085702653186</v>
+        <v>5.09483075043976</v>
       </c>
       <c r="G42">
-        <v>5.894402641126377</v>
+        <v>6.298067006968832</v>
       </c>
       <c r="H42">
-        <v>5.561980790407187</v>
+        <v>5.979351237219258</v>
       </c>
       <c r="I42">
-        <v>4.682692534128687</v>
+        <v>4.806623520100423</v>
       </c>
       <c r="J42">
-        <v>5.463112082700204</v>
+        <v>5.666773106217365</v>
       </c>
       <c r="K42">
-        <v>6.397711015736768</v>
+        <v>6.661265072552626</v>
       </c>
       <c r="L42">
-        <v>4.909854298118728</v>
+        <v>5.15673602469572</v>
       </c>
       <c r="M42">
-        <v>7.087551143058305</v>
+        <v>7.359515314826822</v>
       </c>
       <c r="N42">
-        <v>4.76196665457356</v>
+        <v>4.97680887108223</v>
       </c>
       <c r="O42">
-        <v>8.029616294292959</v>
+        <v>8.333799462584416</v>
       </c>
       <c r="P42">
-        <v>5.593497265802841</v>
+        <v>6.072094717295777</v>
       </c>
       <c r="Q42">
-        <v>5.21990230017851</v>
+        <v>5.47282617897184</v>
       </c>
       <c r="R42">
-        <v>4.456139596897892</v>
+        <v>4.790606822467871</v>
       </c>
       <c r="S42">
-        <v>5.680656796859962</v>
+        <v>5.599442291759074</v>
       </c>
       <c r="T42">
-        <v>5.957588060378261</v>
+        <v>6.810832977337683</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2023.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2023.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>155.3825058349552</v>
+        <v>150.2195632650587</v>
       </c>
       <c r="C2">
-        <v>138.4883778455717</v>
+        <v>138.4224988203906</v>
       </c>
       <c r="D2">
-        <v>140.8194679057958</v>
+        <v>138.7478526633922</v>
       </c>
       <c r="E2">
-        <v>122.3331702728718</v>
+        <v>120.3548971297625</v>
       </c>
       <c r="F2">
-        <v>140.5117281985165</v>
+        <v>137.1110634566949</v>
       </c>
       <c r="G2">
-        <v>145.1139037386579</v>
+        <v>147.270226796103</v>
       </c>
       <c r="H2">
-        <v>165.5962952839603</v>
+        <v>164.9659974169549</v>
       </c>
       <c r="I2">
-        <v>152.9672451419158</v>
+        <v>151.746764111066</v>
       </c>
       <c r="J2">
-        <v>135.074948775703</v>
+        <v>133.6505361721187</v>
       </c>
       <c r="K2">
-        <v>137.4967004756051</v>
+        <v>137.3043703194768</v>
       </c>
       <c r="L2">
-        <v>190.2282961158755</v>
+        <v>187.0430551996405</v>
       </c>
       <c r="M2">
-        <v>155.7884206652489</v>
+        <v>154.5318628492236</v>
       </c>
       <c r="N2">
-        <v>117.5931772165876</v>
+        <v>115.9036280920583</v>
       </c>
       <c r="O2">
-        <v>154.7542346851424</v>
+        <v>154.7376692616362</v>
       </c>
       <c r="P2">
-        <v>134.7511821144117</v>
+        <v>129.8174776192851</v>
       </c>
       <c r="Q2">
-        <v>132.4953563651086</v>
+        <v>128.9747142553921</v>
       </c>
       <c r="R2">
-        <v>155.6216941871804</v>
+        <v>155.143166806201</v>
       </c>
       <c r="S2">
-        <v>183.9768370728686</v>
+        <v>146.1587628398012</v>
       </c>
       <c r="T2">
-        <v>171.5397661134826</v>
+        <v>167.4733202851059</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>15.33576922406126</v>
+        <v>14.8262028778143</v>
       </c>
       <c r="C3">
-        <v>12.23013432319941</v>
+        <v>12.22431643913159</v>
       </c>
       <c r="D3">
-        <v>11.5635727469656</v>
+        <v>11.39345938184991</v>
       </c>
       <c r="E3">
-        <v>13.15010686783293</v>
+        <v>12.9374539692967</v>
       </c>
       <c r="F3">
-        <v>17.69123828563375</v>
+        <v>17.26307494974394</v>
       </c>
       <c r="G3">
-        <v>11.62018279058145</v>
+        <v>11.79285313737457</v>
       </c>
       <c r="H3">
-        <v>12.00797366480108</v>
+        <v>11.96226853489462</v>
       </c>
       <c r="I3">
-        <v>13.11099590343115</v>
+        <v>13.00638709138879</v>
       </c>
       <c r="J3">
-        <v>12.42342638896348</v>
+        <v>12.29241701018129</v>
       </c>
       <c r="K3">
-        <v>13.4066036086831</v>
+        <v>13.38785047383485</v>
       </c>
       <c r="L3">
-        <v>17.33730215199423</v>
+        <v>17.04700104895527</v>
       </c>
       <c r="M3">
-        <v>14.62375377935475</v>
+        <v>14.50580154623877</v>
       </c>
       <c r="N3">
-        <v>11.08251103364513</v>
+        <v>10.92328030905986</v>
       </c>
       <c r="O3">
-        <v>15.19187407538787</v>
+        <v>15.1902478851358</v>
       </c>
       <c r="P3">
-        <v>10.73814779499404</v>
+        <v>10.34498725113689</v>
       </c>
       <c r="Q3">
-        <v>9.564464726438452</v>
+        <v>9.310319538285542</v>
       </c>
       <c r="R3">
-        <v>10.97475099537385</v>
+        <v>10.94100429393773</v>
       </c>
       <c r="S3">
-        <v>20.02461843768046</v>
+        <v>15.9083801186952</v>
       </c>
       <c r="T3">
-        <v>20.69051707362129</v>
+        <v>20.20003682669521</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>15.48338625402548</v>
+        <v>14.96891499107668</v>
       </c>
       <c r="C4">
-        <v>11.48072732183548</v>
+        <v>11.47526593124012</v>
       </c>
       <c r="D4">
-        <v>11.64076615649141</v>
+        <v>11.46951718813729</v>
       </c>
       <c r="E4">
-        <v>14.576342659245</v>
+        <v>14.34062582837057</v>
       </c>
       <c r="F4">
-        <v>13.2055806473502</v>
+        <v>12.88597919430083</v>
       </c>
       <c r="G4">
-        <v>12.57236772334533</v>
+        <v>12.75918708186353</v>
       </c>
       <c r="H4">
-        <v>12.68941928066294</v>
+        <v>12.64112041085776</v>
       </c>
       <c r="I4">
-        <v>13.62349782065814</v>
+        <v>13.51479990530697</v>
       </c>
       <c r="J4">
-        <v>13.46877545024625</v>
+        <v>13.32674249979861</v>
       </c>
       <c r="K4">
-        <v>12.32376853612021</v>
+        <v>12.30653006917197</v>
       </c>
       <c r="L4">
-        <v>14.29085313131952</v>
+        <v>14.05156270475724</v>
       </c>
       <c r="M4">
-        <v>15.89466411290697</v>
+        <v>15.76646097470913</v>
       </c>
       <c r="N4">
-        <v>11.36983819423632</v>
+        <v>11.20647922544403</v>
       </c>
       <c r="O4">
-        <v>19.5322903520472</v>
+        <v>19.53019954876556</v>
       </c>
       <c r="P4">
-        <v>11.25641846260876</v>
+        <v>10.84428224609049</v>
       </c>
       <c r="Q4">
-        <v>11.50198464775513</v>
+        <v>11.19635603851835</v>
       </c>
       <c r="R4">
-        <v>14.01785167062156</v>
+        <v>13.97474761702584</v>
       </c>
       <c r="S4">
-        <v>15.84197051611445</v>
+        <v>12.58551265702436</v>
       </c>
       <c r="T4">
-        <v>13.13185446617971</v>
+        <v>12.82055653204635</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>23.27510515230388</v>
+        <v>22.5017360361095</v>
       </c>
       <c r="C5">
-        <v>17.21756712538004</v>
+        <v>17.20937671578859</v>
       </c>
       <c r="D5">
-        <v>16.21955418467995</v>
+        <v>15.98094601370993</v>
       </c>
       <c r="E5">
-        <v>16.01778352306018</v>
+        <v>15.75875687570748</v>
       </c>
       <c r="F5">
-        <v>15.645425350113</v>
+        <v>15.26677477737389</v>
       </c>
       <c r="G5">
-        <v>17.43065751313979</v>
+        <v>17.68966872938894</v>
       </c>
       <c r="H5">
-        <v>18.24453721781133</v>
+        <v>18.1750942820671</v>
       </c>
       <c r="I5">
-        <v>20.08808038735665</v>
+        <v>19.92780345332277</v>
       </c>
       <c r="J5">
-        <v>14.47261245494379</v>
+        <v>14.3199936919943</v>
       </c>
       <c r="K5">
-        <v>18.48604203317836</v>
+        <v>18.46018378830312</v>
       </c>
       <c r="L5">
-        <v>25.09419766987239</v>
+        <v>24.67401272993329</v>
       </c>
       <c r="M5">
-        <v>16.73641437293894</v>
+        <v>16.60142184780292</v>
       </c>
       <c r="N5">
-        <v>17.78933186112908</v>
+        <v>17.53373922571135</v>
       </c>
       <c r="O5">
-        <v>26.58223422174699</v>
+        <v>26.57938876831872</v>
       </c>
       <c r="P5">
-        <v>14.83418399177439</v>
+        <v>14.29105346710402</v>
       </c>
       <c r="Q5">
-        <v>14.05443719341006</v>
+        <v>13.68098528710223</v>
       </c>
       <c r="R5">
-        <v>19.60316999071905</v>
+        <v>19.54289141809748</v>
       </c>
       <c r="S5">
-        <v>24.51126833850815</v>
+        <v>19.47275925051254</v>
       </c>
       <c r="T5">
-        <v>27.92517657209252</v>
+        <v>27.26319468677769</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>25.94697339465637</v>
+        <v>25.08482528615864</v>
       </c>
       <c r="C6">
-        <v>24.63959383272311</v>
+        <v>24.62787275946187</v>
       </c>
       <c r="D6">
-        <v>25.69565462562668</v>
+        <v>25.31764219185157</v>
       </c>
       <c r="E6">
-        <v>19.44804785720265</v>
+        <v>19.13354974785101</v>
       </c>
       <c r="F6">
-        <v>18.10260745063445</v>
+        <v>17.66448815851789</v>
       </c>
       <c r="G6">
-        <v>25.7296928570762</v>
+        <v>26.1120237608648</v>
       </c>
       <c r="H6">
-        <v>25.46485436823001</v>
+        <v>25.36792923252951</v>
       </c>
       <c r="I6">
-        <v>26.11304678852961</v>
+        <v>25.90469840496863</v>
       </c>
       <c r="J6">
-        <v>19.85483928238599</v>
+        <v>19.64546305406008</v>
       </c>
       <c r="K6">
-        <v>22.38300276161104</v>
+        <v>22.35169345454498</v>
       </c>
       <c r="L6">
-        <v>29.23283570997639</v>
+        <v>28.74335214574222</v>
       </c>
       <c r="M6">
-        <v>29.80591275089607</v>
+        <v>29.56550430159685</v>
       </c>
       <c r="N6">
-        <v>19.92387021467894</v>
+        <v>19.6376090703232</v>
       </c>
       <c r="O6">
-        <v>27.60915185322261</v>
+        <v>27.60619647501259</v>
       </c>
       <c r="P6">
-        <v>28.8444712436121</v>
+        <v>27.78837588918821</v>
       </c>
       <c r="Q6">
-        <v>24.00610919355729</v>
+        <v>23.36822329901776</v>
       </c>
       <c r="R6">
-        <v>25.71428662059961</v>
+        <v>25.63521673066825</v>
       </c>
       <c r="S6">
-        <v>27.47548922913406</v>
+        <v>21.82765818806836</v>
       </c>
       <c r="T6">
-        <v>34.64295382622723</v>
+        <v>33.82172328440573</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>8.191925068403631</v>
+        <v>7.919729440988612</v>
       </c>
       <c r="C7">
-        <v>6.978020678321807</v>
+        <v>6.974701228652938</v>
       </c>
       <c r="D7">
-        <v>8.410018827285082</v>
+        <v>8.286297842888521</v>
       </c>
       <c r="E7">
-        <v>6.77157899472671</v>
+        <v>6.662074492948243</v>
       </c>
       <c r="F7">
-        <v>7.621362441995811</v>
+        <v>7.436910233817704</v>
       </c>
       <c r="G7">
-        <v>8.446999669237078</v>
+        <v>8.572518035732202</v>
       </c>
       <c r="H7">
-        <v>8.581538172299593</v>
+        <v>8.548874849751522</v>
       </c>
       <c r="I7">
-        <v>8.931957066402095</v>
+        <v>8.86069158628055</v>
       </c>
       <c r="J7">
-        <v>7.245740785786721</v>
+        <v>7.169331913592973</v>
       </c>
       <c r="K7">
-        <v>6.638689790665981</v>
+        <v>6.629403602419211</v>
       </c>
       <c r="L7">
-        <v>9.044336205585322</v>
+        <v>8.892895067066858</v>
       </c>
       <c r="M7">
-        <v>10.78616794818534</v>
+        <v>10.69916890433871</v>
       </c>
       <c r="N7">
-        <v>6.445201886524599</v>
+        <v>6.352598850680645</v>
       </c>
       <c r="O7">
-        <v>8.378012813086615</v>
+        <v>8.377116001890002</v>
       </c>
       <c r="P7">
-        <v>8.403908454270615</v>
+        <v>8.096212445472242</v>
       </c>
       <c r="Q7">
-        <v>7.589855985801012</v>
+        <v>7.388179735980896</v>
       </c>
       <c r="R7">
-        <v>8.064818192701921</v>
+        <v>8.040019360199897</v>
       </c>
       <c r="S7">
-        <v>8.352393902367583</v>
+        <v>6.635485091186923</v>
       </c>
       <c r="T7">
-        <v>10.42731676545327</v>
+        <v>10.18013140591402</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>200.63</v>
+        <v>227.190914177056</v>
       </c>
       <c r="C8">
-        <v>243.29</v>
+        <v>243.649967514389</v>
       </c>
       <c r="D8">
-        <v>208.9</v>
+        <v>220.537984737748</v>
       </c>
       <c r="E8">
-        <v>273.38</v>
+        <v>285.130311285482</v>
       </c>
       <c r="F8">
-        <v>245.11</v>
+        <v>263.379847221058</v>
       </c>
       <c r="G8">
-        <v>260.61</v>
+        <v>249.62301898462</v>
       </c>
       <c r="H8">
-        <v>191.57</v>
+        <v>194.647071885874</v>
       </c>
       <c r="I8">
-        <v>250.68</v>
+        <v>256.658605715151</v>
       </c>
       <c r="J8">
-        <v>283.24</v>
+        <v>290.798485026268</v>
       </c>
       <c r="K8">
-        <v>242.01</v>
+        <v>243.070275152345</v>
       </c>
       <c r="L8">
-        <v>146.12</v>
+        <v>160.417628528923</v>
       </c>
       <c r="M8">
-        <v>196.3</v>
+        <v>202.782481255199</v>
       </c>
       <c r="N8">
-        <v>280.96</v>
+        <v>291.290985447089</v>
       </c>
       <c r="O8">
-        <v>186.3</v>
+        <v>186.387101235933</v>
       </c>
       <c r="P8">
-        <v>209.71</v>
+        <v>238.645236517206</v>
       </c>
       <c r="Q8">
-        <v>274.47</v>
+        <v>293.748649002791</v>
       </c>
       <c r="R8">
-        <v>160.38</v>
+        <v>162.961781169499</v>
       </c>
       <c r="S8">
-        <v>229.18</v>
+        <v>387.628902830018</v>
       </c>
       <c r="T8">
-        <v>194.03</v>
+        <v>213.135968362628</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>10.26348405556827</v>
+        <v>9.922456097104062</v>
       </c>
       <c r="C9">
-        <v>8.418103724829921</v>
+        <v>8.41409922657604</v>
       </c>
       <c r="D9">
-        <v>10.09364771715317</v>
+        <v>9.9451586284407</v>
       </c>
       <c r="E9">
-        <v>10.52419086381518</v>
+        <v>10.35400215626839</v>
       </c>
       <c r="F9">
-        <v>12.69727966760795</v>
+        <v>12.38998011449393</v>
       </c>
       <c r="G9">
-        <v>11.27058832251355</v>
+        <v>11.43806386306944</v>
       </c>
       <c r="H9">
-        <v>8.757745310714855</v>
+        <v>8.724411302972385</v>
       </c>
       <c r="I9">
-        <v>8.229952194751355</v>
+        <v>8.164287806736942</v>
       </c>
       <c r="J9">
-        <v>8.141646443362642</v>
+        <v>8.05578993249244</v>
       </c>
       <c r="K9">
-        <v>6.628569836716795</v>
+        <v>6.619297804244791</v>
       </c>
       <c r="L9">
-        <v>10.96460149672878</v>
+        <v>10.78100684740112</v>
       </c>
       <c r="M9">
-        <v>9.793631716375984</v>
+        <v>9.714638268545041</v>
       </c>
       <c r="N9">
-        <v>7.013807214852439</v>
+        <v>6.913034600998786</v>
       </c>
       <c r="O9">
-        <v>10.33758187591052</v>
+        <v>10.33647530572746</v>
       </c>
       <c r="P9">
-        <v>12.75625011381831</v>
+        <v>12.28919989919334</v>
       </c>
       <c r="Q9">
-        <v>7.219709568979794</v>
+        <v>7.027868781303955</v>
       </c>
       <c r="R9">
-        <v>5.817288162648844</v>
+        <v>5.799400350262437</v>
       </c>
       <c r="S9">
-        <v>7.183961891889631</v>
+        <v>5.707234666671587</v>
       </c>
       <c r="T9">
-        <v>7.643258719444289</v>
+        <v>7.462071008634852</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>22.8191325486366</v>
+        <v>22.06091417514347</v>
       </c>
       <c r="C10">
-        <v>25.79776828937646</v>
+        <v>25.78549627165777</v>
       </c>
       <c r="D10">
-        <v>23.83651229936308</v>
+        <v>23.4858499730565</v>
       </c>
       <c r="E10">
-        <v>21.93331694149159</v>
+        <v>21.57862906944614</v>
       </c>
       <c r="F10">
-        <v>18.77324951848043</v>
+        <v>18.31889934753442</v>
       </c>
       <c r="G10">
-        <v>22.54577657223852</v>
+        <v>22.88079600606395</v>
       </c>
       <c r="H10">
-        <v>25.13916344888426</v>
+        <v>25.04347796828241</v>
       </c>
       <c r="I10">
-        <v>20.32438366655711</v>
+        <v>20.16222133758444</v>
       </c>
       <c r="J10">
-        <v>21.2511539129803</v>
+        <v>21.02705305824206</v>
       </c>
       <c r="K10">
-        <v>21.73999645683969</v>
+        <v>21.70958658592417</v>
       </c>
       <c r="L10">
-        <v>23.49818961354753</v>
+        <v>23.10472872185701</v>
       </c>
       <c r="M10">
-        <v>17.68918287592789</v>
+        <v>17.54650551321421</v>
       </c>
       <c r="N10">
-        <v>27.76034045775037</v>
+        <v>27.36148688454824</v>
       </c>
       <c r="O10">
-        <v>26.82332211410804</v>
+        <v>26.82045085380575</v>
       </c>
       <c r="P10">
-        <v>21.08334778271701</v>
+        <v>20.31141386647433</v>
       </c>
       <c r="Q10">
-        <v>24.62178359428196</v>
+        <v>23.96753811341027</v>
       </c>
       <c r="R10">
-        <v>28.19980052615906</v>
+        <v>28.11308782996071</v>
       </c>
       <c r="S10">
-        <v>23.23155708893706</v>
+        <v>18.45610402366241</v>
       </c>
       <c r="T10">
-        <v>18.50878334507157</v>
+        <v>18.07002231299634</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>38.93891222073008</v>
+        <v>37.64507694339576</v>
       </c>
       <c r="C11">
-        <v>44.27687635435659</v>
+        <v>44.25581381107558</v>
       </c>
       <c r="D11">
-        <v>43.61996431751863</v>
+        <v>42.97826481178181</v>
       </c>
       <c r="E11">
-        <v>35.25296036661923</v>
+        <v>34.68287798787583</v>
       </c>
       <c r="F11">
-        <v>26.42613450185561</v>
+        <v>25.78656921420836</v>
       </c>
       <c r="G11">
-        <v>38.74365359271782</v>
+        <v>39.31936571553481</v>
       </c>
       <c r="H11">
-        <v>51.77232960215194</v>
+        <v>51.57527212050853</v>
       </c>
       <c r="I11">
-        <v>48.13605207894983</v>
+        <v>47.75198855994056</v>
       </c>
       <c r="J11">
-        <v>40.18970889183034</v>
+        <v>39.76589434739569</v>
       </c>
       <c r="K11">
-        <v>39.5378816214734</v>
+        <v>39.48257609836676</v>
       </c>
       <c r="L11">
-        <v>48.42415705137694</v>
+        <v>47.61332811833388</v>
       </c>
       <c r="M11">
-        <v>41.37417936588277</v>
+        <v>41.04046362345578</v>
       </c>
       <c r="N11">
-        <v>36.93893099042543</v>
+        <v>36.40820174240985</v>
       </c>
       <c r="O11">
-        <v>34.11018280536679</v>
+        <v>34.10653153452956</v>
       </c>
       <c r="P11">
-        <v>41.3864596929719</v>
+        <v>39.87115898079542</v>
       </c>
       <c r="Q11">
-        <v>38.85647244959093</v>
+        <v>37.82398544858164</v>
       </c>
       <c r="R11">
-        <v>55.27583603729159</v>
+        <v>55.10586615495269</v>
       </c>
       <c r="S11">
-        <v>29.23741051477542</v>
+        <v>23.22740089170259</v>
       </c>
       <c r="T11">
-        <v>34.06347045900871</v>
+        <v>33.25597689360165</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>11.5920373252463</v>
+        <v>11.20686511646551</v>
       </c>
       <c r="C12">
-        <v>12.37813633287317</v>
+        <v>12.37224804413837</v>
       </c>
       <c r="D12">
-        <v>12.46307910849262</v>
+        <v>12.27973297721972</v>
       </c>
       <c r="E12">
-        <v>11.22058317987779</v>
+        <v>11.03913297871597</v>
       </c>
       <c r="F12">
-        <v>9.409478601740254</v>
+        <v>9.181750407587982</v>
       </c>
       <c r="G12">
-        <v>10.31687008067919</v>
+        <v>10.47017382527212</v>
       </c>
       <c r="H12">
-        <v>12.02634597307186</v>
+        <v>11.98057091390343</v>
       </c>
       <c r="I12">
-        <v>10.70576609728353</v>
+        <v>10.62034791229675</v>
       </c>
       <c r="J12">
-        <v>9.602116070497777</v>
+        <v>9.500858396326024</v>
       </c>
       <c r="K12">
-        <v>10.8696089994218</v>
+        <v>10.85440460841691</v>
       </c>
       <c r="L12">
-        <v>12.16226128339746</v>
+        <v>11.95861265138626</v>
       </c>
       <c r="M12">
-        <v>13.69584010687855</v>
+        <v>13.58537223731648</v>
       </c>
       <c r="N12">
-        <v>10.19860195277379</v>
+        <v>10.0520710110254</v>
       </c>
       <c r="O12">
-        <v>12.68756316581045</v>
+        <v>12.68620504557852</v>
       </c>
       <c r="P12">
-        <v>13.85343154276243</v>
+        <v>13.34620974030416</v>
       </c>
       <c r="Q12">
-        <v>12.77561470323014</v>
+        <v>12.43614343166526</v>
       </c>
       <c r="R12">
-        <v>13.7858818280702</v>
+        <v>13.74349106783504</v>
       </c>
       <c r="S12">
-        <v>8.933787608064341</v>
+        <v>7.097368152660738</v>
       </c>
       <c r="T12">
-        <v>13.4786985253908</v>
+        <v>13.15917845938894</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>3.441937081999203</v>
+        <v>3.327570774234578</v>
       </c>
       <c r="C13">
-        <v>3.517592737854511</v>
+        <v>3.515919416351588</v>
       </c>
       <c r="D13">
-        <v>3.54845915157043</v>
+        <v>3.496257263757891</v>
       </c>
       <c r="E13">
-        <v>2.980194191010295</v>
+        <v>2.932000899557326</v>
       </c>
       <c r="F13">
-        <v>3.099453881125998</v>
+        <v>3.024440900589911</v>
       </c>
       <c r="G13">
-        <v>2.444094658334344</v>
+        <v>2.480412733519174</v>
       </c>
       <c r="H13">
-        <v>3.393031295645509</v>
+        <v>3.380116632399808</v>
       </c>
       <c r="I13">
-        <v>3.220783006764817</v>
+        <v>3.195085318605545</v>
       </c>
       <c r="J13">
-        <v>2.569218920293541</v>
+        <v>2.542125607694842</v>
       </c>
       <c r="K13">
-        <v>2.888079165498451</v>
+        <v>2.884039325161265</v>
       </c>
       <c r="L13">
-        <v>3.377679529360363</v>
+        <v>3.321122627687363</v>
       </c>
       <c r="M13">
-        <v>3.344631692666428</v>
+        <v>3.317654571535092</v>
       </c>
       <c r="N13">
-        <v>2.436231872170608</v>
+        <v>2.401228706815232</v>
       </c>
       <c r="O13">
-        <v>3.474501978144554</v>
+        <v>3.474130055548328</v>
       </c>
       <c r="P13">
-        <v>3.774239432801158</v>
+        <v>3.63605153891326</v>
       </c>
       <c r="Q13">
-        <v>3.189638461585648</v>
+        <v>3.104883978178054</v>
       </c>
       <c r="R13">
-        <v>3.278507108059074</v>
+        <v>3.268425895229872</v>
       </c>
       <c r="S13">
-        <v>2.75698346709739</v>
+        <v>2.190261008570003</v>
       </c>
       <c r="T13">
-        <v>4.368543223819624</v>
+        <v>4.264984470236898</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>8.054969268381265</v>
+        <v>7.787324313684066</v>
       </c>
       <c r="C14">
-        <v>6.832367906896842</v>
+        <v>6.829117744360553</v>
       </c>
       <c r="D14">
-        <v>7.09529317872979</v>
+        <v>6.990913310541312</v>
       </c>
       <c r="E14">
-        <v>7.588091382773919</v>
+        <v>7.465382902673898</v>
       </c>
       <c r="F14">
-        <v>5.251655393802098</v>
+        <v>5.124554833849776</v>
       </c>
       <c r="G14">
-        <v>6.208368426346148</v>
+        <v>6.300621805532707</v>
       </c>
       <c r="H14">
-        <v>7.756454509957049</v>
+        <v>7.726931646992228</v>
       </c>
       <c r="I14">
-        <v>6.190685583988879</v>
+        <v>6.141291909439767</v>
       </c>
       <c r="J14">
-        <v>5.989057618251836</v>
+        <v>5.925900909829193</v>
       </c>
       <c r="K14">
-        <v>7.829730524685557</v>
+        <v>7.818778310639354</v>
       </c>
       <c r="L14">
-        <v>7.426536668425883</v>
+        <v>7.302184461392602</v>
       </c>
       <c r="M14">
-        <v>7.366143269630223</v>
+        <v>7.306729451453681</v>
       </c>
       <c r="N14">
-        <v>5.490217139612287</v>
+        <v>5.411335083856425</v>
       </c>
       <c r="O14">
-        <v>8.552363572614157</v>
+        <v>8.551448098314877</v>
       </c>
       <c r="P14">
-        <v>7.68107853719173</v>
+        <v>7.3998478191251</v>
       </c>
       <c r="Q14">
-        <v>6.285071322096559</v>
+        <v>6.118065569093642</v>
       </c>
       <c r="R14">
-        <v>6.325903521131804</v>
+        <v>6.306451747006695</v>
       </c>
       <c r="S14">
-        <v>6.400168990451005</v>
+        <v>5.084557363269995</v>
       </c>
       <c r="T14">
-        <v>6.811678938457709</v>
+        <v>6.650204290152498</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>2.072379081775551</v>
+        <v>2.00351950118913</v>
       </c>
       <c r="C15">
-        <v>2.165214585967882</v>
+        <v>2.164184591765837</v>
       </c>
       <c r="D15">
-        <v>1.886769441251784</v>
+        <v>1.859012907361077</v>
       </c>
       <c r="E15">
-        <v>1.677879739683602</v>
+        <v>1.650746424827301</v>
       </c>
       <c r="F15">
-        <v>2.268046852245264</v>
+        <v>2.213155584006551</v>
       </c>
       <c r="G15">
-        <v>2.24323117010235</v>
+        <v>2.276564510124562</v>
       </c>
       <c r="H15">
-        <v>2.287352379712786</v>
+        <v>2.278646186596868</v>
       </c>
       <c r="I15">
-        <v>1.651821299086387</v>
+        <v>1.638641898751248</v>
       </c>
       <c r="J15">
-        <v>1.818228078433355</v>
+        <v>1.799054227067237</v>
       </c>
       <c r="K15">
-        <v>2.083932055536214</v>
+        <v>2.081017054840083</v>
       </c>
       <c r="L15">
-        <v>2.002201259081485</v>
+        <v>1.968675787302677</v>
       </c>
       <c r="M15">
-        <v>3.153249497718213</v>
+        <v>3.12781602656987</v>
       </c>
       <c r="N15">
-        <v>1.436635802955976</v>
+        <v>1.415994581920838</v>
       </c>
       <c r="O15">
-        <v>2.658640529254908</v>
+        <v>2.65835593926351</v>
       </c>
       <c r="P15">
-        <v>2.652801966371165</v>
+        <v>2.555673757320995</v>
       </c>
       <c r="Q15">
-        <v>1.936036368543847</v>
+        <v>1.884592368149935</v>
       </c>
       <c r="R15">
-        <v>1.585127257434222</v>
+        <v>1.580253086137084</v>
       </c>
       <c r="S15">
-        <v>1.639352848379349</v>
+        <v>1.302369298164029</v>
       </c>
       <c r="T15">
-        <v>2.942252775454039</v>
+        <v>2.872505032432985</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>3.382890270013513</v>
+        <v>3.270485928929625</v>
       </c>
       <c r="C16">
-        <v>3.133100744469257</v>
+        <v>3.131610326095883</v>
       </c>
       <c r="D16">
-        <v>3.851544854234908</v>
+        <v>3.794884229496773</v>
       </c>
       <c r="E16">
-        <v>3.719160709801625</v>
+        <v>3.65901744914144</v>
       </c>
       <c r="F16">
-        <v>3.816591697506536</v>
+        <v>3.724222548069397</v>
       </c>
       <c r="G16">
-        <v>3.046685123030327</v>
+        <v>3.09195740370301</v>
       </c>
       <c r="H16">
-        <v>3.610158575209337</v>
+        <v>3.596417475231202</v>
       </c>
       <c r="I16">
-        <v>2.776563530605496</v>
+        <v>2.754410140074671</v>
       </c>
       <c r="J16">
-        <v>2.625071505517314</v>
+        <v>2.597389207862121</v>
       </c>
       <c r="K16">
-        <v>2.795442663963595</v>
+        <v>2.79153240341081</v>
       </c>
       <c r="L16">
-        <v>3.049063998374852</v>
+        <v>2.99800953590978</v>
       </c>
       <c r="M16">
-        <v>3.816044978058352</v>
+        <v>3.785265532942937</v>
       </c>
       <c r="N16">
-        <v>2.866466488950582</v>
+        <v>2.825281821085209</v>
       </c>
       <c r="O16">
-        <v>3.483678333909161</v>
+        <v>3.483305429044374</v>
       </c>
       <c r="P16">
-        <v>2.985109679927565</v>
+        <v>2.875814541916829</v>
       </c>
       <c r="Q16">
-        <v>2.890702577860295</v>
+        <v>2.813891363479041</v>
       </c>
       <c r="R16">
-        <v>3.391055439074729</v>
+        <v>3.380628146874293</v>
       </c>
       <c r="S16">
-        <v>2.389278155311368</v>
+        <v>1.898140792159379</v>
       </c>
       <c r="T16">
-        <v>2.565800077042006</v>
+        <v>2.504976355195296</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>20.62701965366785</v>
+        <v>19.94163929319707</v>
       </c>
       <c r="C17">
-        <v>20.037436103344</v>
+        <v>20.02790427996537</v>
       </c>
       <c r="D17">
-        <v>18.59792376028029</v>
+        <v>18.32432705584855</v>
       </c>
       <c r="E17">
-        <v>21.79951230434419</v>
+        <v>21.44698821273132</v>
       </c>
       <c r="F17">
-        <v>19.67164194779231</v>
+        <v>19.19554888393729</v>
       </c>
       <c r="G17">
-        <v>16.55743799750528</v>
+        <v>16.8034735902803</v>
       </c>
       <c r="H17">
-        <v>20.80079338221471</v>
+        <v>20.72162074324746</v>
       </c>
       <c r="I17">
-        <v>18.04881377659417</v>
+        <v>17.90480755602559</v>
       </c>
       <c r="J17">
-        <v>17.74829110185154</v>
+        <v>17.56112916126446</v>
       </c>
       <c r="K17">
-        <v>21.52747742390678</v>
+        <v>21.49736482426136</v>
       </c>
       <c r="L17">
-        <v>21.0435972123401</v>
+        <v>20.69123676842021</v>
       </c>
       <c r="M17">
-        <v>19.98576921530648</v>
+        <v>19.82456805279689</v>
       </c>
       <c r="N17">
-        <v>20.82970689464802</v>
+        <v>20.53043091723961</v>
       </c>
       <c r="O17">
-        <v>21.45348556349183</v>
+        <v>21.45118910889228</v>
       </c>
       <c r="P17">
-        <v>18.5728479029296</v>
+        <v>17.89283202664449</v>
       </c>
       <c r="Q17">
-        <v>18.12159712012497</v>
+        <v>17.64007339229997</v>
       </c>
       <c r="R17">
-        <v>17.45873766846658</v>
+        <v>17.40505309668926</v>
       </c>
       <c r="S17">
-        <v>24.57174618584137</v>
+        <v>19.52080533873797</v>
       </c>
       <c r="T17">
-        <v>24.32053623965732</v>
+        <v>23.74400436383435</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>21.29457666695052</v>
+        <v>20.58701518317252</v>
       </c>
       <c r="C18">
-        <v>20.08363778890353</v>
+        <v>20.07408398734843</v>
       </c>
       <c r="D18">
-        <v>21.70759932086193</v>
+        <v>21.38825573649921</v>
       </c>
       <c r="E18">
-        <v>19.76507361680757</v>
+        <v>19.44544882313556</v>
       </c>
       <c r="F18">
-        <v>21.73085196339929</v>
+        <v>21.20492190027124</v>
       </c>
       <c r="G18">
-        <v>18.79300262225527</v>
+        <v>19.07225763386309</v>
       </c>
       <c r="H18">
-        <v>20.44503868569858</v>
+        <v>20.36722013153141</v>
       </c>
       <c r="I18">
-        <v>20.3903644523079</v>
+        <v>20.22767568189127</v>
       </c>
       <c r="J18">
-        <v>19.19291067101776</v>
+        <v>18.99051471153706</v>
       </c>
       <c r="K18">
-        <v>21.61310780347682</v>
+        <v>21.58287542419875</v>
       </c>
       <c r="L18">
-        <v>20.83875729249502</v>
+        <v>20.48982675099917</v>
       </c>
       <c r="M18">
-        <v>22.3594055292746</v>
+        <v>22.17905909749544</v>
       </c>
       <c r="N18">
-        <v>20.13634108869505</v>
+        <v>19.84702721638623</v>
       </c>
       <c r="O18">
-        <v>20.61510033227088</v>
+        <v>20.61289362129899</v>
       </c>
       <c r="P18">
-        <v>23.51380273880104</v>
+        <v>22.65288150271539</v>
       </c>
       <c r="Q18">
-        <v>16.95033220597526</v>
+        <v>16.49993111287133</v>
       </c>
       <c r="R18">
-        <v>24.72712606840886</v>
+        <v>24.65109163800077</v>
       </c>
       <c r="S18">
-        <v>21.06967563959862</v>
+        <v>16.73861652323065</v>
       </c>
       <c r="T18">
-        <v>18.77187725339997</v>
+        <v>18.32687943349279</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>20.96817901180739</v>
+        <v>20.27146284384792</v>
       </c>
       <c r="C19">
-        <v>21.48926534109606</v>
+        <v>21.47904288146043</v>
       </c>
       <c r="D19">
-        <v>21.71003700747853</v>
+        <v>21.39065756196092</v>
       </c>
       <c r="E19">
-        <v>18.8466872436595</v>
+        <v>18.54191385204748</v>
       </c>
       <c r="F19">
-        <v>25.18966281625003</v>
+        <v>24.5800226154223</v>
       </c>
       <c r="G19">
-        <v>20.5356083808481</v>
+        <v>20.84075767880947</v>
       </c>
       <c r="H19">
-        <v>19.15647179197941</v>
+        <v>19.08355782195895</v>
       </c>
       <c r="I19">
-        <v>16.87957287561523</v>
+        <v>16.7448956871464</v>
       </c>
       <c r="J19">
-        <v>18.37097195063008</v>
+        <v>18.17724362258885</v>
       </c>
       <c r="K19">
-        <v>23.16146075770227</v>
+        <v>23.12906254488494</v>
       </c>
       <c r="L19">
-        <v>19.80932773786932</v>
+        <v>19.47763428047045</v>
       </c>
       <c r="M19">
-        <v>24.29145435446611</v>
+        <v>24.09552440857293</v>
       </c>
       <c r="N19">
-        <v>16.76856431692352</v>
+        <v>16.52763781224128</v>
       </c>
       <c r="O19">
-        <v>19.41216351294688</v>
+        <v>19.41008556845368</v>
       </c>
       <c r="P19">
-        <v>28.63748639039935</v>
+        <v>27.58896946374652</v>
       </c>
       <c r="Q19">
-        <v>18.87450015233647</v>
+        <v>18.37297042435828</v>
       </c>
       <c r="R19">
-        <v>28.87594965981799</v>
+        <v>28.78715784556499</v>
       </c>
       <c r="S19">
-        <v>18.1707708240926</v>
+        <v>14.4356073609583</v>
       </c>
       <c r="T19">
-        <v>13.06248565433749</v>
+        <v>12.75283214657784</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>3.491962853264857</v>
+        <v>3.375934323729052</v>
       </c>
       <c r="C20">
-        <v>4.655407129685012</v>
+        <v>4.65319254902275</v>
       </c>
       <c r="D20">
-        <v>8.676539230700495</v>
+        <v>8.548897426701801</v>
       </c>
       <c r="E20">
-        <v>6.108637837950949</v>
+        <v>6.009853884679368</v>
       </c>
       <c r="F20">
-        <v>3.816591697506536</v>
+        <v>3.724222548069397</v>
       </c>
       <c r="G20">
-        <v>8.256869344498396</v>
+        <v>8.379562465496079</v>
       </c>
       <c r="H20">
-        <v>3.217659262151649</v>
+        <v>3.20541210549753</v>
       </c>
       <c r="I20">
-        <v>3.625874342537048</v>
+        <v>3.596944548768415</v>
       </c>
       <c r="J20">
-        <v>9.759861885521675</v>
+        <v>9.656940726528202</v>
       </c>
       <c r="K20">
-        <v>7.549485646092716</v>
+        <v>7.538925438116968</v>
       </c>
       <c r="L20">
-        <v>7.918152476054075</v>
+        <v>7.785568503203098</v>
       </c>
       <c r="M20">
-        <v>6.242704930453687</v>
+        <v>6.192352538151331</v>
       </c>
       <c r="N20">
-        <v>7.174861649604874</v>
+        <v>7.071775046235177</v>
       </c>
       <c r="O20">
-        <v>4.299539782798806</v>
+        <v>4.299079545329191</v>
       </c>
       <c r="P20">
-        <v>9.055587328057618</v>
+        <v>8.724031113073801</v>
       </c>
       <c r="Q20">
-        <v>5.396423211171068</v>
+        <v>5.253030451452407</v>
       </c>
       <c r="R20">
-        <v>4.227006019824592</v>
+        <v>4.214008229698892</v>
       </c>
       <c r="S20">
-        <v>3.692374172517972</v>
+        <v>2.933373839790009</v>
       </c>
       <c r="T20">
-        <v>3.069992904578121</v>
+        <v>2.99721701055184</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>29.62673791382016</v>
+        <v>28.64232113176039</v>
       </c>
       <c r="C21">
-        <v>25.67639097985565</v>
+        <v>25.66417670141412</v>
       </c>
       <c r="D21">
-        <v>26.03286794092362</v>
+        <v>25.64989471405434</v>
       </c>
       <c r="E21">
-        <v>25.28603540637817</v>
+        <v>24.87713008144813</v>
       </c>
       <c r="F21">
-        <v>25.9406873646134</v>
+        <v>25.31287086822225</v>
       </c>
       <c r="G21">
-        <v>21.80212167305899</v>
+        <v>22.12609075151137</v>
       </c>
       <c r="H21">
-        <v>28.32508872402273</v>
+        <v>28.21727687367381</v>
       </c>
       <c r="I21">
-        <v>27.18638538463823</v>
+        <v>26.96947314549487</v>
       </c>
       <c r="J21">
-        <v>22.539537196453</v>
+        <v>22.30184988912781</v>
       </c>
       <c r="K21">
-        <v>26.67542015205806</v>
+        <v>26.63810661867954</v>
       </c>
       <c r="L21">
-        <v>29.85694372107885</v>
+        <v>29.35700990094845</v>
       </c>
       <c r="M21">
-        <v>27.93268702458475</v>
+        <v>27.70738763420997</v>
       </c>
       <c r="N21">
-        <v>21.87996327901952</v>
+        <v>21.56559748265437</v>
       </c>
       <c r="O21">
-        <v>27.74095769056878</v>
+        <v>27.73798820341035</v>
       </c>
       <c r="P21">
-        <v>31.20458369098712</v>
+        <v>30.06207649803307</v>
       </c>
       <c r="Q21">
-        <v>21.63465008618768</v>
+        <v>21.05977816454445</v>
       </c>
       <c r="R21">
-        <v>27.60183382091559</v>
+        <v>27.51695983649112</v>
       </c>
       <c r="S21">
-        <v>17.97562897003072</v>
+        <v>14.28057864961758</v>
       </c>
       <c r="T21">
-        <v>22.76142989544748</v>
+        <v>22.22185750507242</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>77.28243575393779</v>
+        <v>74.71454836329991</v>
       </c>
       <c r="C22">
-        <v>65.8695081783994</v>
+        <v>65.83817400396931</v>
       </c>
       <c r="D22">
-        <v>74.67771693746938</v>
+        <v>73.57912241090114</v>
       </c>
       <c r="E22">
-        <v>76.80006045450742</v>
+        <v>75.5581119572402</v>
       </c>
       <c r="F22">
-        <v>78.53762378315176</v>
+        <v>76.63685627050342</v>
       </c>
       <c r="G22">
-        <v>77.47810733101281</v>
+        <v>78.62939487121949</v>
       </c>
       <c r="H22">
-        <v>73.86670050761421</v>
+        <v>73.58554673123994</v>
       </c>
       <c r="I22">
-        <v>79.28435348239071</v>
+        <v>78.65176675195259</v>
       </c>
       <c r="J22">
-        <v>65.27355777462574</v>
+        <v>64.58522526576537</v>
       </c>
       <c r="K22">
-        <v>73.25367589018052</v>
+        <v>73.15120877008093</v>
       </c>
       <c r="L22">
-        <v>78.39615979126238</v>
+        <v>77.08347045459966</v>
       </c>
       <c r="M22">
-        <v>89.77316232902059</v>
+        <v>89.04907020258311</v>
       </c>
       <c r="N22">
-        <v>63.71101724056345</v>
+        <v>62.79563340665781</v>
       </c>
       <c r="O22">
-        <v>82.58469923898592</v>
+        <v>82.57585908982422</v>
       </c>
       <c r="P22">
-        <v>65.70475434172091</v>
+        <v>63.2990771761455</v>
       </c>
       <c r="Q22">
-        <v>62.01324768070274</v>
+        <v>60.3654431301543</v>
       </c>
       <c r="R22">
-        <v>74.90392130739578</v>
+        <v>74.67359623944475</v>
       </c>
       <c r="S22">
-        <v>53.21244194026227</v>
+        <v>42.27415149328297</v>
       </c>
       <c r="T22">
-        <v>66.64481703573006</v>
+        <v>65.06496447816863</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>10.26020367712462</v>
+        <v>9.919284716809342</v>
       </c>
       <c r="C23">
-        <v>9.952939380705887</v>
+        <v>9.948204759979673</v>
       </c>
       <c r="D23">
-        <v>10.81357783125699</v>
+        <v>10.65449774813145</v>
       </c>
       <c r="E23">
-        <v>12.09791585753746</v>
+        <v>11.90227814149381</v>
       </c>
       <c r="F23">
-        <v>18.00409950882394</v>
+        <v>17.56836430584213</v>
       </c>
       <c r="G23">
-        <v>9.904409940721893</v>
+        <v>10.05158472532441</v>
       </c>
       <c r="H23">
-        <v>8.837080278247791</v>
+        <v>8.803444303237701</v>
       </c>
       <c r="I23">
-        <v>6.582734206298746</v>
+        <v>6.530212490146635</v>
       </c>
       <c r="J23">
-        <v>9.931193464518925</v>
+        <v>9.826465554068371</v>
       </c>
       <c r="K23">
-        <v>8.823042927697962</v>
+        <v>8.81070126991315</v>
       </c>
       <c r="L23">
-        <v>6.350909174430866</v>
+        <v>6.244567603956162</v>
       </c>
       <c r="M23">
-        <v>8.412531634217217</v>
+        <v>8.344677859640161</v>
       </c>
       <c r="N23">
-        <v>18.13412445383852</v>
+        <v>17.87357792537235</v>
       </c>
       <c r="O23">
-        <v>6.635339431971615</v>
+        <v>6.634629162504538</v>
       </c>
       <c r="P23">
-        <v>7.152296919999793</v>
+        <v>6.890426716629541</v>
       </c>
       <c r="Q23">
-        <v>9.924226273849857</v>
+        <v>9.66052156838237</v>
       </c>
       <c r="R23">
-        <v>6.645506415313664</v>
+        <v>6.625071881447343</v>
       </c>
       <c r="S23">
-        <v>20.02945666546711</v>
+        <v>15.91222380575323</v>
       </c>
       <c r="T23">
-        <v>20.87409063666716</v>
+        <v>20.37925867604482</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>2.397136547696848</v>
+        <v>2.317486150366374</v>
       </c>
       <c r="C24">
-        <v>2.285025736656159</v>
+        <v>2.283938748199896</v>
       </c>
       <c r="D24">
-        <v>3.008917847095329</v>
+        <v>2.964653228233449</v>
       </c>
       <c r="E24">
-        <v>1.832971478195363</v>
+        <v>1.803330145110386</v>
       </c>
       <c r="F24">
-        <v>2.425659559142086</v>
+        <v>2.366953748287756</v>
       </c>
       <c r="G24">
-        <v>1.483476525682859</v>
+        <v>1.505520275834254</v>
       </c>
       <c r="H24">
-        <v>2.614713508901326</v>
+        <v>2.604761303481122</v>
       </c>
       <c r="I24">
-        <v>1.842091471949101</v>
+        <v>1.827393961403505</v>
       </c>
       <c r="J24">
-        <v>2.472609043149718</v>
+        <v>2.446534515513602</v>
       </c>
       <c r="K24">
-        <v>3.170659418079566</v>
+        <v>3.166224304954672</v>
       </c>
       <c r="L24">
-        <v>3.309690109156465</v>
+        <v>3.254271643181656</v>
       </c>
       <c r="M24">
-        <v>2.482169073873822</v>
+        <v>2.462148401367139</v>
       </c>
       <c r="N24">
-        <v>1.803355994763159</v>
+        <v>1.777445830463789</v>
       </c>
       <c r="O24">
-        <v>2.450086989150193</v>
+        <v>2.449824723444283</v>
       </c>
       <c r="P24">
-        <v>3.097495986945423</v>
+        <v>2.984085999480869</v>
       </c>
       <c r="Q24">
-        <v>2.065847236166519</v>
+        <v>2.010953925401368</v>
       </c>
       <c r="R24">
-        <v>3.020762838557574</v>
+        <v>3.011474173906769</v>
       </c>
       <c r="S24">
-        <v>0.8071776690741405</v>
+        <v>0.641255124182092</v>
       </c>
       <c r="T24">
-        <v>2.933793164253768</v>
+        <v>2.864245961034384</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>23.79504513562232</v>
+        <v>23.00439981282256</v>
       </c>
       <c r="C25">
-        <v>22.99121166148897</v>
+        <v>22.98027472486256</v>
       </c>
       <c r="D25">
-        <v>25.00416418871658</v>
+        <v>24.63632436921407</v>
       </c>
       <c r="E25">
-        <v>24.00956957813677</v>
+        <v>23.62130622676529</v>
       </c>
       <c r="F25">
-        <v>23.13281699124652</v>
+        <v>22.57295657155257</v>
       </c>
       <c r="G25">
-        <v>21.23173069884295</v>
+        <v>21.54722404080301</v>
       </c>
       <c r="H25">
-        <v>25.33708331525591</v>
+        <v>25.24064450578641</v>
       </c>
       <c r="I25">
-        <v>21.96162781530321</v>
+        <v>21.78640239282604</v>
       </c>
       <c r="J25">
-        <v>22.06252592805538</v>
+        <v>21.82986887148294</v>
       </c>
       <c r="K25">
-        <v>23.62308634938437</v>
+        <v>23.59004241545654</v>
       </c>
       <c r="L25">
-        <v>27.22889113242814</v>
+        <v>26.7729622306317</v>
       </c>
       <c r="M25">
-        <v>23.47870139669901</v>
+        <v>23.28932695138295</v>
       </c>
       <c r="N25">
-        <v>22.65877110904302</v>
+        <v>22.33321559811672</v>
       </c>
       <c r="O25">
-        <v>21.87476371450336</v>
+        <v>21.87242216484712</v>
       </c>
       <c r="P25">
-        <v>21.79243261188723</v>
+        <v>20.99453665988198</v>
       </c>
       <c r="Q25">
-        <v>21.11466483931058</v>
+        <v>20.55360986949729</v>
       </c>
       <c r="R25">
-        <v>26.73924966565056</v>
+        <v>26.65702807579646</v>
       </c>
       <c r="S25">
-        <v>27.36662910393426</v>
+        <v>21.74117522926258</v>
       </c>
       <c r="T25">
-        <v>24.43812483534107</v>
+        <v>23.85880545627489</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>7.083157154450111</v>
+        <v>6.847802901373375</v>
       </c>
       <c r="C26">
-        <v>7.543404016863871</v>
+        <v>7.539815613916929</v>
       </c>
       <c r="D26">
-        <v>7.52432602325216</v>
+        <v>7.413634591801712</v>
       </c>
       <c r="E26">
-        <v>6.12612367121453</v>
+        <v>6.027056951181872</v>
       </c>
       <c r="F26">
-        <v>7.445624273805857</v>
+        <v>7.265425280644159</v>
       </c>
       <c r="G26">
-        <v>6.120203154793937</v>
+        <v>6.211146440302247</v>
       </c>
       <c r="H26">
-        <v>7.055801480903004</v>
+        <v>7.028945465701694</v>
       </c>
       <c r="I26">
-        <v>5.807076364507599</v>
+        <v>5.760743396027958</v>
       </c>
       <c r="J26">
-        <v>7.232155021813372</v>
+        <v>7.155889416254988</v>
       </c>
       <c r="K26">
-        <v>6.861328777548072</v>
+        <v>6.85173116225644</v>
       </c>
       <c r="L26">
-        <v>7.306247694218984</v>
+        <v>7.183909642651735</v>
       </c>
       <c r="M26">
-        <v>6.589844063281834</v>
+        <v>6.536691717114225</v>
       </c>
       <c r="N26">
-        <v>6.910974336325065</v>
+        <v>6.811679199345507</v>
       </c>
       <c r="O26">
-        <v>6.160671574693285</v>
+        <v>6.160012115299977</v>
       </c>
       <c r="P26">
-        <v>8.037642288233998</v>
+        <v>7.743356544202383</v>
       </c>
       <c r="Q26">
-        <v>7.221193121752624</v>
+        <v>7.029312913386828</v>
       </c>
       <c r="R26">
-        <v>7.579399818474096</v>
+        <v>7.556093618374718</v>
       </c>
       <c r="S26">
-        <v>6.816256580103607</v>
+        <v>5.415114450260963</v>
       </c>
       <c r="T26">
-        <v>7.200821053670148</v>
+        <v>7.030121574488086</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>12.65816031943238</v>
+        <v>12.2375637122494</v>
       </c>
       <c r="C27">
-        <v>12.56685847219261</v>
+        <v>12.56088040819463</v>
       </c>
       <c r="D27">
-        <v>13.08550175793227</v>
+        <v>12.8929990784422</v>
       </c>
       <c r="E27">
-        <v>16.7620718171926</v>
+        <v>16.49100914118366</v>
       </c>
       <c r="F27">
-        <v>18.92534578063587</v>
+        <v>18.46731457606578</v>
       </c>
       <c r="G27">
-        <v>13.30145618635536</v>
+        <v>13.49910944998672</v>
       </c>
       <c r="H27">
-        <v>11.42507042966434</v>
+        <v>11.38158396452419</v>
       </c>
       <c r="I27">
-        <v>11.21443192231571</v>
+        <v>11.12495524108081</v>
       </c>
       <c r="J27">
-        <v>14.27939270065614</v>
+        <v>14.12881150763182</v>
       </c>
       <c r="K27">
-        <v>13.41983739461666</v>
+        <v>13.40106574837064</v>
       </c>
       <c r="L27">
-        <v>11.13021675107161</v>
+        <v>10.94384898914579</v>
       </c>
       <c r="M27">
-        <v>14.64860860986751</v>
+        <v>14.53045590272776</v>
       </c>
       <c r="N27">
-        <v>12.14637765193937</v>
+        <v>11.97186155998755</v>
       </c>
       <c r="O27">
-        <v>13.13136509915328</v>
+        <v>13.12995947284183</v>
       </c>
       <c r="P27">
-        <v>13.20902948022119</v>
+        <v>12.72540145484703</v>
       </c>
       <c r="Q27">
-        <v>12.76745516297957</v>
+        <v>12.42820070520946</v>
       </c>
       <c r="R27">
-        <v>11.04004621031423</v>
+        <v>11.00609873000625</v>
       </c>
       <c r="S27">
-        <v>14.41630606164584</v>
+        <v>11.45290620392352</v>
       </c>
       <c r="T27">
-        <v>14.35342232349875</v>
+        <v>14.01316644200415</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>20.73937261536284</v>
+        <v>20.05025906829122</v>
       </c>
       <c r="C28">
-        <v>24.19637088311811</v>
+        <v>24.18486065134633</v>
       </c>
       <c r="D28">
-        <v>25.24630772596594</v>
+        <v>24.87490569841028</v>
       </c>
       <c r="E28">
-        <v>22.17279683184063</v>
+        <v>21.81423628458914</v>
       </c>
       <c r="F28">
-        <v>24.37795737573141</v>
+        <v>23.78796206937409</v>
       </c>
       <c r="G28">
-        <v>21.31912931585993</v>
+        <v>21.63592135937929</v>
       </c>
       <c r="H28">
-        <v>22.10439216451907</v>
+        <v>22.0202577265544</v>
       </c>
       <c r="I28">
-        <v>18.82600605526324</v>
+        <v>18.67579884419792</v>
       </c>
       <c r="J28">
-        <v>27.38588111161306</v>
+        <v>27.09708741175078</v>
       </c>
       <c r="K28">
-        <v>25.02742457433294</v>
+        <v>24.99241625442983</v>
       </c>
       <c r="L28">
-        <v>20.61822750644904</v>
+        <v>20.27298958330758</v>
       </c>
       <c r="M28">
-        <v>21.57150740202026</v>
+        <v>21.39751599679445</v>
       </c>
       <c r="N28">
-        <v>27.57962679622065</v>
+        <v>27.18336967134872</v>
       </c>
       <c r="O28">
-        <v>21.45431977765225</v>
+        <v>21.45202323375556</v>
       </c>
       <c r="P28">
-        <v>30.17208502867198</v>
+        <v>29.06738116487277</v>
       </c>
       <c r="Q28">
-        <v>25.06462409697187</v>
+        <v>24.39861154014801</v>
       </c>
       <c r="R28">
-        <v>28.48331922261071</v>
+        <v>28.39573472341613</v>
       </c>
       <c r="S28">
-        <v>23.16059641473274</v>
+        <v>18.39972994681124</v>
       </c>
       <c r="T28">
-        <v>23.027907648256</v>
+        <v>22.48201825412831</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>5.764445020103025</v>
+        <v>5.572908022896081</v>
       </c>
       <c r="C29">
-        <v>5.356263207240619</v>
+        <v>5.353715228816754</v>
       </c>
       <c r="D29">
-        <v>6.099091914744138</v>
+        <v>6.009367305190459</v>
       </c>
       <c r="E29">
-        <v>4.609417699003933</v>
+        <v>4.534877921942876</v>
       </c>
       <c r="F29">
-        <v>5.946727431217082</v>
+        <v>5.802804738329892</v>
       </c>
       <c r="G29">
-        <v>4.86058975340017</v>
+        <v>4.932815787487943</v>
       </c>
       <c r="H29">
-        <v>5.664516681851708</v>
+        <v>5.642956218943614</v>
       </c>
       <c r="I29">
-        <v>4.469814625395861</v>
+        <v>4.434151278274393</v>
       </c>
       <c r="J29">
-        <v>5.007108788844699</v>
+        <v>4.954307074455812</v>
       </c>
       <c r="K29">
-        <v>5.442199850673765</v>
+        <v>5.434587310566686</v>
       </c>
       <c r="L29">
-        <v>5.097463196825653</v>
+        <v>5.01210971012018</v>
       </c>
       <c r="M29">
-        <v>5.825972272189825</v>
+        <v>5.778981161019265</v>
       </c>
       <c r="N29">
-        <v>5.812326009117152</v>
+        <v>5.728815974329201</v>
       </c>
       <c r="O29">
-        <v>5.907070469925951</v>
+        <v>5.906438156863796</v>
       </c>
       <c r="P29">
-        <v>5.868344002414482</v>
+        <v>5.653483733811577</v>
       </c>
       <c r="Q29">
-        <v>5.101937985764207</v>
+        <v>4.966370233002014</v>
       </c>
       <c r="R29">
-        <v>5.725359373193309</v>
+        <v>5.707754236323864</v>
       </c>
       <c r="S29">
-        <v>5.615569717714602</v>
+        <v>4.461239445358731</v>
       </c>
       <c r="T29">
-        <v>5.873508056347725</v>
+        <v>5.734273272047789</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>8.00494349711561</v>
+        <v>7.738960764189591</v>
       </c>
       <c r="C30">
-        <v>11.15496628466997</v>
+        <v>11.14965985884425</v>
       </c>
       <c r="D30">
-        <v>12.69222165045343</v>
+        <v>12.50550457062016</v>
       </c>
       <c r="E30">
-        <v>8.253313300410145</v>
+        <v>8.11984738918223</v>
       </c>
       <c r="F30">
-        <v>9.380320250964342</v>
+        <v>9.15329774719596</v>
       </c>
       <c r="G30">
-        <v>10.35213618930008</v>
+        <v>10.50596397136431</v>
       </c>
       <c r="H30">
-        <v>10.76867796144446</v>
+        <v>10.72768987811852</v>
       </c>
       <c r="I30">
-        <v>8.821477611191488</v>
+        <v>8.751093614417949</v>
       </c>
       <c r="J30">
-        <v>14.07862529971663</v>
+        <v>13.93016126919268</v>
       </c>
       <c r="K30">
-        <v>10.54888430503221</v>
+        <v>10.53412854319685</v>
       </c>
       <c r="L30">
-        <v>8.454222904584817</v>
+        <v>8.312662804113479</v>
       </c>
       <c r="M30">
-        <v>8.868203526951064</v>
+        <v>8.796674395271646</v>
       </c>
       <c r="N30">
-        <v>14.08583598592994</v>
+        <v>13.88345424558068</v>
       </c>
       <c r="O30">
-        <v>12.80351893410867</v>
+        <v>12.80214840157401</v>
       </c>
       <c r="P30">
-        <v>17.14578436417766</v>
+        <v>16.51801819498599</v>
       </c>
       <c r="Q30">
-        <v>13.22735652255704</v>
+        <v>12.87588165090025</v>
       </c>
       <c r="R30">
-        <v>15.51448672886026</v>
+        <v>15.46678061217532</v>
       </c>
       <c r="S30">
-        <v>8.520119132305066</v>
+        <v>6.768732909198786</v>
       </c>
       <c r="T30">
-        <v>13.25451882858363</v>
+        <v>12.94031306732605</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>1.841932496109175</v>
+        <v>1.780730035485076</v>
       </c>
       <c r="C31">
-        <v>2.216114748024993</v>
+        <v>2.215060540577692</v>
       </c>
       <c r="D31">
-        <v>1.89977043654034</v>
+        <v>1.871822643156847</v>
       </c>
       <c r="E31">
-        <v>3.224995856700427</v>
+        <v>3.172843830592393</v>
       </c>
       <c r="F31">
-        <v>2.901649933970487</v>
+        <v>2.831424204416998</v>
       </c>
       <c r="G31">
-        <v>1.74873899487473</v>
+        <v>1.774724418179811</v>
       </c>
       <c r="H31">
-        <v>2.175448320245275</v>
+        <v>2.167168059906843</v>
       </c>
       <c r="I31">
-        <v>1.517558072267939</v>
+        <v>1.505449919057115</v>
       </c>
       <c r="J31">
-        <v>3.57230116032589</v>
+        <v>3.534629994482869</v>
       </c>
       <c r="K31">
-        <v>2.01153546189973</v>
+        <v>2.008721729438466</v>
       </c>
       <c r="L31">
-        <v>1.514072088386826</v>
+        <v>1.488720001107858</v>
       </c>
       <c r="M31">
-        <v>2.256818610558175</v>
+        <v>2.238615569200296</v>
       </c>
       <c r="N31">
-        <v>4.165487704465512</v>
+        <v>4.105639027264157</v>
       </c>
       <c r="O31">
-        <v>1.288860877847139</v>
+        <v>1.288722913762825</v>
       </c>
       <c r="P31">
-        <v>3.2802248026723</v>
+        <v>3.160124484441109</v>
       </c>
       <c r="Q31">
-        <v>2.964138440115407</v>
+        <v>2.885375901581281</v>
       </c>
       <c r="R31">
-        <v>1.613479127079387</v>
+        <v>1.608517775482625</v>
       </c>
       <c r="S31">
-        <v>1.227297115215627</v>
+        <v>0.9750152837214227</v>
       </c>
       <c r="T31">
-        <v>1.652162067412806</v>
+        <v>1.612996644146526</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.834551644610964</v>
+        <v>1.773594429821957</v>
       </c>
       <c r="C32">
-        <v>2.206717795029834</v>
+        <v>2.205668057720119</v>
       </c>
       <c r="D32">
-        <v>1.892457376690527</v>
+        <v>1.864617166771727</v>
       </c>
       <c r="E32">
-        <v>3.21207154515778</v>
+        <v>3.160128520568802</v>
       </c>
       <c r="F32">
-        <v>2.889040917418741</v>
+        <v>2.819120351274501</v>
       </c>
       <c r="G32">
-        <v>1.741072449522364</v>
+        <v>1.766943951638031</v>
       </c>
       <c r="H32">
-        <v>2.166262166109882</v>
+        <v>2.158016870402437</v>
       </c>
       <c r="I32">
-        <v>1.511420324756239</v>
+        <v>1.499361142842526</v>
       </c>
       <c r="J32">
-        <v>3.557205867022168</v>
+        <v>3.519693886329551</v>
       </c>
       <c r="K32">
-        <v>2.002972423942726</v>
+        <v>2.000170669444727</v>
       </c>
       <c r="L32">
-        <v>1.507970473753143</v>
+        <v>1.482720553780423</v>
       </c>
       <c r="M32">
-        <v>2.247705172703498</v>
+        <v>2.229575638487666</v>
       </c>
       <c r="N32">
-        <v>4.148852974115496</v>
+        <v>4.089243300526126</v>
       </c>
       <c r="O32">
-        <v>1.283021378724207</v>
+        <v>1.282884039719887</v>
       </c>
       <c r="P32">
-        <v>3.266479714763641</v>
+        <v>3.146882651501622</v>
       </c>
       <c r="Q32">
-        <v>2.951528241546347</v>
+        <v>2.873100778876855</v>
       </c>
       <c r="R32">
-        <v>1.606605946559347</v>
+        <v>1.601665729580676</v>
       </c>
       <c r="S32">
-        <v>1.221652516131192</v>
+        <v>0.9705309821537157</v>
       </c>
       <c r="T32">
-        <v>1.645394378452589</v>
+        <v>1.606389387027646</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>3.31646260652961</v>
+        <v>3.206265477961552</v>
       </c>
       <c r="C33">
-        <v>4.286576724625021</v>
+        <v>4.284537596862999</v>
       </c>
       <c r="D33">
-        <v>4.736425096062294</v>
+        <v>4.666746872096348</v>
       </c>
       <c r="E33">
-        <v>4.205723026701264</v>
+        <v>4.137711473558962</v>
       </c>
       <c r="F33">
-        <v>4.68424964897354</v>
+        <v>4.570881442437434</v>
       </c>
       <c r="G33">
-        <v>3.370213336900181</v>
+        <v>3.420293091766088</v>
       </c>
       <c r="H33">
-        <v>5.767234587183826</v>
+        <v>5.745283156129234</v>
       </c>
       <c r="I33">
-        <v>3.332029680414388</v>
+        <v>3.305444387494969</v>
       </c>
       <c r="J33">
-        <v>7.023839974222002</v>
+        <v>6.949771123739188</v>
       </c>
       <c r="K33">
-        <v>3.183893204013117</v>
+        <v>3.179439579490452</v>
       </c>
       <c r="L33">
-        <v>2.955796460402837</v>
+        <v>2.906303698190412</v>
       </c>
       <c r="M33">
-        <v>4.600629127910992</v>
+        <v>4.563521386112056</v>
       </c>
       <c r="N33">
-        <v>5.585488777071472</v>
+        <v>5.505237882446964</v>
       </c>
       <c r="O33">
-        <v>2.975641910214076</v>
+        <v>2.975323387308737</v>
       </c>
       <c r="P33">
-        <v>6.323548972565949</v>
+        <v>6.092022083513411</v>
       </c>
       <c r="Q33">
-        <v>7.942199769348264</v>
+        <v>7.731161105663356</v>
       </c>
       <c r="R33">
-        <v>7.141234560321546</v>
+        <v>7.119275692125443</v>
       </c>
       <c r="S33">
-        <v>2.365087016378077</v>
+        <v>1.878922356869207</v>
       </c>
       <c r="T33">
-        <v>3.184197655781771</v>
+        <v>3.108714474432936</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>4.769670257066324</v>
+        <v>4.61118694852235</v>
       </c>
       <c r="C34">
-        <v>4.231761165486594</v>
+        <v>4.229748113527155</v>
       </c>
       <c r="D34">
-        <v>7.667336971426283</v>
+        <v>7.554541685555179</v>
       </c>
       <c r="E34">
-        <v>4.963695885996485</v>
+        <v>4.883427008471884</v>
       </c>
       <c r="F34">
-        <v>6.09409531216561</v>
+        <v>5.94660602193282</v>
       </c>
       <c r="G34">
-        <v>3.423879154366745</v>
+        <v>3.474756357558542</v>
       </c>
       <c r="H34">
-        <v>4.920438196884898</v>
+        <v>4.901709869086802</v>
       </c>
       <c r="I34">
-        <v>3.533040911422578</v>
+        <v>3.504851808522757</v>
       </c>
       <c r="J34">
-        <v>5.259200187016861</v>
+        <v>5.203740080616233</v>
       </c>
       <c r="K34">
-        <v>5.543399390165625</v>
+        <v>5.535645292310882</v>
       </c>
       <c r="L34">
-        <v>4.181349342539784</v>
+        <v>4.111335547100975</v>
       </c>
       <c r="M34">
-        <v>4.764671009295177</v>
+        <v>4.72624013893939</v>
       </c>
       <c r="N34">
-        <v>5.50155900121457</v>
+        <v>5.422513988450536</v>
       </c>
       <c r="O34">
-        <v>5.19048050612615</v>
+        <v>5.189924899308932</v>
       </c>
       <c r="P34">
-        <v>6.424615795423735</v>
+        <v>6.189388502186111</v>
       </c>
       <c r="Q34">
-        <v>6.433426599379611</v>
+        <v>6.262478777380992</v>
       </c>
       <c r="R34">
-        <v>6.311298012526719</v>
+        <v>6.291891149465052</v>
       </c>
       <c r="S34">
-        <v>2.402986467373565</v>
+        <v>1.909031238823811</v>
       </c>
       <c r="T34">
-        <v>3.235801284103421</v>
+        <v>3.159094809964395</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>107.142080537257</v>
+        <v>103.5820374959854</v>
       </c>
       <c r="C35">
-        <v>94.14728897908157</v>
+        <v>94.10250304312163</v>
       </c>
       <c r="D35">
-        <v>106.5065910904727</v>
+        <v>104.939757464407</v>
       </c>
       <c r="E35">
-        <v>84.78272346614213</v>
+        <v>83.41168579534019</v>
       </c>
       <c r="F35">
-        <v>94.02070804516103</v>
+        <v>91.74521893866766</v>
       </c>
       <c r="G35">
-        <v>84.79122494263493</v>
+        <v>86.05118190542257</v>
       </c>
       <c r="H35">
-        <v>98.83717276237581</v>
+        <v>98.46097558316873</v>
       </c>
       <c r="I35">
-        <v>93.69808629518027</v>
+        <v>92.95049659488788</v>
       </c>
       <c r="J35">
-        <v>83.0263774644684</v>
+        <v>82.15083525947583</v>
       </c>
       <c r="K35">
-        <v>97.79612113294863</v>
+        <v>97.65932408122897</v>
       </c>
       <c r="L35">
-        <v>107.7030865360764</v>
+        <v>105.899673032175</v>
       </c>
       <c r="M35">
-        <v>89.50390166513242</v>
+        <v>88.78198134061905</v>
       </c>
       <c r="N35">
-        <v>95.05614208874239</v>
+        <v>93.69039940325169</v>
       </c>
       <c r="O35">
-        <v>102.7217948573368</v>
+        <v>102.7107991644655</v>
       </c>
       <c r="P35">
-        <v>101.1412080394092</v>
+        <v>97.43808035684179</v>
       </c>
       <c r="Q35">
-        <v>105.1416103396592</v>
+        <v>102.3478069113702</v>
       </c>
       <c r="R35">
-        <v>110.7518534572293</v>
+        <v>110.4112981467997</v>
       </c>
       <c r="S35">
-        <v>90.72725382671209</v>
+        <v>72.07746032677296</v>
       </c>
       <c r="T35">
-        <v>100.8597145352236</v>
+        <v>98.46877874980522</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>7.711349626408984</v>
+        <v>7.455122227812184</v>
       </c>
       <c r="C36">
-        <v>11.85503928280932</v>
+        <v>11.84939983173346</v>
       </c>
       <c r="D36">
-        <v>7.070103750358212</v>
+        <v>6.966094447437007</v>
       </c>
       <c r="E36">
-        <v>6.407417510672136</v>
+        <v>6.303801934048253</v>
       </c>
       <c r="F36">
-        <v>6.167385220872632</v>
+        <v>6.018122168323581</v>
       </c>
       <c r="G36">
-        <v>5.151918476790085</v>
+        <v>5.228473516075548</v>
       </c>
       <c r="H36">
-        <v>11.8576547789492</v>
+        <v>11.81252179754981</v>
       </c>
       <c r="I36">
-        <v>8.994101759958063</v>
+        <v>8.922340445453264</v>
       </c>
       <c r="J36">
-        <v>6.641929053637829</v>
+        <v>6.571887587460226</v>
       </c>
       <c r="K36">
-        <v>6.476770527479006</v>
+        <v>6.467710831628498</v>
       </c>
       <c r="L36">
-        <v>11.94870477121855</v>
+        <v>11.74863199492603</v>
       </c>
       <c r="M36">
-        <v>8.419159589020621</v>
+        <v>8.351252354703892</v>
       </c>
       <c r="N36">
-        <v>9.187664021956877</v>
+        <v>9.055657981536898</v>
       </c>
       <c r="O36">
-        <v>6.016352524940821</v>
+        <v>6.015708513953071</v>
       </c>
       <c r="P36">
-        <v>12.75301597548686</v>
+        <v>12.28608417379581</v>
       </c>
       <c r="Q36">
-        <v>8.567517263096335</v>
+        <v>8.339862778594542</v>
       </c>
       <c r="R36">
-        <v>13.85719107596562</v>
+        <v>13.81458104406777</v>
       </c>
       <c r="S36">
-        <v>6.278406924486773</v>
+        <v>4.987824572309459</v>
       </c>
       <c r="T36">
-        <v>6.55196887460941</v>
+        <v>6.396650798215488</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>24.87346954897208</v>
+        <v>24.04699108471164</v>
       </c>
       <c r="C37">
-        <v>23.06795344428277</v>
+        <v>23.05698000153274</v>
       </c>
       <c r="D37">
-        <v>25.16017613217925</v>
+        <v>24.7900411987633</v>
       </c>
       <c r="E37">
-        <v>24.5888828366954</v>
+        <v>24.1912512995874</v>
       </c>
       <c r="F37">
-        <v>26.1786825520276</v>
+        <v>25.54510609628687</v>
       </c>
       <c r="G37">
-        <v>28.09175548014023</v>
+        <v>28.50918550238694</v>
       </c>
       <c r="H37">
-        <v>24.78758427697514</v>
+        <v>24.69323698815927</v>
       </c>
       <c r="I37">
-        <v>25.11719725475621</v>
+        <v>24.91679446415158</v>
       </c>
       <c r="J37">
-        <v>19.11667943983396</v>
+        <v>18.91508736536279</v>
       </c>
       <c r="K37">
-        <v>28.01047561535452</v>
+        <v>27.97129460861257</v>
       </c>
       <c r="L37">
-        <v>26.83490115893888</v>
+        <v>26.38556934606017</v>
       </c>
       <c r="M37">
-        <v>31.8738346495573</v>
+        <v>31.61674676148082</v>
       </c>
       <c r="N37">
-        <v>17.86645652002461</v>
+        <v>17.60975577695131</v>
       </c>
       <c r="O37">
-        <v>28.79206753269655</v>
+        <v>28.78898553113926</v>
       </c>
       <c r="P37">
-        <v>23.25022046478793</v>
+        <v>22.39894988281699</v>
       </c>
       <c r="Q37">
-        <v>21.64948561391599</v>
+        <v>21.07421948537319</v>
       </c>
       <c r="R37">
-        <v>27.40337073339943</v>
+        <v>27.31910701107233</v>
       </c>
       <c r="S37">
-        <v>32.21775883135686</v>
+        <v>25.59511211945185</v>
       </c>
       <c r="T37">
-        <v>27.97170443369401</v>
+        <v>27.30861957946999</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.175101664154859</v>
+        <v>4.036374270104417</v>
       </c>
       <c r="C38">
-        <v>4.7344981507276</v>
+        <v>4.732245946407325</v>
       </c>
       <c r="D38">
-        <v>4.628354322726167</v>
+        <v>4.560265943294012</v>
       </c>
       <c r="E38">
-        <v>3.523775529421612</v>
+        <v>3.466791879961278</v>
       </c>
       <c r="F38">
-        <v>3.609330987937217</v>
+        <v>3.521977962039612</v>
       </c>
       <c r="G38">
-        <v>3.216115775317621</v>
+        <v>3.263905714276328</v>
       </c>
       <c r="H38">
-        <v>4.84110322935196</v>
+        <v>4.822676868821484</v>
       </c>
       <c r="I38">
-        <v>3.879823645833654</v>
+        <v>3.848867664647032</v>
       </c>
       <c r="J38">
-        <v>3.626644216219291</v>
+        <v>3.588399983834816</v>
       </c>
       <c r="K38">
-        <v>4.532182453243121</v>
+        <v>4.525842843959269</v>
       </c>
       <c r="L38">
-        <v>4.462023615689213</v>
+        <v>4.387310124162997</v>
       </c>
       <c r="M38">
-        <v>4.926227407628085</v>
+        <v>4.886493456117825</v>
       </c>
       <c r="N38">
-        <v>3.243016294146412</v>
+        <v>3.196421453609724</v>
       </c>
       <c r="O38">
-        <v>4.998611249229811</v>
+        <v>4.998076180755242</v>
       </c>
       <c r="P38">
-        <v>5.232027285701862</v>
+        <v>5.040464761848265</v>
       </c>
       <c r="Q38">
-        <v>3.964794785389602</v>
+        <v>3.859442991479465</v>
       </c>
       <c r="R38">
-        <v>4.995943090504067</v>
+        <v>4.980580864979482</v>
       </c>
       <c r="S38">
-        <v>3.521423457389383</v>
+        <v>2.797563563739456</v>
       </c>
       <c r="T38">
-        <v>5.593494925618775</v>
+        <v>5.460898008754138</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>8.307558408542276</v>
+        <v>8.031520596377479</v>
       </c>
       <c r="C39">
-        <v>12.85503169737749</v>
+        <v>12.84891654916021</v>
       </c>
       <c r="D39">
-        <v>10.22690791886087</v>
+        <v>10.07645842034734</v>
       </c>
       <c r="E39">
-        <v>13.7202970829497</v>
+        <v>13.49842352916099</v>
       </c>
       <c r="F39">
-        <v>9.324367740015971</v>
+        <v>9.098699398876132</v>
       </c>
       <c r="G39">
-        <v>6.752693146364148</v>
+        <v>6.853034929999023</v>
       </c>
       <c r="H39">
-        <v>10.7169014563177</v>
+        <v>10.67611044636642</v>
       </c>
       <c r="I39">
-        <v>7.37066754311329</v>
+        <v>7.311859136694489</v>
       </c>
       <c r="J39">
-        <v>12.34191180512338</v>
+        <v>12.21176202615337</v>
       </c>
       <c r="K39">
-        <v>9.064364906486242</v>
+        <v>9.051685687918537</v>
       </c>
       <c r="L39">
-        <v>7.556413894199998</v>
+        <v>7.429886983076581</v>
       </c>
       <c r="M39">
-        <v>6.311469961538977</v>
+        <v>6.260562924437536</v>
       </c>
       <c r="N39">
-        <v>12.89947726233103</v>
+        <v>12.71414082503658</v>
       </c>
       <c r="O39">
-        <v>9.834550737177945</v>
+        <v>9.833498013171486</v>
       </c>
       <c r="P39">
-        <v>11.02356050274443</v>
+        <v>10.61995001746859</v>
       </c>
       <c r="Q39">
-        <v>7.954809967917323</v>
+        <v>7.743436228367781</v>
       </c>
       <c r="R39">
-        <v>10.64569747797693</v>
+        <v>10.6129625963819</v>
       </c>
       <c r="S39">
-        <v>5.971179460033978</v>
+        <v>4.743750444124267</v>
       </c>
       <c r="T39">
-        <v>4.268719811656434</v>
+        <v>4.167527427733422</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>9.232625129651423</v>
+        <v>8.925849839488414</v>
       </c>
       <c r="C40">
-        <v>8.104088878908358</v>
+        <v>8.100233757752134</v>
       </c>
       <c r="D40">
-        <v>10.07983415965908</v>
+        <v>9.931548284157692</v>
       </c>
       <c r="E40">
-        <v>10.91496122457521</v>
+        <v>10.73845329462871</v>
       </c>
       <c r="F40">
-        <v>7.422770431305818</v>
+        <v>7.243124546823385</v>
       </c>
       <c r="G40">
-        <v>8.660129630032857</v>
+        <v>8.78881500559366</v>
       </c>
       <c r="H40">
-        <v>9.039175669226431</v>
+        <v>9.004770472334613</v>
       </c>
       <c r="I40">
-        <v>8.770073975780996</v>
+        <v>8.700100113620767</v>
       </c>
       <c r="J40">
-        <v>11.85282430208278</v>
+        <v>11.72783212198584</v>
       </c>
       <c r="K40">
-        <v>9.57659026791427</v>
+        <v>9.563194549362233</v>
       </c>
       <c r="L40">
-        <v>9.742535251525362</v>
+        <v>9.579403254106234</v>
       </c>
       <c r="M40">
-        <v>9.221970614582613</v>
+        <v>9.147588069298271</v>
       </c>
       <c r="N40">
-        <v>10.75435317128571</v>
+        <v>10.59983733613689</v>
       </c>
       <c r="O40">
-        <v>10.29003166876664</v>
+        <v>10.28893018852068</v>
       </c>
       <c r="P40">
-        <v>8.656979778706511</v>
+        <v>8.34001795782868</v>
       </c>
       <c r="Q40">
-        <v>9.533310118209013</v>
+        <v>9.279992764545201</v>
       </c>
       <c r="R40">
-        <v>9.238413766498748</v>
+        <v>9.21000619795776</v>
       </c>
       <c r="S40">
-        <v>6.918665734921206</v>
+        <v>5.49647249298936</v>
       </c>
       <c r="T40">
-        <v>7.541743385041044</v>
+        <v>7.362962151851654</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>11.16394793835005</v>
+        <v>10.7929999880046</v>
       </c>
       <c r="C41">
-        <v>11.07822450187617</v>
+        <v>11.07295458217407</v>
       </c>
       <c r="D41">
-        <v>7.80059717313399</v>
+        <v>7.685841477461818</v>
       </c>
       <c r="E41">
-        <v>7.004976856114506</v>
+        <v>6.891698032786023</v>
       </c>
       <c r="F41">
-        <v>7.457445226823118</v>
+        <v>7.276960142965249</v>
       </c>
       <c r="G41">
-        <v>16.41484025395127</v>
+        <v>16.65875691260321</v>
       </c>
       <c r="H41">
-        <v>10.39538606157896</v>
+        <v>10.35581881371224</v>
       </c>
       <c r="I41">
-        <v>5.777922063827021</v>
+        <v>5.73182170900866</v>
       </c>
       <c r="J41">
-        <v>5.013146906166187</v>
+        <v>4.960281517717139</v>
       </c>
       <c r="K41">
-        <v>7.325289743218443</v>
+        <v>7.315043140099059</v>
       </c>
       <c r="L41">
-        <v>6.825091797391392</v>
+        <v>6.710810367688271</v>
       </c>
       <c r="M41">
-        <v>5.883138382369162</v>
+        <v>5.835686180943942</v>
       </c>
       <c r="N41">
-        <v>7.677684180639464</v>
+        <v>7.567373149907469</v>
       </c>
       <c r="O41">
-        <v>11.27607280638174</v>
+        <v>11.27486577691399</v>
       </c>
       <c r="P41">
-        <v>4.700820064761339</v>
+        <v>4.528706865304562</v>
       </c>
       <c r="Q41">
-        <v>6.489059828360755</v>
+        <v>6.316633730488748</v>
       </c>
       <c r="R41">
-        <v>7.065629574601107</v>
+        <v>7.043903187204001</v>
       </c>
       <c r="S41">
-        <v>4.989019219342366</v>
+        <v>3.96348197134326</v>
       </c>
       <c r="T41">
-        <v>7.326869260554175</v>
+        <v>7.153181738327222</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>6.82646754123454</v>
+        <v>6.599642393311562</v>
       </c>
       <c r="C42">
-        <v>6.514437663893964</v>
+        <v>6.511338741012659</v>
       </c>
       <c r="D42">
-        <v>7.810347919600408</v>
+        <v>7.695448779308645</v>
       </c>
       <c r="E42">
-        <v>8.406884531681593</v>
+        <v>8.27093519063901</v>
       </c>
       <c r="F42">
-        <v>5.09483075043976</v>
+        <v>4.971525660389975</v>
       </c>
       <c r="G42">
-        <v>6.298067006968832</v>
+        <v>6.391653264071523</v>
       </c>
       <c r="H42">
-        <v>5.979351237219258</v>
+        <v>5.956592441049134</v>
       </c>
       <c r="I42">
-        <v>4.806623520100423</v>
+        <v>4.768272873049961</v>
       </c>
       <c r="J42">
-        <v>5.666773106217365</v>
+        <v>5.607015000755839</v>
       </c>
       <c r="K42">
-        <v>6.661265072552626</v>
+        <v>6.651947306039069</v>
       </c>
       <c r="L42">
-        <v>5.15673602469572</v>
+        <v>5.070390055586694</v>
       </c>
       <c r="M42">
-        <v>7.359515314826822</v>
+        <v>7.300154956389949</v>
       </c>
       <c r="N42">
-        <v>4.97680887108223</v>
+        <v>4.905303335896294</v>
       </c>
       <c r="O42">
-        <v>8.333799462584416</v>
+        <v>8.332907384136327</v>
       </c>
       <c r="P42">
-        <v>6.072094717295777</v>
+        <v>5.849774433855737</v>
       </c>
       <c r="Q42">
-        <v>5.47282617897184</v>
+        <v>5.327403253720392</v>
       </c>
       <c r="R42">
-        <v>4.790606822467871</v>
+        <v>4.775875993658743</v>
       </c>
       <c r="S42">
-        <v>5.599442291759074</v>
+        <v>4.448427155165282</v>
       </c>
       <c r="T42">
-        <v>6.810832977337683</v>
+        <v>6.649378383012638</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2023.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2023.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>155.3825058349552</v>
+        <v>150.1614266016503</v>
       </c>
       <c r="C2">
-        <v>138.4883778455717</v>
+        <v>138.2962133482903</v>
       </c>
       <c r="D2">
-        <v>140.8194679057958</v>
+        <v>138.7474939373677</v>
       </c>
       <c r="E2">
-        <v>122.3331702728718</v>
+        <v>120.2337309052482</v>
       </c>
       <c r="F2">
-        <v>140.5117281985165</v>
+        <v>137.1110350191303</v>
       </c>
       <c r="G2">
-        <v>145.1139037386579</v>
+        <v>144.4152122533665</v>
       </c>
       <c r="H2">
-        <v>165.5962952839603</v>
+        <v>164.8568340739915</v>
       </c>
       <c r="I2">
-        <v>152.9672451419158</v>
+        <v>151.7464794797839</v>
       </c>
       <c r="J2">
-        <v>135.074948775703</v>
+        <v>133.3901867325438</v>
       </c>
       <c r="K2">
-        <v>137.4967004756051</v>
+        <v>136.9488831753289</v>
       </c>
       <c r="L2">
-        <v>190.2282961158755</v>
+        <v>187.0269322062101</v>
       </c>
       <c r="M2">
-        <v>155.7884206652489</v>
+        <v>154.4858224484137</v>
       </c>
       <c r="N2">
-        <v>117.5931772165876</v>
+        <v>115.7598723704066</v>
       </c>
       <c r="O2">
-        <v>154.7542346851424</v>
+        <v>154.7371179576977</v>
       </c>
       <c r="P2">
-        <v>134.7511821144117</v>
+        <v>129.3358313647455</v>
       </c>
       <c r="Q2">
-        <v>132.4953563651086</v>
+        <v>128.8082845072784</v>
       </c>
       <c r="R2">
-        <v>155.6216941871804</v>
+        <v>155.1434969419946</v>
       </c>
       <c r="S2">
-        <v>183.9768370728686</v>
+        <v>146.1585009708006</v>
       </c>
       <c r="T2">
-        <v>171.5397661134826</v>
+        <v>167.4724622058575</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>15.33576922406126</v>
+        <v>14.82046497026353</v>
       </c>
       <c r="C3">
-        <v>12.23013432319941</v>
+        <v>12.21316396330017</v>
       </c>
       <c r="D3">
-        <v>11.5635727469656</v>
+        <v>11.39342992459842</v>
       </c>
       <c r="E3">
-        <v>13.15010686783293</v>
+        <v>12.92442930233532</v>
       </c>
       <c r="F3">
-        <v>17.69123828563375</v>
+        <v>17.26307136929028</v>
       </c>
       <c r="G3">
-        <v>11.62018279058145</v>
+        <v>11.56423416977988</v>
       </c>
       <c r="H3">
-        <v>12.00797366480108</v>
+        <v>11.95435271440348</v>
       </c>
       <c r="I3">
-        <v>13.11099590343115</v>
+        <v>13.0063626953191</v>
       </c>
       <c r="J3">
-        <v>12.42342638896348</v>
+        <v>12.26847154784883</v>
       </c>
       <c r="K3">
-        <v>13.4066036086831</v>
+        <v>13.3531887313124</v>
       </c>
       <c r="L3">
-        <v>17.33730215199423</v>
+        <v>17.04553160821272</v>
       </c>
       <c r="M3">
-        <v>14.62375377935475</v>
+        <v>14.50147976492491</v>
       </c>
       <c r="N3">
-        <v>11.08251103364513</v>
+        <v>10.90973212191954</v>
       </c>
       <c r="O3">
-        <v>15.19187407538787</v>
+        <v>15.19019376487197</v>
       </c>
       <c r="P3">
-        <v>10.73814779499404</v>
+        <v>10.30660548271752</v>
       </c>
       <c r="Q3">
-        <v>9.564464726438452</v>
+        <v>9.298305445875567</v>
       </c>
       <c r="R3">
-        <v>10.97475099537385</v>
+        <v>10.94102757576967</v>
       </c>
       <c r="S3">
-        <v>20.02461843768046</v>
+        <v>15.90835161604834</v>
       </c>
       <c r="T3">
-        <v>20.69051707362129</v>
+        <v>20.19993332822519</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>15.48338625402548</v>
+        <v>14.96312185233024</v>
       </c>
       <c r="C4">
-        <v>11.48072732183548</v>
+        <v>11.46479682839952</v>
       </c>
       <c r="D4">
-        <v>11.64076615649141</v>
+        <v>11.46948753424193</v>
       </c>
       <c r="E4">
-        <v>14.576342659245</v>
+        <v>14.32618853059346</v>
       </c>
       <c r="F4">
-        <v>13.2055806473502</v>
+        <v>12.88597652168013</v>
       </c>
       <c r="G4">
-        <v>12.57236772334533</v>
+        <v>12.5118345418104</v>
       </c>
       <c r="H4">
-        <v>12.68941928066294</v>
+        <v>12.63275537209547</v>
       </c>
       <c r="I4">
-        <v>13.62349782065814</v>
+        <v>13.51477455560777</v>
       </c>
       <c r="J4">
-        <v>13.46877545024625</v>
+        <v>13.30078218538046</v>
       </c>
       <c r="K4">
-        <v>12.32376853612021</v>
+        <v>12.2746679134483</v>
       </c>
       <c r="L4">
-        <v>14.29085313131952</v>
+        <v>14.05035146891139</v>
       </c>
       <c r="M4">
-        <v>15.89466411290697</v>
+        <v>15.76176359923428</v>
       </c>
       <c r="N4">
-        <v>11.36983819423632</v>
+        <v>11.19257978558397</v>
       </c>
       <c r="O4">
-        <v>19.5322903520472</v>
+        <v>19.53012996599375</v>
       </c>
       <c r="P4">
-        <v>11.25641846260876</v>
+        <v>10.80404800319203</v>
       </c>
       <c r="Q4">
-        <v>11.50198464775513</v>
+        <v>11.18190819324853</v>
       </c>
       <c r="R4">
-        <v>14.01785167062156</v>
+        <v>13.97477735449021</v>
       </c>
       <c r="S4">
-        <v>15.84197051611445</v>
+        <v>12.58549010787604</v>
       </c>
       <c r="T4">
-        <v>13.13185446617971</v>
+        <v>12.82049084365196</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>23.27510515230388</v>
+        <v>22.4930276107513</v>
       </c>
       <c r="C5">
-        <v>17.21756712538004</v>
+        <v>17.19367627488032</v>
       </c>
       <c r="D5">
-        <v>16.21955418467995</v>
+        <v>15.98090469572827</v>
       </c>
       <c r="E5">
-        <v>16.01778352306018</v>
+        <v>15.74289188708462</v>
       </c>
       <c r="F5">
-        <v>15.645425350113</v>
+        <v>15.26677161096351</v>
       </c>
       <c r="G5">
-        <v>17.43065751313979</v>
+        <v>17.34673273630107</v>
       </c>
       <c r="H5">
-        <v>18.24453721781133</v>
+        <v>18.16306723357485</v>
       </c>
       <c r="I5">
-        <v>20.08808038735665</v>
+        <v>19.92776607475803</v>
       </c>
       <c r="J5">
-        <v>14.47261245494379</v>
+        <v>14.29209853766715</v>
       </c>
       <c r="K5">
-        <v>18.48604203317836</v>
+        <v>18.41238954839597</v>
       </c>
       <c r="L5">
-        <v>25.09419766987239</v>
+        <v>24.67188584559256</v>
       </c>
       <c r="M5">
-        <v>16.73641437293894</v>
+        <v>16.59647570852915</v>
       </c>
       <c r="N5">
-        <v>17.78933186112908</v>
+        <v>17.51199206061275</v>
       </c>
       <c r="O5">
-        <v>26.58223422174699</v>
+        <v>26.57929407048735</v>
       </c>
       <c r="P5">
-        <v>14.83418399177439</v>
+        <v>14.23803108135068</v>
       </c>
       <c r="Q5">
-        <v>14.05443719341006</v>
+        <v>13.66333126128466</v>
       </c>
       <c r="R5">
-        <v>19.60316999071905</v>
+        <v>19.54293300425368</v>
       </c>
       <c r="S5">
-        <v>24.51126833850815</v>
+        <v>19.47272436165672</v>
       </c>
       <c r="T5">
-        <v>27.92517657209252</v>
+        <v>27.26305499896613</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>25.94697339465637</v>
+        <v>25.07511717615871</v>
       </c>
       <c r="C6">
-        <v>24.63959383272311</v>
+        <v>24.60540428385452</v>
       </c>
       <c r="D6">
-        <v>25.69565462562668</v>
+        <v>25.31757673428261</v>
       </c>
       <c r="E6">
-        <v>19.44804785720265</v>
+        <v>19.11428721645602</v>
       </c>
       <c r="F6">
-        <v>18.10260745063445</v>
+        <v>17.66448449480898</v>
       </c>
       <c r="G6">
-        <v>25.7296928570762</v>
+        <v>25.60581005291169</v>
       </c>
       <c r="H6">
-        <v>25.46485436823001</v>
+        <v>25.35114245220845</v>
       </c>
       <c r="I6">
-        <v>26.11304678852961</v>
+        <v>25.90464981554689</v>
       </c>
       <c r="J6">
-        <v>19.85483928238599</v>
+        <v>19.60719395733362</v>
       </c>
       <c r="K6">
-        <v>22.38300276161104</v>
+        <v>22.29382392239144</v>
       </c>
       <c r="L6">
-        <v>29.23283570997639</v>
+        <v>28.7408744869095</v>
       </c>
       <c r="M6">
-        <v>29.80591275089607</v>
+        <v>29.5566957125907</v>
       </c>
       <c r="N6">
-        <v>19.92387021467894</v>
+        <v>19.6132524672566</v>
       </c>
       <c r="O6">
-        <v>27.60915185322261</v>
+        <v>27.6060981188404</v>
       </c>
       <c r="P6">
-        <v>28.8444712436121</v>
+        <v>27.68527600300787</v>
       </c>
       <c r="Q6">
-        <v>24.00610919355729</v>
+        <v>23.33806880292159</v>
       </c>
       <c r="R6">
-        <v>25.71428662059961</v>
+        <v>25.63527128094459</v>
       </c>
       <c r="S6">
-        <v>27.47548922913406</v>
+        <v>21.827619079999</v>
       </c>
       <c r="T6">
-        <v>34.64295382622723</v>
+        <v>33.82154999281011</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>8.191925068403631</v>
+        <v>7.916664416468579</v>
       </c>
       <c r="C7">
-        <v>6.978020678321807</v>
+        <v>6.968338076384159</v>
       </c>
       <c r="D7">
-        <v>8.410018827285082</v>
+        <v>8.28627641905654</v>
       </c>
       <c r="E7">
-        <v>6.77157899472671</v>
+        <v>6.655367508579561</v>
       </c>
       <c r="F7">
-        <v>7.621362441995811</v>
+        <v>7.436908691362922</v>
       </c>
       <c r="G7">
-        <v>8.446999669237078</v>
+        <v>8.406329226273982</v>
       </c>
       <c r="H7">
-        <v>8.581538172299593</v>
+        <v>8.5432177824056</v>
       </c>
       <c r="I7">
-        <v>8.931957066402095</v>
+        <v>8.860674966288544</v>
       </c>
       <c r="J7">
-        <v>7.245740785786721</v>
+        <v>7.15536615184379</v>
       </c>
       <c r="K7">
-        <v>6.638689790665981</v>
+        <v>6.612239780550002</v>
       </c>
       <c r="L7">
-        <v>9.044336205585322</v>
+        <v>8.89212850511891</v>
       </c>
       <c r="M7">
-        <v>10.78616794818534</v>
+        <v>10.69598125089555</v>
       </c>
       <c r="N7">
-        <v>6.445201886524599</v>
+        <v>6.344719697567182</v>
       </c>
       <c r="O7">
-        <v>8.378012813086615</v>
+        <v>8.377086155653679</v>
       </c>
       <c r="P7">
-        <v>8.403908454270615</v>
+        <v>8.066174037148251</v>
       </c>
       <c r="Q7">
-        <v>7.589855985801012</v>
+        <v>7.378645984349217</v>
       </c>
       <c r="R7">
-        <v>8.064818192701921</v>
+        <v>8.040036468901667</v>
       </c>
       <c r="S7">
-        <v>8.352393902367583</v>
+        <v>6.635473202554211</v>
       </c>
       <c r="T7">
-        <v>10.42731676545327</v>
+        <v>10.18007924620589</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>200.63</v>
+        <v>227.49</v>
       </c>
       <c r="C8">
-        <v>243.29</v>
+        <v>244.34</v>
       </c>
       <c r="D8">
-        <v>208.9</v>
+        <v>220.54</v>
       </c>
       <c r="E8">
-        <v>273.38</v>
+        <v>285.85</v>
       </c>
       <c r="F8">
-        <v>245.11</v>
+        <v>263.38</v>
       </c>
       <c r="G8">
-        <v>260.61</v>
+        <v>264.17</v>
       </c>
       <c r="H8">
-        <v>191.57</v>
+        <v>195.18</v>
       </c>
       <c r="I8">
-        <v>250.68</v>
+        <v>256.66</v>
       </c>
       <c r="J8">
-        <v>283.24</v>
+        <v>292.18</v>
       </c>
       <c r="K8">
-        <v>242.01</v>
+        <v>245.03</v>
       </c>
       <c r="L8">
-        <v>146.12</v>
+        <v>160.49</v>
       </c>
       <c r="M8">
-        <v>196.3</v>
+        <v>203.02</v>
       </c>
       <c r="N8">
-        <v>280.96</v>
+        <v>292.17</v>
       </c>
       <c r="O8">
-        <v>186.3</v>
+        <v>186.39</v>
       </c>
       <c r="P8">
-        <v>209.71</v>
+        <v>241.47</v>
       </c>
       <c r="Q8">
-        <v>274.47</v>
+        <v>294.66</v>
       </c>
       <c r="R8">
-        <v>160.38</v>
+        <v>162.96</v>
       </c>
       <c r="S8">
-        <v>229.18</v>
+        <v>387.63</v>
       </c>
       <c r="T8">
-        <v>194.03</v>
+        <v>213.14</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>10.26348405556827</v>
+        <v>9.918615994804711</v>
       </c>
       <c r="C9">
-        <v>8.418103724829921</v>
+        <v>8.406422884202639</v>
       </c>
       <c r="D9">
-        <v>10.09364771715317</v>
+        <v>9.94513291570245</v>
       </c>
       <c r="E9">
-        <v>10.52419086381518</v>
+        <v>10.34357835649117</v>
       </c>
       <c r="F9">
-        <v>12.69727966760795</v>
+        <v>12.38997754474608</v>
       </c>
       <c r="G9">
-        <v>11.27058832251355</v>
+        <v>11.21632292207785</v>
       </c>
       <c r="H9">
-        <v>8.757745310714855</v>
+        <v>8.718638077470565</v>
       </c>
       <c r="I9">
-        <v>8.229952194751355</v>
+        <v>8.164272492988937</v>
       </c>
       <c r="J9">
-        <v>8.141646443362642</v>
+        <v>8.040097362493642</v>
       </c>
       <c r="K9">
-        <v>6.628569836716795</v>
+        <v>6.602160146738187</v>
       </c>
       <c r="L9">
-        <v>10.96460149672878</v>
+        <v>10.78007753140813</v>
       </c>
       <c r="M9">
-        <v>9.793631716375984</v>
+        <v>9.711743940919911</v>
       </c>
       <c r="N9">
-        <v>7.013807214852439</v>
+        <v>6.904460337239932</v>
       </c>
       <c r="O9">
-        <v>10.33758187591052</v>
+        <v>10.33643847862794</v>
       </c>
       <c r="P9">
-        <v>12.75625011381831</v>
+        <v>12.24360475121108</v>
       </c>
       <c r="Q9">
-        <v>7.219709568979794</v>
+        <v>7.01879997709841</v>
       </c>
       <c r="R9">
-        <v>5.817288162648844</v>
+        <v>5.799412691054989</v>
       </c>
       <c r="S9">
-        <v>7.183961891889631</v>
+        <v>5.707224441161948</v>
       </c>
       <c r="T9">
-        <v>7.643258719444289</v>
+        <v>7.462032775391062</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>22.8191325486366</v>
+        <v>22.05237635281191</v>
       </c>
       <c r="C10">
-        <v>25.79776828937646</v>
+        <v>25.76197167415551</v>
       </c>
       <c r="D10">
-        <v>23.83651229936308</v>
+        <v>23.48578925149987</v>
       </c>
       <c r="E10">
-        <v>21.93331694149159</v>
+        <v>21.55690497614464</v>
       </c>
       <c r="F10">
-        <v>18.77324951848043</v>
+        <v>18.31889554809715</v>
       </c>
       <c r="G10">
-        <v>22.54577657223852</v>
+        <v>22.43722362373073</v>
       </c>
       <c r="H10">
-        <v>25.13916344888426</v>
+        <v>25.02690588787036</v>
       </c>
       <c r="I10">
-        <v>20.32438366655711</v>
+        <v>20.16218351932227</v>
       </c>
       <c r="J10">
-        <v>21.2511539129803</v>
+        <v>20.98609264284518</v>
       </c>
       <c r="K10">
-        <v>21.73999645683969</v>
+        <v>21.65337949711772</v>
       </c>
       <c r="L10">
-        <v>23.49818961354753</v>
+        <v>23.10273710880836</v>
       </c>
       <c r="M10">
-        <v>17.68918287592789</v>
+        <v>17.54127780074283</v>
       </c>
       <c r="N10">
-        <v>27.76034045775037</v>
+        <v>27.32755032572519</v>
       </c>
       <c r="O10">
-        <v>26.82332211410804</v>
+        <v>26.82035529711127</v>
       </c>
       <c r="P10">
-        <v>21.08334778271701</v>
+        <v>20.23605485786779</v>
       </c>
       <c r="Q10">
-        <v>24.62178359428196</v>
+        <v>23.93661025786782</v>
       </c>
       <c r="R10">
-        <v>28.19980052615906</v>
+        <v>28.11314765300515</v>
       </c>
       <c r="S10">
-        <v>23.23155708893706</v>
+        <v>18.45607095632234</v>
       </c>
       <c r="T10">
-        <v>18.50878334507157</v>
+        <v>18.06992972803332</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>38.93891222073008</v>
+        <v>37.6305078744964</v>
       </c>
       <c r="C11">
-        <v>44.27687635435659</v>
+        <v>44.21543839242657</v>
       </c>
       <c r="D11">
-        <v>43.61996431751863</v>
+        <v>42.97815369350659</v>
       </c>
       <c r="E11">
-        <v>35.25296036661923</v>
+        <v>34.64796130827823</v>
       </c>
       <c r="F11">
-        <v>26.42613450185561</v>
+        <v>25.7865638659366</v>
       </c>
       <c r="G11">
-        <v>38.74365359271782</v>
+        <v>38.55711143392466</v>
       </c>
       <c r="H11">
-        <v>51.77232960215194</v>
+        <v>51.54114309266594</v>
       </c>
       <c r="I11">
-        <v>48.13605207894983</v>
+        <v>47.75189899157444</v>
       </c>
       <c r="J11">
-        <v>40.18970889183034</v>
+        <v>39.68843092222689</v>
       </c>
       <c r="K11">
-        <v>39.5378816214734</v>
+        <v>39.38035394631034</v>
       </c>
       <c r="L11">
-        <v>48.42415705137694</v>
+        <v>47.60922387946955</v>
       </c>
       <c r="M11">
-        <v>41.37417936588277</v>
+        <v>41.02823624613818</v>
       </c>
       <c r="N11">
-        <v>36.93893099042543</v>
+        <v>36.36304450788944</v>
       </c>
       <c r="O11">
-        <v>34.11018280536679</v>
+        <v>34.10641001877162</v>
       </c>
       <c r="P11">
-        <v>41.3864596929719</v>
+        <v>39.72322979021622</v>
       </c>
       <c r="Q11">
-        <v>38.85647244959093</v>
+        <v>37.77517714993795</v>
       </c>
       <c r="R11">
-        <v>55.27583603729159</v>
+        <v>55.10598341708697</v>
       </c>
       <c r="S11">
-        <v>29.23741051477542</v>
+        <v>23.22735927574924</v>
       </c>
       <c r="T11">
-        <v>34.06347045900871</v>
+        <v>33.25580650070797</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>11.5920373252463</v>
+        <v>11.20252793340508</v>
       </c>
       <c r="C12">
-        <v>12.37813633287317</v>
+        <v>12.36096060749685</v>
       </c>
       <c r="D12">
-        <v>12.46307910849262</v>
+        <v>12.27970122854968</v>
       </c>
       <c r="E12">
-        <v>11.22058317987779</v>
+        <v>11.02801942956391</v>
       </c>
       <c r="F12">
-        <v>9.409478601740254</v>
+        <v>9.181748503244059</v>
       </c>
       <c r="G12">
-        <v>10.31687008067919</v>
+        <v>10.26719662352232</v>
       </c>
       <c r="H12">
-        <v>12.02634597307186</v>
+        <v>11.97264298213537</v>
       </c>
       <c r="I12">
-        <v>10.70576609728353</v>
+        <v>10.62032799171881</v>
       </c>
       <c r="J12">
-        <v>9.602116070497777</v>
+        <v>9.482350852474656</v>
       </c>
       <c r="K12">
-        <v>10.8696089994218</v>
+        <v>10.82630207033533</v>
       </c>
       <c r="L12">
-        <v>12.16226128339746</v>
+        <v>11.95758182651543</v>
       </c>
       <c r="M12">
-        <v>13.69584010687855</v>
+        <v>13.58132468381245</v>
       </c>
       <c r="N12">
-        <v>10.19860195277379</v>
+        <v>10.03960338817294</v>
       </c>
       <c r="O12">
-        <v>12.68756316581045</v>
+        <v>12.68615984679247</v>
       </c>
       <c r="P12">
-        <v>13.85343154276243</v>
+        <v>13.29669289517973</v>
       </c>
       <c r="Q12">
-        <v>12.77561470323014</v>
+        <v>12.42009575727586</v>
       </c>
       <c r="R12">
-        <v>13.7858818280702</v>
+        <v>13.74352031319869</v>
       </c>
       <c r="S12">
-        <v>8.933787608064341</v>
+        <v>7.097355436483694</v>
       </c>
       <c r="T12">
-        <v>13.4786985253908</v>
+        <v>13.15911103600507</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>3.441937081999203</v>
+        <v>3.326282966855403</v>
       </c>
       <c r="C13">
-        <v>3.517592737854511</v>
+        <v>3.512711776357047</v>
       </c>
       <c r="D13">
-        <v>3.54845915157043</v>
+        <v>3.49624822434975</v>
       </c>
       <c r="E13">
-        <v>2.980194191010295</v>
+        <v>2.929049133673726</v>
       </c>
       <c r="F13">
-        <v>3.099453881125998</v>
+        <v>3.024440273304764</v>
       </c>
       <c r="G13">
-        <v>2.444094658334344</v>
+        <v>2.432326880864172</v>
       </c>
       <c r="H13">
-        <v>3.393031295645509</v>
+        <v>3.377879899758072</v>
       </c>
       <c r="I13">
-        <v>3.220783006764817</v>
+        <v>3.19507932558661</v>
       </c>
       <c r="J13">
-        <v>2.569218920293541</v>
+        <v>2.537173581341277</v>
       </c>
       <c r="K13">
-        <v>2.888079165498451</v>
+        <v>2.87657241860231</v>
       </c>
       <c r="L13">
-        <v>3.377679529360363</v>
+        <v>3.320836349010773</v>
       </c>
       <c r="M13">
-        <v>3.344631692666428</v>
+        <v>3.316666127188366</v>
       </c>
       <c r="N13">
-        <v>2.436231872170608</v>
+        <v>2.39825045349149</v>
       </c>
       <c r="O13">
-        <v>3.474501978144554</v>
+        <v>3.474117677815152</v>
       </c>
       <c r="P13">
-        <v>3.774239432801158</v>
+        <v>3.622561131942278</v>
       </c>
       <c r="Q13">
-        <v>3.189638461585648</v>
+        <v>3.100877417191325</v>
       </c>
       <c r="R13">
-        <v>3.278507108059074</v>
+        <v>3.26843285025341</v>
       </c>
       <c r="S13">
-        <v>2.75698346709739</v>
+        <v>2.190257084334123</v>
       </c>
       <c r="T13">
-        <v>4.368543223819624</v>
+        <v>4.26496261783281</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>8.054969268381265</v>
+        <v>7.784310531440021</v>
       </c>
       <c r="C14">
-        <v>6.832367906896842</v>
+        <v>6.822887410666793</v>
       </c>
       <c r="D14">
-        <v>7.09529317872979</v>
+        <v>6.9908952358649</v>
       </c>
       <c r="E14">
-        <v>7.588091382773919</v>
+        <v>7.45786719469323</v>
       </c>
       <c r="F14">
-        <v>5.251655393802098</v>
+        <v>5.124553770989817</v>
       </c>
       <c r="G14">
-        <v>6.208368426346148</v>
+        <v>6.178476499761</v>
       </c>
       <c r="H14">
-        <v>7.756454509957049</v>
+        <v>7.721818486082446</v>
       </c>
       <c r="I14">
-        <v>6.190685583988879</v>
+        <v>6.141280390223524</v>
       </c>
       <c r="J14">
-        <v>5.989057618251836</v>
+        <v>5.914357334883383</v>
       </c>
       <c r="K14">
-        <v>7.829730524685557</v>
+        <v>7.798535144555806</v>
       </c>
       <c r="L14">
-        <v>7.426536668425883</v>
+        <v>7.301555017695945</v>
       </c>
       <c r="M14">
-        <v>7.366143269630223</v>
+        <v>7.304552523366799</v>
       </c>
       <c r="N14">
-        <v>5.490217139612287</v>
+        <v>5.404623383861487</v>
       </c>
       <c r="O14">
-        <v>8.552363572614157</v>
+        <v>8.551417630963012</v>
       </c>
       <c r="P14">
-        <v>7.68107853719173</v>
+        <v>7.372393049154164</v>
       </c>
       <c r="Q14">
-        <v>6.285071322096559</v>
+        <v>6.110170780433046</v>
       </c>
       <c r="R14">
-        <v>6.325903521131804</v>
+        <v>6.306465166775644</v>
       </c>
       <c r="S14">
-        <v>6.400168990451005</v>
+        <v>5.08454825339571</v>
       </c>
       <c r="T14">
-        <v>6.811678938457709</v>
+        <v>6.650170216651779</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>2.072379081775551</v>
+        <v>2.002744116569837</v>
       </c>
       <c r="C15">
-        <v>2.165214585967882</v>
+        <v>2.162210165099563</v>
       </c>
       <c r="D15">
-        <v>1.886769441251784</v>
+        <v>1.859008100970946</v>
       </c>
       <c r="E15">
-        <v>1.677879739683602</v>
+        <v>1.649084550514774</v>
       </c>
       <c r="F15">
-        <v>2.268046852245264</v>
+        <v>2.213155124986299</v>
       </c>
       <c r="G15">
-        <v>2.24323117010235</v>
+        <v>2.232430506088008</v>
       </c>
       <c r="H15">
-        <v>2.287352379712786</v>
+        <v>2.277138332620566</v>
       </c>
       <c r="I15">
-        <v>1.651821299086387</v>
+        <v>1.63863882515197</v>
       </c>
       <c r="J15">
-        <v>1.818228078433355</v>
+        <v>1.795549693728301</v>
       </c>
       <c r="K15">
-        <v>2.083932055536214</v>
+        <v>2.075629208786627</v>
       </c>
       <c r="L15">
-        <v>2.002201259081485</v>
+        <v>1.968506088691031</v>
       </c>
       <c r="M15">
-        <v>3.153249497718213</v>
+        <v>3.126884141708923</v>
       </c>
       <c r="N15">
-        <v>1.436635802955976</v>
+        <v>1.414238318322108</v>
       </c>
       <c r="O15">
-        <v>2.658640529254908</v>
+        <v>2.658346467994452</v>
       </c>
       <c r="P15">
-        <v>2.652801966371165</v>
+        <v>2.54619174676577</v>
       </c>
       <c r="Q15">
-        <v>1.936036368543847</v>
+        <v>1.882160478806827</v>
       </c>
       <c r="R15">
-        <v>1.585127257434222</v>
+        <v>1.580256448825351</v>
       </c>
       <c r="S15">
-        <v>1.639352848379349</v>
+        <v>1.302366964741524</v>
       </c>
       <c r="T15">
-        <v>2.942252775454039</v>
+        <v>2.872490314644174</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>3.382890270013513</v>
+        <v>3.26922021402872</v>
       </c>
       <c r="C16">
-        <v>3.133100744469257</v>
+        <v>3.128753298576257</v>
       </c>
       <c r="D16">
-        <v>3.851544854234908</v>
+        <v>3.794874418002706</v>
       </c>
       <c r="E16">
-        <v>3.719160709801625</v>
+        <v>3.655333765798946</v>
       </c>
       <c r="F16">
-        <v>3.816591697506536</v>
+        <v>3.724221775645811</v>
       </c>
       <c r="G16">
-        <v>3.046685123030327</v>
+        <v>3.032016005192666</v>
       </c>
       <c r="H16">
-        <v>3.610158575209337</v>
+        <v>3.594037609316797</v>
       </c>
       <c r="I16">
-        <v>2.776563530605496</v>
+        <v>2.75440497362981</v>
       </c>
       <c r="J16">
-        <v>2.625071505517314</v>
+        <v>2.59232952876174</v>
       </c>
       <c r="K16">
-        <v>2.795442663963595</v>
+        <v>2.784305001401859</v>
       </c>
       <c r="L16">
-        <v>3.049063998374852</v>
+        <v>2.997751109377983</v>
       </c>
       <c r="M16">
-        <v>3.816044978058352</v>
+        <v>3.784137771074961</v>
       </c>
       <c r="N16">
-        <v>2.866466488950582</v>
+        <v>2.821777613031111</v>
       </c>
       <c r="O16">
-        <v>3.483678333909161</v>
+        <v>3.483293018620907</v>
       </c>
       <c r="P16">
-        <v>2.985109679927565</v>
+        <v>2.865144751313387</v>
       </c>
       <c r="Q16">
-        <v>2.890702577860295</v>
+        <v>2.810260301115021</v>
       </c>
       <c r="R16">
-        <v>3.391055439074729</v>
+        <v>3.380635340657812</v>
       </c>
       <c r="S16">
-        <v>2.389278155311368</v>
+        <v>1.898137391307986</v>
       </c>
       <c r="T16">
-        <v>2.565800077042006</v>
+        <v>2.504963520504825</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>20.62701965366785</v>
+        <v>19.9339216541213</v>
       </c>
       <c r="C17">
-        <v>20.037436103344</v>
+        <v>20.0096324428816</v>
       </c>
       <c r="D17">
-        <v>18.59792376028029</v>
+        <v>18.32427967916581</v>
       </c>
       <c r="E17">
-        <v>21.79951230434419</v>
+        <v>21.42539664769398</v>
       </c>
       <c r="F17">
-        <v>19.67164194779231</v>
+        <v>19.19554490267824</v>
       </c>
       <c r="G17">
-        <v>16.55743799750528</v>
+        <v>16.47771758030851</v>
       </c>
       <c r="H17">
-        <v>20.80079338221471</v>
+        <v>20.70790857572584</v>
       </c>
       <c r="I17">
-        <v>18.04881377659417</v>
+        <v>17.90477397199261</v>
       </c>
       <c r="J17">
-        <v>17.74829110185154</v>
+        <v>17.5269203188132</v>
       </c>
       <c r="K17">
-        <v>21.52747742390678</v>
+        <v>21.44170718706962</v>
       </c>
       <c r="L17">
-        <v>21.0435972123401</v>
+        <v>20.68945319685628</v>
       </c>
       <c r="M17">
-        <v>19.98576921530648</v>
+        <v>19.81866162649615</v>
       </c>
       <c r="N17">
-        <v>20.82970689464802</v>
+        <v>20.50496694375654</v>
       </c>
       <c r="O17">
-        <v>21.45348556349183</v>
+        <v>21.45111268196213</v>
       </c>
       <c r="P17">
-        <v>18.5728479029296</v>
+        <v>17.82644639285477</v>
       </c>
       <c r="Q17">
-        <v>18.12159712012497</v>
+        <v>17.61731053534513</v>
       </c>
       <c r="R17">
-        <v>17.45873766846658</v>
+        <v>17.40509013364768</v>
       </c>
       <c r="S17">
-        <v>24.57174618584137</v>
+        <v>19.52077036379918</v>
       </c>
       <c r="T17">
-        <v>24.32053623965732</v>
+        <v>23.74388270721833</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>21.29457666695052</v>
+        <v>20.5790477763563</v>
       </c>
       <c r="C18">
-        <v>20.08363778890353</v>
+        <v>20.0557700196414</v>
       </c>
       <c r="D18">
-        <v>21.70759932086193</v>
+        <v>21.38820043817348</v>
       </c>
       <c r="E18">
-        <v>19.76507361680757</v>
+        <v>19.42587229011468</v>
       </c>
       <c r="F18">
-        <v>21.73085196339929</v>
+        <v>21.20491750225753</v>
       </c>
       <c r="G18">
-        <v>18.79300262225527</v>
+        <v>18.70251845377148</v>
       </c>
       <c r="H18">
-        <v>20.44503868569858</v>
+        <v>20.35374248237192</v>
       </c>
       <c r="I18">
-        <v>20.3903644523079</v>
+        <v>20.22763774085644</v>
       </c>
       <c r="J18">
-        <v>19.19291067101776</v>
+        <v>18.95352144533705</v>
       </c>
       <c r="K18">
-        <v>21.61310780347682</v>
+        <v>21.52699639624651</v>
       </c>
       <c r="L18">
-        <v>20.83875729249502</v>
+        <v>20.48806054085176</v>
       </c>
       <c r="M18">
-        <v>22.3594055292746</v>
+        <v>22.17245118666327</v>
       </c>
       <c r="N18">
-        <v>20.13634108869505</v>
+        <v>19.82241087117687</v>
       </c>
       <c r="O18">
-        <v>20.61510033227088</v>
+        <v>20.61282018107276</v>
       </c>
       <c r="P18">
-        <v>23.51380273880104</v>
+        <v>22.56883522689489</v>
       </c>
       <c r="Q18">
-        <v>16.95033220597526</v>
+        <v>16.47863950238115</v>
       </c>
       <c r="R18">
-        <v>24.72712606840886</v>
+        <v>24.65114409411514</v>
       </c>
       <c r="S18">
-        <v>21.06967563959862</v>
+        <v>16.73858653306999</v>
       </c>
       <c r="T18">
-        <v>18.77187725339997</v>
+        <v>18.32678553247678</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>20.96817901180739</v>
+        <v>20.26361755934214</v>
       </c>
       <c r="C19">
-        <v>21.48926534109606</v>
+        <v>21.45944714309664</v>
       </c>
       <c r="D19">
-        <v>21.71003700747853</v>
+        <v>21.39060225742538</v>
       </c>
       <c r="E19">
-        <v>18.8466872436595</v>
+        <v>18.52324694483971</v>
       </c>
       <c r="F19">
-        <v>25.18966281625003</v>
+        <v>24.58001751739473</v>
       </c>
       <c r="G19">
-        <v>20.5356083808481</v>
+        <v>20.43673394944408</v>
       </c>
       <c r="H19">
-        <v>19.15647179197941</v>
+        <v>19.07092961372149</v>
       </c>
       <c r="I19">
-        <v>16.87957287561523</v>
+        <v>16.74486427875917</v>
       </c>
       <c r="J19">
-        <v>18.37097195063008</v>
+        <v>18.14183459748728</v>
       </c>
       <c r="K19">
-        <v>23.16146075770227</v>
+        <v>23.06918036945406</v>
       </c>
       <c r="L19">
-        <v>19.80932773786932</v>
+        <v>19.47595532067583</v>
       </c>
       <c r="M19">
-        <v>24.29145435446611</v>
+        <v>24.08834551626527</v>
       </c>
       <c r="N19">
-        <v>16.76856431692352</v>
+        <v>16.50713851864704</v>
       </c>
       <c r="O19">
-        <v>19.41216351294688</v>
+        <v>19.41001641362751</v>
       </c>
       <c r="P19">
-        <v>28.63748639039935</v>
+        <v>27.48660941136751</v>
       </c>
       <c r="Q19">
-        <v>18.87450015233647</v>
+        <v>18.3492618326589</v>
       </c>
       <c r="R19">
-        <v>28.87594965981799</v>
+        <v>28.78721910299191</v>
       </c>
       <c r="S19">
-        <v>18.1707708240926</v>
+        <v>14.43558149704157</v>
       </c>
       <c r="T19">
-        <v>13.06248565433749</v>
+        <v>12.75276680518134</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>3.491962853264857</v>
+        <v>3.374627799111343</v>
       </c>
       <c r="C20">
-        <v>4.655407129685012</v>
+        <v>4.648947353170669</v>
       </c>
       <c r="D20">
-        <v>8.676539230700495</v>
+        <v>8.548875323930989</v>
       </c>
       <c r="E20">
-        <v>6.108637837950949</v>
+        <v>6.003803517619486</v>
       </c>
       <c r="F20">
-        <v>3.816591697506536</v>
+        <v>3.724221775645811</v>
       </c>
       <c r="G20">
-        <v>8.256869344498396</v>
+        <v>8.217114337172879</v>
       </c>
       <c r="H20">
-        <v>3.217659262151649</v>
+        <v>3.203290980499103</v>
       </c>
       <c r="I20">
-        <v>3.625874342537048</v>
+        <v>3.596937801982448</v>
       </c>
       <c r="J20">
-        <v>9.759861885521675</v>
+        <v>9.638129136405421</v>
       </c>
       <c r="K20">
-        <v>7.549485646092716</v>
+        <v>7.519406823613264</v>
       </c>
       <c r="L20">
-        <v>7.918152476054075</v>
+        <v>7.784897392106803</v>
       </c>
       <c r="M20">
-        <v>6.242704930453687</v>
+        <v>6.190507621591365</v>
       </c>
       <c r="N20">
-        <v>7.174861649604874</v>
+        <v>7.063003896083412</v>
       </c>
       <c r="O20">
-        <v>4.299539782798806</v>
+        <v>4.299064228441607</v>
       </c>
       <c r="P20">
-        <v>9.055587328057618</v>
+        <v>8.69166338426596</v>
       </c>
       <c r="Q20">
-        <v>5.396423211171068</v>
+        <v>5.246251909317881</v>
       </c>
       <c r="R20">
-        <v>4.227006019824592</v>
+        <v>4.214017196867604</v>
       </c>
       <c r="S20">
-        <v>3.692374172517972</v>
+        <v>2.933368584137451</v>
       </c>
       <c r="T20">
-        <v>3.069992904578121</v>
+        <v>2.9972016537791</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>29.62673791382016</v>
+        <v>28.63123623078825</v>
       </c>
       <c r="C21">
-        <v>25.67639097985565</v>
+        <v>25.6407627860577</v>
       </c>
       <c r="D21">
-        <v>26.03286794092362</v>
+        <v>25.64982839746217</v>
       </c>
       <c r="E21">
-        <v>25.28603540637817</v>
+        <v>24.85208525152758</v>
       </c>
       <c r="F21">
-        <v>25.9406873646134</v>
+        <v>25.31286561819805</v>
       </c>
       <c r="G21">
-        <v>21.80212167305899</v>
+        <v>21.69714925910142</v>
       </c>
       <c r="H21">
-        <v>28.32508872402273</v>
+        <v>28.19860458774164</v>
       </c>
       <c r="I21">
-        <v>27.18638538463823</v>
+        <v>26.96942255887602</v>
       </c>
       <c r="J21">
-        <v>22.539537196453</v>
+        <v>22.25840618671991</v>
       </c>
       <c r="K21">
-        <v>26.67542015205806</v>
+        <v>26.56913937149471</v>
       </c>
       <c r="L21">
-        <v>29.85694372107885</v>
+        <v>29.35447934520413</v>
       </c>
       <c r="M21">
-        <v>27.93268702458475</v>
+        <v>27.69913264259494</v>
       </c>
       <c r="N21">
-        <v>21.87996327901952</v>
+        <v>21.5388495880457</v>
       </c>
       <c r="O21">
-        <v>27.74095769056878</v>
+        <v>27.73788937768669</v>
       </c>
       <c r="P21">
-        <v>31.20458369098712</v>
+        <v>29.95054077253219</v>
       </c>
       <c r="Q21">
-        <v>21.63465008618768</v>
+        <v>21.032602499954</v>
       </c>
       <c r="R21">
-        <v>27.60183382091559</v>
+        <v>27.51701839100925</v>
       </c>
       <c r="S21">
-        <v>17.97562897003072</v>
+        <v>14.28055306346191</v>
       </c>
       <c r="T21">
-        <v>22.76142989544748</v>
+        <v>22.2217436474457</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>77.28243575393779</v>
+        <v>74.68563299132376</v>
       </c>
       <c r="C22">
-        <v>65.8695081783994</v>
+        <v>65.77810858861295</v>
       </c>
       <c r="D22">
-        <v>74.67771693746938</v>
+        <v>73.57893217555288</v>
       </c>
       <c r="E22">
-        <v>76.80006045450742</v>
+        <v>75.48204449861892</v>
       </c>
       <c r="F22">
-        <v>78.53762378315176</v>
+        <v>76.63684037561137</v>
       </c>
       <c r="G22">
-        <v>77.47810733101281</v>
+        <v>77.10506730869926</v>
       </c>
       <c r="H22">
-        <v>73.86670050761421</v>
+        <v>73.53685279187818</v>
       </c>
       <c r="I22">
-        <v>79.28435348239071</v>
+        <v>78.65161922489763</v>
       </c>
       <c r="J22">
-        <v>65.27355777462574</v>
+        <v>64.45941411914112</v>
       </c>
       <c r="K22">
-        <v>73.25367589018052</v>
+        <v>72.96181702503937</v>
       </c>
       <c r="L22">
-        <v>78.39615979126238</v>
+        <v>77.07682590804642</v>
       </c>
       <c r="M22">
-        <v>89.77316232902059</v>
+        <v>89.02253939651965</v>
       </c>
       <c r="N22">
-        <v>63.71101724056345</v>
+        <v>62.71774773780043</v>
       </c>
       <c r="O22">
-        <v>82.58469923898592</v>
+        <v>82.57556488611445</v>
       </c>
       <c r="P22">
-        <v>65.70475434172091</v>
+        <v>63.06422618383831</v>
       </c>
       <c r="Q22">
-        <v>62.01324768070274</v>
+        <v>60.28754719874696</v>
       </c>
       <c r="R22">
-        <v>74.90392130739578</v>
+        <v>74.67375514059049</v>
       </c>
       <c r="S22">
-        <v>53.21244194026227</v>
+        <v>42.27407575174283</v>
       </c>
       <c r="T22">
-        <v>66.64481703573006</v>
+        <v>65.06463110628754</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>10.26020367712462</v>
+        <v>9.915445841869895</v>
       </c>
       <c r="C23">
-        <v>9.952939380705887</v>
+        <v>9.939128824020051</v>
       </c>
       <c r="D23">
-        <v>10.81357783125699</v>
+        <v>10.65447020143038</v>
       </c>
       <c r="E23">
-        <v>12.09791585753746</v>
+        <v>11.89029562860969</v>
       </c>
       <c r="F23">
-        <v>18.00409950882394</v>
+        <v>17.56836066206983</v>
       </c>
       <c r="G23">
-        <v>9.904409940721893</v>
+        <v>9.856722388294932</v>
       </c>
       <c r="H23">
-        <v>8.837080278247791</v>
+        <v>8.7976187790401</v>
       </c>
       <c r="I23">
-        <v>6.582734206298746</v>
+        <v>6.530200241432375</v>
       </c>
       <c r="J23">
-        <v>9.931193464518925</v>
+        <v>9.807323731870895</v>
       </c>
       <c r="K23">
-        <v>8.823042927697962</v>
+        <v>8.787889971007706</v>
       </c>
       <c r="L23">
-        <v>6.350909174430866</v>
+        <v>6.244029326165804</v>
       </c>
       <c r="M23">
-        <v>8.412531634217217</v>
+        <v>8.342191690728431</v>
       </c>
       <c r="N23">
-        <v>18.13412445383852</v>
+        <v>17.85140925701006</v>
       </c>
       <c r="O23">
-        <v>6.635339431971615</v>
+        <v>6.634605524451794</v>
       </c>
       <c r="P23">
-        <v>7.152296919999793</v>
+        <v>6.86486199082292</v>
       </c>
       <c r="Q23">
-        <v>9.924226273849857</v>
+        <v>9.648055573163427</v>
       </c>
       <c r="R23">
-        <v>6.645506415313664</v>
+        <v>6.625085979221732</v>
       </c>
       <c r="S23">
-        <v>20.02945666546711</v>
+        <v>15.91219529621973</v>
       </c>
       <c r="T23">
-        <v>20.87409063666716</v>
+        <v>20.37915425929988</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>2.397136547696848</v>
+        <v>2.316589257116594</v>
       </c>
       <c r="C24">
-        <v>2.285025736656159</v>
+        <v>2.281855067544493</v>
       </c>
       <c r="D24">
-        <v>3.008917847095329</v>
+        <v>2.964645563262451</v>
       </c>
       <c r="E24">
-        <v>1.832971478195363</v>
+        <v>1.801514658491672</v>
       </c>
       <c r="F24">
-        <v>2.425659559142086</v>
+        <v>2.366953257368946</v>
       </c>
       <c r="G24">
-        <v>1.483476525682859</v>
+        <v>1.476333912946102</v>
       </c>
       <c r="H24">
-        <v>2.614713508901326</v>
+        <v>2.603037648570643</v>
       </c>
       <c r="I24">
-        <v>1.842091471949101</v>
+        <v>1.827390533762137</v>
       </c>
       <c r="J24">
-        <v>2.472609043149718</v>
+        <v>2.441768699316693</v>
       </c>
       <c r="K24">
-        <v>3.170659418079566</v>
+        <v>3.158026808886041</v>
       </c>
       <c r="L24">
-        <v>3.309690109156465</v>
+        <v>3.253991127017782</v>
       </c>
       <c r="M24">
-        <v>2.482169073873822</v>
+        <v>2.46141484197581</v>
       </c>
       <c r="N24">
-        <v>1.803355994763159</v>
+        <v>1.775241257472751</v>
       </c>
       <c r="O24">
-        <v>2.450086989150193</v>
+        <v>2.449815995136399</v>
       </c>
       <c r="P24">
-        <v>3.097495986945423</v>
+        <v>2.973014502243116</v>
       </c>
       <c r="Q24">
-        <v>2.065847236166519</v>
+        <v>2.008358978343684</v>
       </c>
       <c r="R24">
-        <v>3.020762838557574</v>
+        <v>3.011480582151727</v>
       </c>
       <c r="S24">
-        <v>0.8071776690741405</v>
+        <v>0.641253975261321</v>
       </c>
       <c r="T24">
-        <v>2.933793164253768</v>
+        <v>2.864231285562391</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>23.79504513562232</v>
+        <v>22.99549685091959</v>
       </c>
       <c r="C25">
-        <v>22.99121166148897</v>
+        <v>22.95930938420367</v>
       </c>
       <c r="D25">
-        <v>25.00416418871658</v>
+        <v>24.63626067316018</v>
       </c>
       <c r="E25">
-        <v>24.00956957813677</v>
+        <v>23.59752568636478</v>
       </c>
       <c r="F25">
-        <v>23.13281699124652</v>
+        <v>22.57295188980118</v>
       </c>
       <c r="G25">
-        <v>21.23173069884295</v>
+        <v>21.12950459179811</v>
       </c>
       <c r="H25">
-        <v>25.33708331525591</v>
+        <v>25.2239419538912</v>
       </c>
       <c r="I25">
-        <v>21.96162781530321</v>
+        <v>21.78636152808878</v>
       </c>
       <c r="J25">
-        <v>22.06252592805538</v>
+        <v>21.78734458172353</v>
       </c>
       <c r="K25">
-        <v>23.62308634938437</v>
+        <v>23.52896674256219</v>
       </c>
       <c r="L25">
-        <v>27.22889113242814</v>
+        <v>26.77065441816736</v>
       </c>
       <c r="M25">
-        <v>23.47870139669901</v>
+        <v>23.28238825325517</v>
       </c>
       <c r="N25">
-        <v>22.65877110904302</v>
+        <v>22.30551562376769</v>
       </c>
       <c r="O25">
-        <v>21.87476371450336</v>
+        <v>21.8723442371354</v>
       </c>
       <c r="P25">
-        <v>21.79243261188723</v>
+        <v>20.91664314251075</v>
       </c>
       <c r="Q25">
-        <v>21.11466483931058</v>
+        <v>20.5270873675235</v>
       </c>
       <c r="R25">
-        <v>26.73924966565056</v>
+        <v>26.65708480042895</v>
       </c>
       <c r="S25">
-        <v>27.36662910393426</v>
+        <v>21.74113627614257</v>
       </c>
       <c r="T25">
-        <v>24.43812483534107</v>
+        <v>23.85868321145512</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>7.083157154450111</v>
+        <v>6.845152724500862</v>
       </c>
       <c r="C26">
-        <v>7.543404016863871</v>
+        <v>7.532936897072001</v>
       </c>
       <c r="D26">
-        <v>7.52432602325216</v>
+        <v>7.413615424199379</v>
       </c>
       <c r="E26">
-        <v>6.12612367121453</v>
+        <v>6.02098926508747</v>
       </c>
       <c r="F26">
-        <v>7.445624273805857</v>
+        <v>7.265423773756271</v>
       </c>
       <c r="G26">
-        <v>6.120203154793937</v>
+        <v>6.090735724572989</v>
       </c>
       <c r="H26">
-        <v>7.055801480903004</v>
+        <v>7.024294184852561</v>
       </c>
       <c r="I26">
-        <v>5.807076364507599</v>
+        <v>5.760732590606252</v>
       </c>
       <c r="J26">
-        <v>7.232155021813372</v>
+        <v>7.141949840309083</v>
       </c>
       <c r="K26">
-        <v>6.861328777548072</v>
+        <v>6.833991724409911</v>
       </c>
       <c r="L26">
-        <v>7.306247694218984</v>
+        <v>7.183290394169883</v>
       </c>
       <c r="M26">
-        <v>6.589844063281834</v>
+        <v>6.534744209971827</v>
       </c>
       <c r="N26">
-        <v>6.910974336325065</v>
+        <v>6.803230647086351</v>
       </c>
       <c r="O26">
-        <v>6.160671574693285</v>
+        <v>6.159990168226867</v>
       </c>
       <c r="P26">
-        <v>8.037642288233998</v>
+        <v>7.714627294909637</v>
       </c>
       <c r="Q26">
-        <v>7.221193121752624</v>
+        <v>7.020242245664545</v>
       </c>
       <c r="R26">
-        <v>7.579399818474096</v>
+        <v>7.556109697310162</v>
       </c>
       <c r="S26">
-        <v>6.816256580103607</v>
+        <v>5.415104748135811</v>
       </c>
       <c r="T26">
-        <v>7.200821053670148</v>
+        <v>7.030085554413804</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>12.65816031943238</v>
+        <v>12.23282763722019</v>
       </c>
       <c r="C27">
-        <v>12.56685847219261</v>
+        <v>12.54942087866827</v>
       </c>
       <c r="D27">
-        <v>13.08550175793227</v>
+        <v>12.8929657442016</v>
       </c>
       <c r="E27">
-        <v>16.7620718171926</v>
+        <v>16.4744069640914</v>
       </c>
       <c r="F27">
-        <v>18.92534578063587</v>
+        <v>18.4673107458464</v>
       </c>
       <c r="G27">
-        <v>13.30145618635536</v>
+        <v>13.23741260445213</v>
       </c>
       <c r="H27">
-        <v>11.42507042966434</v>
+        <v>11.3740524018189</v>
       </c>
       <c r="I27">
-        <v>11.21443192231571</v>
+        <v>11.12493437401131</v>
       </c>
       <c r="J27">
-        <v>14.27939270065614</v>
+        <v>14.10128877361799</v>
       </c>
       <c r="K27">
-        <v>13.41983739461666</v>
+        <v>13.36636979091246</v>
       </c>
       <c r="L27">
-        <v>11.13021675107161</v>
+        <v>10.94290563626285</v>
       </c>
       <c r="M27">
-        <v>14.64860860986751</v>
+        <v>14.52612677602614</v>
       </c>
       <c r="N27">
-        <v>12.14637765193937</v>
+        <v>11.95701281343492</v>
       </c>
       <c r="O27">
-        <v>13.13136509915328</v>
+        <v>13.12991269303441</v>
       </c>
       <c r="P27">
-        <v>13.20902948022119</v>
+        <v>12.67818792042438</v>
       </c>
       <c r="Q27">
-        <v>12.76745516297957</v>
+        <v>12.41216328016211</v>
       </c>
       <c r="R27">
-        <v>11.04004621031423</v>
+        <v>11.00612215035543</v>
       </c>
       <c r="S27">
-        <v>14.41630606164584</v>
+        <v>11.45288568403786</v>
       </c>
       <c r="T27">
-        <v>14.35342232349875</v>
+        <v>14.01309464306144</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>20.73937261536284</v>
+        <v>20.04249939213874</v>
       </c>
       <c r="C28">
-        <v>24.19637088311811</v>
+        <v>24.16279634409092</v>
       </c>
       <c r="D28">
-        <v>25.24630772596594</v>
+        <v>24.87484138551563</v>
       </c>
       <c r="E28">
-        <v>22.17279683184063</v>
+        <v>21.79227499581485</v>
       </c>
       <c r="F28">
-        <v>24.37795737573141</v>
+        <v>23.7879571356241</v>
       </c>
       <c r="G28">
-        <v>21.31912931585993</v>
+        <v>21.21648240372362</v>
       </c>
       <c r="H28">
-        <v>22.10439216451907</v>
+        <v>22.00568620888418</v>
       </c>
       <c r="I28">
-        <v>18.82600605526324</v>
+        <v>18.6757638140172</v>
       </c>
       <c r="J28">
-        <v>27.38588111161306</v>
+        <v>27.04430265140626</v>
       </c>
       <c r="K28">
-        <v>25.02742457433294</v>
+        <v>24.92770977306315</v>
       </c>
       <c r="L28">
-        <v>20.61822750644904</v>
+        <v>20.27124206438731</v>
       </c>
       <c r="M28">
-        <v>21.57150740202026</v>
+        <v>21.39114093475439</v>
       </c>
       <c r="N28">
-        <v>27.57962679622065</v>
+        <v>27.14965403199941</v>
       </c>
       <c r="O28">
-        <v>21.45431977765225</v>
+        <v>21.45194680385357</v>
       </c>
       <c r="P28">
-        <v>30.17208502867198</v>
+        <v>28.95953593845115</v>
       </c>
       <c r="Q28">
-        <v>25.06462409697187</v>
+        <v>24.36712742485927</v>
       </c>
       <c r="R28">
-        <v>28.48331922261071</v>
+        <v>28.395795147917</v>
       </c>
       <c r="S28">
-        <v>23.16059641473274</v>
+        <v>18.39969698047519</v>
       </c>
       <c r="T28">
-        <v>23.027907648256</v>
+        <v>22.48190306352187</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>5.764445020103025</v>
+        <v>5.570751244704939</v>
       </c>
       <c r="C29">
-        <v>5.356263207240619</v>
+        <v>5.348830932832191</v>
       </c>
       <c r="D29">
-        <v>6.099091914744138</v>
+        <v>6.009351768254917</v>
       </c>
       <c r="E29">
-        <v>4.609417699003933</v>
+        <v>4.530312473842806</v>
       </c>
       <c r="F29">
-        <v>5.946727431217082</v>
+        <v>5.802803534797292</v>
       </c>
       <c r="G29">
-        <v>4.86058975340017</v>
+        <v>4.837187084278185</v>
       </c>
       <c r="H29">
-        <v>5.664516681851708</v>
+        <v>5.639222092064733</v>
       </c>
       <c r="I29">
-        <v>4.469814625395861</v>
+        <v>4.434142961140444</v>
       </c>
       <c r="J29">
-        <v>5.007108788844699</v>
+        <v>4.944656151180387</v>
       </c>
       <c r="K29">
-        <v>5.442199850673765</v>
+        <v>5.420516921414758</v>
       </c>
       <c r="L29">
-        <v>5.097463196825653</v>
+        <v>5.011677669423226</v>
       </c>
       <c r="M29">
-        <v>5.825972272189825</v>
+        <v>5.777259402127469</v>
       </c>
       <c r="N29">
-        <v>5.812326009117152</v>
+        <v>5.721710501548444</v>
       </c>
       <c r="O29">
-        <v>5.907070469925951</v>
+        <v>5.906417113231475</v>
       </c>
       <c r="P29">
-        <v>5.868344002414482</v>
+        <v>5.632508289553781</v>
       </c>
       <c r="Q29">
-        <v>5.101937985764207</v>
+        <v>4.959961598939985</v>
       </c>
       <c r="R29">
-        <v>5.725359373193309</v>
+        <v>5.707766382098722</v>
       </c>
       <c r="S29">
-        <v>5.615569717714602</v>
+        <v>4.461231452267573</v>
       </c>
       <c r="T29">
-        <v>5.873508056347725</v>
+        <v>5.73424389148203</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>8.00494349711561</v>
+        <v>7.735965699184081</v>
       </c>
       <c r="C30">
-        <v>11.15496628466997</v>
+        <v>11.13948781260154</v>
       </c>
       <c r="D30">
-        <v>12.69222165045343</v>
+        <v>12.50547223822832</v>
       </c>
       <c r="E30">
-        <v>8.253313300410145</v>
+        <v>8.111672804888258</v>
       </c>
       <c r="F30">
-        <v>9.380320250964342</v>
+        <v>9.153295848753269</v>
       </c>
       <c r="G30">
-        <v>10.35213618930008</v>
+        <v>10.30229293359753</v>
       </c>
       <c r="H30">
-        <v>10.76867796144446</v>
+        <v>10.72059101830676</v>
       </c>
       <c r="I30">
-        <v>8.821477611191488</v>
+        <v>8.75107719999877</v>
       </c>
       <c r="J30">
-        <v>14.07862529971663</v>
+        <v>13.90302550316065</v>
       </c>
       <c r="K30">
-        <v>10.54888430503221</v>
+        <v>10.50685521414553</v>
       </c>
       <c r="L30">
-        <v>8.454222904584817</v>
+        <v>8.31194625782077</v>
       </c>
       <c r="M30">
-        <v>8.868203526951064</v>
+        <v>8.794053560917581</v>
       </c>
       <c r="N30">
-        <v>14.08583598592994</v>
+        <v>13.86623454316976</v>
       </c>
       <c r="O30">
-        <v>12.80351893410867</v>
+        <v>12.80210278970155</v>
       </c>
       <c r="P30">
-        <v>17.14578436417766</v>
+        <v>16.45673336845928</v>
       </c>
       <c r="Q30">
-        <v>13.22735652255704</v>
+        <v>12.85926653566412</v>
       </c>
       <c r="R30">
-        <v>15.51448672886026</v>
+        <v>15.46681352460065</v>
       </c>
       <c r="S30">
-        <v>8.520119132305066</v>
+        <v>6.768720781829289</v>
       </c>
       <c r="T30">
-        <v>13.25451882858363</v>
+        <v>12.94024676533781</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>1.841932496109175</v>
+        <v>1.780040872899032</v>
       </c>
       <c r="C31">
-        <v>2.216114748024993</v>
+        <v>2.213039698817997</v>
       </c>
       <c r="D31">
-        <v>1.89977043654034</v>
+        <v>1.871817803647748</v>
       </c>
       <c r="E31">
-        <v>3.224995856700427</v>
+        <v>3.169649598225496</v>
       </c>
       <c r="F31">
-        <v>2.901649933970487</v>
+        <v>2.831423617164541</v>
       </c>
       <c r="G31">
-        <v>1.74873899487473</v>
+        <v>1.74031920177264</v>
       </c>
       <c r="H31">
-        <v>2.175448320245275</v>
+        <v>2.165733974617223</v>
       </c>
       <c r="I31">
-        <v>1.517558072267939</v>
+        <v>1.505447095285925</v>
       </c>
       <c r="J31">
-        <v>3.57230116032589</v>
+        <v>3.527744582987152</v>
       </c>
       <c r="K31">
-        <v>2.01153546189973</v>
+        <v>2.003521059209803</v>
       </c>
       <c r="L31">
-        <v>1.514072088386826</v>
+        <v>1.488591674382377</v>
       </c>
       <c r="M31">
-        <v>2.256818610558175</v>
+        <v>2.237948607991358</v>
       </c>
       <c r="N31">
-        <v>4.165487704465512</v>
+        <v>4.100546787177101</v>
       </c>
       <c r="O31">
-        <v>1.288860877847139</v>
+        <v>1.288718322262764</v>
       </c>
       <c r="P31">
-        <v>3.2802248026723</v>
+        <v>3.148399852675626</v>
       </c>
       <c r="Q31">
-        <v>2.964138440115407</v>
+        <v>2.881652595138729</v>
       </c>
       <c r="R31">
-        <v>1.613479127079387</v>
+        <v>1.608521198316536</v>
       </c>
       <c r="S31">
-        <v>1.227297115215627</v>
+        <v>0.9750135368109198</v>
       </c>
       <c r="T31">
-        <v>1.652162067412806</v>
+        <v>1.612988379672246</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.834551644610964</v>
+        <v>1.772908028795696</v>
       </c>
       <c r="C32">
-        <v>2.206717795029834</v>
+        <v>2.203655784900747</v>
       </c>
       <c r="D32">
-        <v>1.892457376690527</v>
+        <v>1.864612345892047</v>
       </c>
       <c r="E32">
-        <v>3.21207154515778</v>
+        <v>3.156947089227421</v>
       </c>
       <c r="F32">
-        <v>2.889040917418741</v>
+        <v>2.819119766573929</v>
       </c>
       <c r="G32">
-        <v>1.741072449522364</v>
+        <v>1.732689569147596</v>
       </c>
       <c r="H32">
-        <v>2.166262166109882</v>
+        <v>2.156588840751277</v>
       </c>
       <c r="I32">
-        <v>1.511420324756239</v>
+        <v>1.499358330492049</v>
       </c>
       <c r="J32">
-        <v>3.557205867022168</v>
+        <v>3.512837570170811</v>
       </c>
       <c r="K32">
-        <v>2.002972423942726</v>
+        <v>1.994992138292115</v>
       </c>
       <c r="L32">
-        <v>1.507970473753143</v>
+        <v>1.482592744203519</v>
       </c>
       <c r="M32">
-        <v>2.247705172703498</v>
+        <v>2.228911370587574</v>
       </c>
       <c r="N32">
-        <v>4.148852974115496</v>
+        <v>4.084171396122845</v>
       </c>
       <c r="O32">
-        <v>1.283021378724207</v>
+        <v>1.282879469022738</v>
       </c>
       <c r="P32">
-        <v>3.266479714763641</v>
+        <v>3.135207149324508</v>
       </c>
       <c r="Q32">
-        <v>2.951528241546347</v>
+        <v>2.869393312326577</v>
       </c>
       <c r="R32">
-        <v>1.606605946559347</v>
+        <v>1.601669137833825</v>
       </c>
       <c r="S32">
-        <v>1.221652516131192</v>
+        <v>0.9705292432776238</v>
       </c>
       <c r="T32">
-        <v>1.645394378452589</v>
+        <v>1.60638115640682</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>3.31646260652961</v>
+        <v>3.205024617098701</v>
       </c>
       <c r="C33">
-        <v>4.286576724625021</v>
+        <v>4.280628731918627</v>
       </c>
       <c r="D33">
-        <v>4.736425096062294</v>
+        <v>4.666734806442568</v>
       </c>
       <c r="E33">
-        <v>4.205723026701264</v>
+        <v>4.13354586925588</v>
       </c>
       <c r="F33">
-        <v>4.68424964897354</v>
+        <v>4.570880494412285</v>
       </c>
       <c r="G33">
-        <v>3.370213336900181</v>
+        <v>3.353986501969543</v>
       </c>
       <c r="H33">
-        <v>5.767234587183826</v>
+        <v>5.741481316202129</v>
       </c>
       <c r="I33">
-        <v>3.332029680414388</v>
+        <v>3.305438187475618</v>
       </c>
       <c r="J33">
-        <v>7.023839974222002</v>
+        <v>6.936233063443573</v>
       </c>
       <c r="K33">
-        <v>3.183893204013117</v>
+        <v>3.171207868486106</v>
       </c>
       <c r="L33">
-        <v>2.955796460402837</v>
+        <v>2.906053176644008</v>
       </c>
       <c r="M33">
-        <v>4.600629127910992</v>
+        <v>4.562161754837008</v>
       </c>
       <c r="N33">
-        <v>5.585488777071472</v>
+        <v>5.498409714444953</v>
       </c>
       <c r="O33">
-        <v>2.975641910214076</v>
+        <v>2.975312786738692</v>
       </c>
       <c r="P33">
-        <v>6.323548972565949</v>
+        <v>6.069419582887865</v>
       </c>
       <c r="Q33">
-        <v>7.942199769348264</v>
+        <v>7.721184768806399</v>
       </c>
       <c r="R33">
-        <v>7.141234560321546</v>
+        <v>7.119290841537301</v>
       </c>
       <c r="S33">
-        <v>2.365087016378077</v>
+        <v>1.878918990451004</v>
       </c>
       <c r="T33">
-        <v>3.184197655781771</v>
+        <v>3.108698546383172</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>4.769670257066324</v>
+        <v>4.609402367222069</v>
       </c>
       <c r="C34">
-        <v>4.231761165486594</v>
+        <v>4.225889234068005</v>
       </c>
       <c r="D34">
-        <v>7.667336971426283</v>
+        <v>7.554522153644205</v>
       </c>
       <c r="E34">
-        <v>4.963695885996485</v>
+        <v>4.878510661672387</v>
       </c>
       <c r="F34">
-        <v>6.09409531216561</v>
+        <v>5.946604788575068</v>
       </c>
       <c r="G34">
-        <v>3.423879154366745</v>
+        <v>3.407393930344854</v>
       </c>
       <c r="H34">
-        <v>4.920438196884898</v>
+        <v>4.898466248923103</v>
       </c>
       <c r="I34">
-        <v>3.533040911422578</v>
+        <v>3.504845234475069</v>
       </c>
       <c r="J34">
-        <v>5.259200187016861</v>
+        <v>5.193603265213285</v>
       </c>
       <c r="K34">
-        <v>5.543399390165625</v>
+        <v>5.521313259532899</v>
       </c>
       <c r="L34">
-        <v>4.181349342539784</v>
+        <v>4.110981152568948</v>
       </c>
       <c r="M34">
-        <v>4.764671009295177</v>
+        <v>4.724832028105102</v>
       </c>
       <c r="N34">
-        <v>5.50155900121457</v>
+        <v>5.415788423216661</v>
       </c>
       <c r="O34">
-        <v>5.19048050612615</v>
+        <v>5.189906408491208</v>
       </c>
       <c r="P34">
-        <v>6.424615795423735</v>
+        <v>6.166424754587262</v>
       </c>
       <c r="Q34">
-        <v>6.433426599379611</v>
+        <v>6.254397637046595</v>
       </c>
       <c r="R34">
-        <v>6.311298012526719</v>
+        <v>6.291904538249882</v>
       </c>
       <c r="S34">
-        <v>2.402986467373565</v>
+        <v>1.909027818460277</v>
       </c>
       <c r="T34">
-        <v>3.235801284103421</v>
+        <v>3.159078623782049</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>107.142080537257</v>
+        <v>103.5419500804839</v>
       </c>
       <c r="C35">
-        <v>94.14728897908157</v>
+        <v>94.01665154409588</v>
       </c>
       <c r="D35">
-        <v>106.5065910904727</v>
+        <v>104.939486147617</v>
       </c>
       <c r="E35">
-        <v>84.78272346614213</v>
+        <v>83.32771182095925</v>
       </c>
       <c r="F35">
-        <v>94.02070804516103</v>
+        <v>91.74519991022075</v>
       </c>
       <c r="G35">
-        <v>84.79122494263493</v>
+        <v>84.38297386972917</v>
       </c>
       <c r="H35">
-        <v>98.83717276237581</v>
+        <v>98.39582076693752</v>
       </c>
       <c r="I35">
-        <v>93.69808629518027</v>
+        <v>92.95032224771697</v>
       </c>
       <c r="J35">
-        <v>83.0263774644684</v>
+        <v>81.99080654179922</v>
       </c>
       <c r="K35">
-        <v>97.79612113294863</v>
+        <v>97.40647973158251</v>
       </c>
       <c r="L35">
-        <v>107.7030865360764</v>
+        <v>105.8905445471278</v>
       </c>
       <c r="M35">
-        <v>89.50390166513242</v>
+        <v>88.7555301095897</v>
       </c>
       <c r="N35">
-        <v>95.05614208874239</v>
+        <v>93.57419483571779</v>
       </c>
       <c r="O35">
-        <v>102.7217948573368</v>
+        <v>102.7104332233965</v>
       </c>
       <c r="P35">
-        <v>101.1412080394092</v>
+        <v>97.07656750576766</v>
       </c>
       <c r="Q35">
-        <v>105.1416103396592</v>
+        <v>102.2157366848721</v>
       </c>
       <c r="R35">
-        <v>110.7518534572293</v>
+        <v>110.4115330957329</v>
       </c>
       <c r="S35">
-        <v>90.72725382671209</v>
+        <v>72.07733118738965</v>
       </c>
       <c r="T35">
-        <v>100.8597145352236</v>
+        <v>98.46827422755942</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>7.711349626408984</v>
+        <v>7.452237011518074</v>
       </c>
       <c r="C36">
-        <v>11.85503928280932</v>
+        <v>11.83858939943663</v>
       </c>
       <c r="D36">
-        <v>7.070103750358212</v>
+        <v>6.966076436928595</v>
       </c>
       <c r="E36">
-        <v>6.407417510672136</v>
+        <v>6.297455637398512</v>
       </c>
       <c r="F36">
-        <v>6.167385220872632</v>
+        <v>6.018120920132999</v>
       </c>
       <c r="G36">
-        <v>5.151918476790085</v>
+        <v>5.127113124029873</v>
       </c>
       <c r="H36">
-        <v>11.8576547789492</v>
+        <v>11.80470506932436</v>
       </c>
       <c r="I36">
-        <v>8.994101759958063</v>
+        <v>8.922323709826543</v>
       </c>
       <c r="J36">
-        <v>6.641929053637829</v>
+        <v>6.559085639190141</v>
       </c>
       <c r="K36">
-        <v>6.476770527479006</v>
+        <v>6.450965639560977</v>
       </c>
       <c r="L36">
-        <v>11.94870477121855</v>
+        <v>11.7476192702554</v>
       </c>
       <c r="M36">
-        <v>8.419159589020621</v>
+        <v>8.348764227022091</v>
       </c>
       <c r="N36">
-        <v>9.187664021956877</v>
+        <v>9.044426213648386</v>
       </c>
       <c r="O36">
-        <v>6.016352524940821</v>
+        <v>6.015687081009094</v>
       </c>
       <c r="P36">
-        <v>12.75301597548686</v>
+        <v>12.2405005857167</v>
       </c>
       <c r="Q36">
-        <v>8.567517263096335</v>
+        <v>8.329100969432512</v>
       </c>
       <c r="R36">
-        <v>13.85719107596562</v>
+        <v>13.81461044070683</v>
       </c>
       <c r="S36">
-        <v>6.278406924486773</v>
+        <v>4.987815635748897</v>
       </c>
       <c r="T36">
-        <v>6.55196887460941</v>
+        <v>6.396618023841039</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>24.87346954897208</v>
+        <v>24.03768462824026</v>
       </c>
       <c r="C37">
-        <v>23.06795344428277</v>
+        <v>23.03594468119454</v>
       </c>
       <c r="D37">
-        <v>25.16017613217925</v>
+        <v>24.78997710528181</v>
       </c>
       <c r="E37">
-        <v>24.5888828366954</v>
+        <v>24.16689697204319</v>
       </c>
       <c r="F37">
-        <v>26.1786825520276</v>
+        <v>25.54510079809585</v>
       </c>
       <c r="G37">
-        <v>28.09175548014023</v>
+        <v>27.95649986468789</v>
       </c>
       <c r="H37">
-        <v>24.78758427697514</v>
+        <v>24.67689667354642</v>
       </c>
       <c r="I37">
-        <v>25.11719725475621</v>
+        <v>24.91674772774045</v>
       </c>
       <c r="J37">
-        <v>19.11667943983396</v>
+        <v>18.87824103061453</v>
       </c>
       <c r="K37">
-        <v>28.01047561535452</v>
+        <v>27.8988756782071</v>
       </c>
       <c r="L37">
-        <v>26.83490115893888</v>
+        <v>26.38329492661823</v>
       </c>
       <c r="M37">
-        <v>31.8738346495573</v>
+        <v>31.60732703621274</v>
       </c>
       <c r="N37">
-        <v>17.86645652002461</v>
+        <v>17.58791432822794</v>
       </c>
       <c r="O37">
-        <v>28.79206753269655</v>
+        <v>28.78888296089128</v>
       </c>
       <c r="P37">
-        <v>23.25022046478793</v>
+        <v>22.31584573910285</v>
       </c>
       <c r="Q37">
-        <v>21.64948561391599</v>
+        <v>21.04702518561535</v>
       </c>
       <c r="R37">
-        <v>27.40337073339943</v>
+        <v>27.31916514457095</v>
       </c>
       <c r="S37">
-        <v>32.21775883135686</v>
+        <v>25.59506626132949</v>
       </c>
       <c r="T37">
-        <v>27.97170443369401</v>
+        <v>27.30847965891593</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.175101664154859</v>
+        <v>4.034812147786718</v>
       </c>
       <c r="C38">
-        <v>4.7344981507276</v>
+        <v>4.727928628640852</v>
       </c>
       <c r="D38">
-        <v>4.628354322726167</v>
+        <v>4.560254152941647</v>
       </c>
       <c r="E38">
-        <v>3.523775529421612</v>
+        <v>3.46330171800452</v>
       </c>
       <c r="F38">
-        <v>3.609330987937217</v>
+        <v>3.521977231562629</v>
       </c>
       <c r="G38">
-        <v>3.216115775317621</v>
+        <v>3.200630886206149</v>
       </c>
       <c r="H38">
-        <v>4.84110322935196</v>
+        <v>4.819485547353567</v>
       </c>
       <c r="I38">
-        <v>3.879823645833654</v>
+        <v>3.848860445329082</v>
       </c>
       <c r="J38">
-        <v>3.626644216219291</v>
+        <v>3.58140982912598</v>
       </c>
       <c r="K38">
-        <v>4.532182453243121</v>
+        <v>4.514125234798558</v>
       </c>
       <c r="L38">
-        <v>4.462023615689213</v>
+        <v>4.386931940796424</v>
       </c>
       <c r="M38">
-        <v>4.926227407628085</v>
+        <v>4.885037600263073</v>
       </c>
       <c r="N38">
-        <v>3.243016294146412</v>
+        <v>3.192456919622905</v>
       </c>
       <c r="O38">
-        <v>4.998611249229811</v>
+        <v>4.9980583734618</v>
       </c>
       <c r="P38">
-        <v>5.232027285701862</v>
+        <v>5.021763728534379</v>
       </c>
       <c r="Q38">
-        <v>3.964794785389602</v>
+        <v>3.854462742997123</v>
       </c>
       <c r="R38">
-        <v>4.995943090504067</v>
+        <v>4.980591463370959</v>
       </c>
       <c r="S38">
-        <v>3.521423457389383</v>
+        <v>2.797558551414774</v>
       </c>
       <c r="T38">
-        <v>5.593494925618775</v>
+        <v>5.460870028875008</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>8.307558408542276</v>
+        <v>8.028412307420833</v>
       </c>
       <c r="C39">
-        <v>12.85503169737749</v>
+        <v>12.83719423879726</v>
       </c>
       <c r="D39">
-        <v>10.22690791886087</v>
+        <v>10.07643236813967</v>
       </c>
       <c r="E39">
-        <v>13.7202970829497</v>
+        <v>13.48483411107391</v>
       </c>
       <c r="F39">
-        <v>9.324367740015971</v>
+        <v>9.098697511757429</v>
       </c>
       <c r="G39">
-        <v>6.752693146364148</v>
+        <v>6.720180416139156</v>
       </c>
       <c r="H39">
-        <v>10.7169014563177</v>
+        <v>10.66904571833506</v>
       </c>
       <c r="I39">
-        <v>7.37066754311329</v>
+        <v>7.311845421846249</v>
       </c>
       <c r="J39">
-        <v>12.34191180512338</v>
+        <v>12.18797367864059</v>
       </c>
       <c r="K39">
-        <v>9.064364906486242</v>
+        <v>9.028250469597117</v>
       </c>
       <c r="L39">
-        <v>7.556413894199998</v>
+        <v>7.429246531503068</v>
       </c>
       <c r="M39">
-        <v>6.311469961538977</v>
+        <v>6.258697685638091</v>
       </c>
       <c r="N39">
-        <v>12.89947726233103</v>
+        <v>12.6983714266185</v>
       </c>
       <c r="O39">
-        <v>9.834550737177945</v>
+        <v>9.833462978094317</v>
       </c>
       <c r="P39">
-        <v>11.02356050274443</v>
+        <v>10.58054808759662</v>
       </c>
       <c r="Q39">
-        <v>7.954809967917323</v>
+        <v>7.733444051618551</v>
       </c>
       <c r="R39">
-        <v>10.64569747797693</v>
+        <v>10.61298518015985</v>
       </c>
       <c r="S39">
-        <v>5.971179460033978</v>
+        <v>4.743741944865218</v>
       </c>
       <c r="T39">
-        <v>4.268719811656434</v>
+        <v>4.167506074667769</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>9.232625129651423</v>
+        <v>8.922395435038867</v>
       </c>
       <c r="C40">
-        <v>8.104088878908358</v>
+        <v>8.09284376080122</v>
       </c>
       <c r="D40">
-        <v>10.07983415965908</v>
+        <v>9.931522606608347</v>
       </c>
       <c r="E40">
-        <v>10.91496122457521</v>
+        <v>10.72764245208002</v>
       </c>
       <c r="F40">
-        <v>7.422770431305818</v>
+        <v>7.243123044560787</v>
       </c>
       <c r="G40">
-        <v>8.660129630032857</v>
+        <v>8.618433013250216</v>
       </c>
       <c r="H40">
-        <v>9.039175669226431</v>
+        <v>8.998811724090913</v>
       </c>
       <c r="I40">
-        <v>8.770073975780996</v>
+        <v>8.700083794850055</v>
       </c>
       <c r="J40">
-        <v>11.85282430208278</v>
+        <v>11.70498646339114</v>
       </c>
       <c r="K40">
-        <v>9.57659026791427</v>
+        <v>9.538435011764319</v>
       </c>
       <c r="L40">
-        <v>9.742535251525362</v>
+        <v>9.578577515585396</v>
       </c>
       <c r="M40">
-        <v>9.221970614582613</v>
+        <v>9.144862685591704</v>
       </c>
       <c r="N40">
-        <v>10.75435317128571</v>
+        <v>10.5866903165765</v>
       </c>
       <c r="O40">
-        <v>10.29003166876664</v>
+        <v>10.2888935308163</v>
       </c>
       <c r="P40">
-        <v>8.656979778706511</v>
+        <v>8.309074987083541</v>
       </c>
       <c r="Q40">
-        <v>9.533310118209013</v>
+        <v>9.268017805986723</v>
       </c>
       <c r="R40">
-        <v>9.238413766498748</v>
+        <v>9.210025796324663</v>
       </c>
       <c r="S40">
-        <v>6.918665734921206</v>
+        <v>5.496462645097037</v>
       </c>
       <c r="T40">
-        <v>7.541743385041044</v>
+        <v>7.362924426409664</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>11.16394793835005</v>
+        <v>10.78882297541163</v>
       </c>
       <c r="C41">
-        <v>11.07822450187617</v>
+        <v>11.06285251561067</v>
       </c>
       <c r="D41">
-        <v>7.80059717313399</v>
+        <v>7.685821606081429</v>
       </c>
       <c r="E41">
-        <v>7.004976856114506</v>
+        <v>6.88475987695656</v>
       </c>
       <c r="F41">
-        <v>7.457445226823118</v>
+        <v>7.276958633684968</v>
       </c>
       <c r="G41">
-        <v>16.41484025395127</v>
+        <v>16.33580641348269</v>
       </c>
       <c r="H41">
-        <v>10.39538606157896</v>
+        <v>10.34896603302695</v>
       </c>
       <c r="I41">
-        <v>5.777922063827021</v>
+        <v>5.731810957835339</v>
       </c>
       <c r="J41">
-        <v>5.013146906166187</v>
+        <v>4.950618956306922</v>
       </c>
       <c r="K41">
-        <v>7.325289743218443</v>
+        <v>7.29610416685923</v>
       </c>
       <c r="L41">
-        <v>6.825091797391392</v>
+        <v>6.710231900065639</v>
       </c>
       <c r="M41">
-        <v>5.883138382369162</v>
+        <v>5.83394752766029</v>
       </c>
       <c r="N41">
-        <v>7.677684180639464</v>
+        <v>7.557987307496149</v>
       </c>
       <c r="O41">
-        <v>11.27607280638174</v>
+        <v>11.27482560648918</v>
       </c>
       <c r="P41">
-        <v>4.700820064761339</v>
+        <v>4.511904546082349</v>
       </c>
       <c r="Q41">
-        <v>6.489059828360755</v>
+        <v>6.308482708276675</v>
       </c>
       <c r="R41">
-        <v>7.065629574601107</v>
+        <v>7.043918176227475</v>
       </c>
       <c r="S41">
-        <v>4.989019219342366</v>
+        <v>3.963474870071722</v>
       </c>
       <c r="T41">
-        <v>7.326869260554175</v>
+        <v>7.153145087732373</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>6.82646754123454</v>
+        <v>6.597088257351531</v>
       </c>
       <c r="C42">
-        <v>6.514437663893964</v>
+        <v>6.505398323133187</v>
       </c>
       <c r="D42">
-        <v>7.810347919600408</v>
+        <v>7.695428883089031</v>
       </c>
       <c r="E42">
-        <v>8.406884531681593</v>
+        <v>8.262608500041852</v>
       </c>
       <c r="F42">
-        <v>5.09483075043976</v>
+        <v>4.971524629269082</v>
       </c>
       <c r="G42">
-        <v>6.298067006968832</v>
+        <v>6.26774320147402</v>
       </c>
       <c r="H42">
-        <v>5.979351237219258</v>
+        <v>5.952650770924883</v>
       </c>
       <c r="I42">
-        <v>4.806623520100423</v>
+        <v>4.768263929204409</v>
       </c>
       <c r="J42">
-        <v>5.666773106217365</v>
+        <v>5.596092611254498</v>
       </c>
       <c r="K42">
-        <v>6.661265072552626</v>
+        <v>6.634725117514818</v>
       </c>
       <c r="L42">
-        <v>5.15673602469572</v>
+        <v>5.069952991160705</v>
       </c>
       <c r="M42">
-        <v>7.359515314826822</v>
+        <v>7.297979987073137</v>
       </c>
       <c r="N42">
-        <v>4.97680887108223</v>
+        <v>4.899219269050586</v>
       </c>
       <c r="O42">
-        <v>8.333799462584416</v>
+        <v>8.332877695407772</v>
       </c>
       <c r="P42">
-        <v>6.072094717295777</v>
+        <v>5.828070715699765</v>
       </c>
       <c r="Q42">
-        <v>5.47282617897184</v>
+        <v>5.320528740473859</v>
       </c>
       <c r="R42">
-        <v>4.790606822467871</v>
+        <v>4.775886156449951</v>
       </c>
       <c r="S42">
-        <v>5.599442291759074</v>
+        <v>4.448419185029584</v>
       </c>
       <c r="T42">
-        <v>6.810832977337683</v>
+        <v>6.649344313743601</v>
       </c>
     </row>
   </sheetData>
